--- a/Filtered_By_Region/Region VII/Region VII_LMS.xlsx
+++ b/Filtered_By_Region/Region VII/Region VII_LMS.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="DropdownOptions" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,9 +17,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -58,12 +58,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD40"/>
+  <dimension ref="A1:BE40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -718,6 +719,11 @@
           <t>Provision of Solar Panel</t>
         </is>
       </c>
+      <c r="BE1" t="inlineStr">
+        <is>
+          <t>Status as of July 4, 2025</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -776,10 +782,10 @@
       <c r="N2" t="n">
         <v>1</v>
       </c>
-      <c r="O2" s="2" t="n">
+      <c r="O2" s="3" t="n">
         <v>44637</v>
       </c>
-      <c r="P2" s="2" t="n">
+      <c r="P2" s="3" t="n">
         <v>44778</v>
       </c>
       <c r="Q2" t="n">
@@ -889,19 +895,11 @@
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AU2" t="inlineStr"/>
-      <c r="AV2" t="inlineStr"/>
-      <c r="AW2" t="inlineStr"/>
-      <c r="AX2" t="inlineStr"/>
-      <c r="AY2" t="inlineStr"/>
-      <c r="AZ2" t="inlineStr"/>
       <c r="BA2" t="inlineStr">
         <is>
           <t>CY 2022</t>
         </is>
       </c>
-      <c r="BB2" t="inlineStr"/>
-      <c r="BC2" t="inlineStr"/>
       <c r="BD2" t="n">
         <v>1</v>
       </c>
@@ -1073,19 +1071,11 @@
       <c r="AT3" t="n">
         <v>2.23</v>
       </c>
-      <c r="AU3" t="inlineStr"/>
-      <c r="AV3" t="inlineStr"/>
-      <c r="AW3" t="inlineStr"/>
-      <c r="AX3" t="inlineStr"/>
-      <c r="AY3" t="inlineStr"/>
-      <c r="AZ3" t="inlineStr"/>
       <c r="BA3" t="inlineStr">
         <is>
           <t>CY 2023</t>
         </is>
       </c>
-      <c r="BB3" t="inlineStr"/>
-      <c r="BC3" t="inlineStr"/>
       <c r="BD3" t="n">
         <v>1</v>
       </c>
@@ -1259,21 +1249,14 @@
       <c r="AT4" t="n">
         <v>6.23</v>
       </c>
-      <c r="AU4" t="inlineStr"/>
       <c r="AV4" t="n">
         <v>1</v>
       </c>
-      <c r="AW4" t="inlineStr"/>
-      <c r="AX4" t="inlineStr"/>
-      <c r="AY4" t="inlineStr"/>
-      <c r="AZ4" t="inlineStr"/>
       <c r="BA4" t="inlineStr">
         <is>
           <t>CY 2023</t>
         </is>
       </c>
-      <c r="BB4" t="inlineStr"/>
-      <c r="BC4" t="inlineStr"/>
       <c r="BD4" t="n">
         <v>0</v>
       </c>
@@ -1447,23 +1430,17 @@
       <c r="AT5" t="n">
         <v>6.23</v>
       </c>
-      <c r="AU5" t="inlineStr"/>
       <c r="AV5" t="n">
         <v>0</v>
       </c>
       <c r="AW5" t="n">
         <v>1</v>
       </c>
-      <c r="AX5" t="inlineStr"/>
-      <c r="AY5" t="inlineStr"/>
-      <c r="AZ5" t="inlineStr"/>
       <c r="BA5" t="inlineStr">
         <is>
           <t>CY 2023</t>
         </is>
       </c>
-      <c r="BB5" t="inlineStr"/>
-      <c r="BC5" t="inlineStr"/>
       <c r="BD5" t="n">
         <v>0</v>
       </c>
@@ -1634,20 +1611,12 @@
       <c r="AS6" t="n">
         <v>0</v>
       </c>
-      <c r="AT6" t="inlineStr"/>
-      <c r="AU6" t="inlineStr"/>
       <c r="AV6" t="n">
         <v>0</v>
       </c>
       <c r="AW6" t="n">
         <v>1</v>
       </c>
-      <c r="AX6" t="inlineStr"/>
-      <c r="AY6" t="inlineStr"/>
-      <c r="AZ6" t="inlineStr"/>
-      <c r="BA6" t="inlineStr"/>
-      <c r="BB6" t="inlineStr"/>
-      <c r="BC6" t="inlineStr"/>
       <c r="BD6" t="n">
         <v>0</v>
       </c>
@@ -1819,23 +1788,17 @@
       <c r="AT7" t="n">
         <v>1.24</v>
       </c>
-      <c r="AU7" t="inlineStr"/>
       <c r="AV7" t="n">
         <v>0</v>
       </c>
       <c r="AW7" t="n">
         <v>1</v>
       </c>
-      <c r="AX7" t="inlineStr"/>
-      <c r="AY7" t="inlineStr"/>
-      <c r="AZ7" t="inlineStr"/>
       <c r="BA7" t="inlineStr">
         <is>
           <t>CY 2024</t>
         </is>
       </c>
-      <c r="BB7" t="inlineStr"/>
-      <c r="BC7" t="inlineStr"/>
       <c r="BD7" t="n">
         <v>0</v>
       </c>
@@ -2007,17 +1970,9 @@
       <c r="AT8" t="n">
         <v>1.25</v>
       </c>
-      <c r="AU8" t="inlineStr"/>
       <c r="AV8" t="n">
         <v>1</v>
       </c>
-      <c r="AW8" t="inlineStr"/>
-      <c r="AX8" t="inlineStr"/>
-      <c r="AY8" t="inlineStr"/>
-      <c r="AZ8" t="inlineStr"/>
-      <c r="BA8" t="inlineStr"/>
-      <c r="BB8" t="inlineStr"/>
-      <c r="BC8" t="inlineStr"/>
       <c r="BD8" t="n">
         <v>1</v>
       </c>
@@ -2191,23 +2146,17 @@
       <c r="AT9" t="n">
         <v>6.23</v>
       </c>
-      <c r="AU9" t="inlineStr"/>
       <c r="AV9" t="n">
         <v>0</v>
       </c>
       <c r="AW9" t="n">
         <v>1</v>
       </c>
-      <c r="AX9" t="inlineStr"/>
-      <c r="AY9" t="inlineStr"/>
-      <c r="AZ9" t="inlineStr"/>
       <c r="BA9" t="inlineStr">
         <is>
           <t>CY 2023</t>
         </is>
       </c>
-      <c r="BB9" t="inlineStr"/>
-      <c r="BC9" t="inlineStr"/>
       <c r="BD9" t="n">
         <v>0</v>
       </c>
@@ -2381,21 +2330,14 @@
       <c r="AT10" t="n">
         <v>8.23</v>
       </c>
-      <c r="AU10" t="inlineStr"/>
       <c r="AV10" t="n">
         <v>1</v>
       </c>
-      <c r="AW10" t="inlineStr"/>
-      <c r="AX10" t="inlineStr"/>
-      <c r="AY10" t="inlineStr"/>
-      <c r="AZ10" t="inlineStr"/>
       <c r="BA10" t="inlineStr">
         <is>
           <t>CY 2023</t>
         </is>
       </c>
-      <c r="BB10" t="inlineStr"/>
-      <c r="BC10" t="inlineStr"/>
       <c r="BD10" t="n">
         <v>0</v>
       </c>
@@ -2564,20 +2506,12 @@
       <c r="AS11" t="n">
         <v>0</v>
       </c>
-      <c r="AT11" t="inlineStr"/>
-      <c r="AU11" t="inlineStr"/>
       <c r="AV11" t="n">
         <v>0</v>
       </c>
       <c r="AW11" t="n">
         <v>1</v>
       </c>
-      <c r="AX11" t="inlineStr"/>
-      <c r="AY11" t="inlineStr"/>
-      <c r="AZ11" t="inlineStr"/>
-      <c r="BA11" t="inlineStr"/>
-      <c r="BB11" t="inlineStr"/>
-      <c r="BC11" t="inlineStr"/>
       <c r="BD11" t="n">
         <v>0</v>
       </c>
@@ -2751,21 +2685,14 @@
       <c r="AT12" t="n">
         <v>8.23</v>
       </c>
-      <c r="AU12" t="inlineStr"/>
       <c r="AV12" t="n">
         <v>1</v>
       </c>
-      <c r="AW12" t="inlineStr"/>
-      <c r="AX12" t="inlineStr"/>
-      <c r="AY12" t="inlineStr"/>
-      <c r="AZ12" t="inlineStr"/>
       <c r="BA12" t="inlineStr">
         <is>
           <t>CY 2023</t>
         </is>
       </c>
-      <c r="BB12" t="inlineStr"/>
-      <c r="BC12" t="inlineStr"/>
       <c r="BD12" t="n">
         <v>0</v>
       </c>
@@ -2939,21 +2866,14 @@
       <c r="AT13" t="n">
         <v>8.23</v>
       </c>
-      <c r="AU13" t="inlineStr"/>
       <c r="AV13" t="n">
         <v>1</v>
       </c>
-      <c r="AW13" t="inlineStr"/>
-      <c r="AX13" t="inlineStr"/>
-      <c r="AY13" t="inlineStr"/>
-      <c r="AZ13" t="inlineStr"/>
       <c r="BA13" t="inlineStr">
         <is>
           <t>CY 2023</t>
         </is>
       </c>
-      <c r="BB13" t="inlineStr"/>
-      <c r="BC13" t="inlineStr"/>
       <c r="BD13" t="n">
         <v>0</v>
       </c>
@@ -3125,23 +3045,17 @@
       <c r="AT14" t="n">
         <v>12.23</v>
       </c>
-      <c r="AU14" t="inlineStr"/>
       <c r="AV14" t="n">
         <v>0</v>
       </c>
       <c r="AW14" t="n">
         <v>1</v>
       </c>
-      <c r="AX14" t="inlineStr"/>
-      <c r="AY14" t="inlineStr"/>
-      <c r="AZ14" t="inlineStr"/>
       <c r="BA14" t="inlineStr">
         <is>
           <t>CY 2023</t>
         </is>
       </c>
-      <c r="BB14" t="inlineStr"/>
-      <c r="BC14" t="inlineStr"/>
       <c r="BD14" t="n">
         <v>1</v>
       </c>
@@ -3313,19 +3227,12 @@
       <c r="AT15" t="n">
         <v>3.25</v>
       </c>
-      <c r="AU15" t="inlineStr"/>
       <c r="AV15" t="n">
         <v>0</v>
       </c>
       <c r="AW15" t="n">
         <v>1</v>
       </c>
-      <c r="AX15" t="inlineStr"/>
-      <c r="AY15" t="inlineStr"/>
-      <c r="AZ15" t="inlineStr"/>
-      <c r="BA15" t="inlineStr"/>
-      <c r="BB15" t="inlineStr"/>
-      <c r="BC15" t="inlineStr"/>
       <c r="BD15" t="n">
         <v>1</v>
       </c>
@@ -3497,21 +3404,14 @@
       <c r="AT16" t="n">
         <v>12.23</v>
       </c>
-      <c r="AU16" t="inlineStr"/>
       <c r="AV16" t="n">
         <v>1</v>
       </c>
-      <c r="AW16" t="inlineStr"/>
-      <c r="AX16" t="inlineStr"/>
-      <c r="AY16" t="inlineStr"/>
-      <c r="AZ16" t="inlineStr"/>
       <c r="BA16" t="inlineStr">
         <is>
           <t>CY 2023</t>
         </is>
       </c>
-      <c r="BB16" t="inlineStr"/>
-      <c r="BC16" t="inlineStr"/>
       <c r="BD16" t="n">
         <v>1</v>
       </c>
@@ -3683,23 +3583,17 @@
       <c r="AT17" t="n">
         <v>12.23</v>
       </c>
-      <c r="AU17" t="inlineStr"/>
       <c r="AV17" t="n">
         <v>0</v>
       </c>
       <c r="AW17" t="n">
         <v>1</v>
       </c>
-      <c r="AX17" t="inlineStr"/>
-      <c r="AY17" t="inlineStr"/>
-      <c r="AZ17" t="inlineStr"/>
       <c r="BA17" t="inlineStr">
         <is>
           <t>CY 2023</t>
         </is>
       </c>
-      <c r="BB17" t="inlineStr"/>
-      <c r="BC17" t="inlineStr"/>
       <c r="BD17" t="n">
         <v>1</v>
       </c>
@@ -3875,19 +3769,11 @@
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AU18" t="inlineStr"/>
-      <c r="AV18" t="inlineStr"/>
-      <c r="AW18" t="inlineStr"/>
-      <c r="AX18" t="inlineStr"/>
-      <c r="AY18" t="inlineStr"/>
-      <c r="AZ18" t="inlineStr"/>
       <c r="BA18" t="inlineStr">
         <is>
           <t>CY 2022</t>
         </is>
       </c>
-      <c r="BB18" t="inlineStr"/>
-      <c r="BC18" t="inlineStr"/>
       <c r="BD18" t="n">
         <v>0</v>
       </c>
@@ -3949,10 +3835,10 @@
       <c r="N19" t="n">
         <v>1</v>
       </c>
-      <c r="O19" s="2" t="n">
+      <c r="O19" s="3" t="n">
         <v>45126</v>
       </c>
-      <c r="P19" s="2" t="n">
+      <c r="P19" s="3" t="n">
         <v>45126</v>
       </c>
       <c r="Q19" t="inlineStr">
@@ -3965,7 +3851,7 @@
           <t xml:space="preserve"> LMS202211017</t>
         </is>
       </c>
-      <c r="S19" s="2" t="n">
+      <c r="S19" s="3" t="n">
         <v>44852</v>
       </c>
       <c r="T19" t="inlineStr">
@@ -3983,7 +3869,7 @@
           <t>#############</t>
         </is>
       </c>
-      <c r="W19" s="2" t="n">
+      <c r="W19" s="3" t="n">
         <v>44904</v>
       </c>
       <c r="X19" t="inlineStr">
@@ -4059,19 +3945,11 @@
       <c r="AT19" t="n">
         <v>8.23</v>
       </c>
-      <c r="AU19" t="inlineStr"/>
-      <c r="AV19" t="inlineStr"/>
-      <c r="AW19" t="inlineStr"/>
-      <c r="AX19" t="inlineStr"/>
-      <c r="AY19" t="inlineStr"/>
-      <c r="AZ19" t="inlineStr"/>
       <c r="BA19" t="inlineStr">
         <is>
           <t>CY 2023</t>
         </is>
       </c>
-      <c r="BB19" t="inlineStr"/>
-      <c r="BC19" t="inlineStr"/>
       <c r="BD19" t="n">
         <v>1</v>
       </c>
@@ -4138,7 +4016,7 @@
           <t>05/15/2024</t>
         </is>
       </c>
-      <c r="P20" s="2" t="n">
+      <c r="P20" s="3" t="n">
         <v>45454</v>
       </c>
       <c r="Q20" t="inlineStr">
@@ -4151,19 +4029,19 @@
           <t>PBI 2023-27</t>
         </is>
       </c>
-      <c r="S20" s="2" t="n">
+      <c r="S20" s="3" t="n">
         <v>45117</v>
       </c>
-      <c r="T20" s="2" t="n">
+      <c r="T20" s="3" t="n">
         <v>45125</v>
       </c>
-      <c r="U20" s="2" t="n">
+      <c r="U20" s="3" t="n">
         <v>45141</v>
       </c>
-      <c r="V20" s="2" t="n">
+      <c r="V20" s="3" t="n">
         <v>45208</v>
       </c>
-      <c r="W20" s="2" t="n">
+      <c r="W20" s="3" t="n">
         <v>45246</v>
       </c>
       <c r="X20" t="inlineStr">
@@ -4245,10 +4123,6 @@
       <c r="AV20" t="n">
         <v>1</v>
       </c>
-      <c r="AW20" t="inlineStr"/>
-      <c r="AX20" t="inlineStr"/>
-      <c r="AY20" t="inlineStr"/>
-      <c r="AZ20" t="inlineStr"/>
       <c r="BA20" t="inlineStr">
         <is>
           <t>CY 2024</t>
@@ -4257,7 +4131,6 @@
       <c r="BB20" t="n">
         <v>1</v>
       </c>
-      <c r="BC20" t="inlineStr"/>
       <c r="BD20" t="n">
         <v>0</v>
       </c>
@@ -4324,7 +4197,7 @@
           <t>05/15/2024</t>
         </is>
       </c>
-      <c r="P21" s="2" t="n">
+      <c r="P21" s="3" t="n">
         <v>45425</v>
       </c>
       <c r="Q21" t="inlineStr">
@@ -4337,19 +4210,19 @@
           <t>PBI 2023-28</t>
         </is>
       </c>
-      <c r="S21" s="2" t="n">
+      <c r="S21" s="3" t="n">
         <v>45117</v>
       </c>
-      <c r="T21" s="2" t="n">
+      <c r="T21" s="3" t="n">
         <v>45125</v>
       </c>
-      <c r="U21" s="2" t="n">
+      <c r="U21" s="3" t="n">
         <v>45141</v>
       </c>
-      <c r="V21" s="2" t="n">
+      <c r="V21" s="3" t="n">
         <v>45208</v>
       </c>
-      <c r="W21" s="2" t="n">
+      <c r="W21" s="3" t="n">
         <v>45246</v>
       </c>
       <c r="X21" t="inlineStr">
@@ -4434,9 +4307,6 @@
       <c r="AW21" t="n">
         <v>1</v>
       </c>
-      <c r="AX21" t="inlineStr"/>
-      <c r="AY21" t="inlineStr"/>
-      <c r="AZ21" t="inlineStr"/>
       <c r="BA21" t="inlineStr">
         <is>
           <t>CY 2024</t>
@@ -4445,7 +4315,6 @@
       <c r="BB21" t="n">
         <v>1</v>
       </c>
-      <c r="BC21" t="inlineStr"/>
       <c r="BD21" t="n">
         <v>0</v>
       </c>
@@ -4512,7 +4381,7 @@
           <t>4/16/2024</t>
         </is>
       </c>
-      <c r="P22" s="2" t="n">
+      <c r="P22" s="3" t="n">
         <v>45468</v>
       </c>
       <c r="Q22" t="inlineStr">
@@ -4525,19 +4394,19 @@
           <t>PBI 2023-29</t>
         </is>
       </c>
-      <c r="S22" s="2" t="n">
+      <c r="S22" s="3" t="n">
         <v>45117</v>
       </c>
-      <c r="T22" s="2" t="n">
+      <c r="T22" s="3" t="n">
         <v>45125</v>
       </c>
-      <c r="U22" s="2" t="n">
+      <c r="U22" s="3" t="n">
         <v>45141</v>
       </c>
-      <c r="V22" s="2" t="n">
+      <c r="V22" s="3" t="n">
         <v>45208</v>
       </c>
-      <c r="W22" s="2" t="n">
+      <c r="W22" s="3" t="n">
         <v>45247</v>
       </c>
       <c r="X22" t="inlineStr">
@@ -4619,15 +4488,9 @@
       <c r="AV22" t="n">
         <v>1</v>
       </c>
-      <c r="AW22" t="inlineStr"/>
-      <c r="AX22" t="inlineStr"/>
-      <c r="AY22" t="inlineStr"/>
-      <c r="AZ22" t="inlineStr"/>
-      <c r="BA22" t="inlineStr"/>
       <c r="BB22" t="n">
         <v>1</v>
       </c>
-      <c r="BC22" t="inlineStr"/>
       <c r="BD22" t="n">
         <v>0</v>
       </c>
@@ -4694,7 +4557,7 @@
           <t>4/26/2024</t>
         </is>
       </c>
-      <c r="P23" s="2" t="n">
+      <c r="P23" s="3" t="n">
         <v>45471</v>
       </c>
       <c r="Q23" t="inlineStr">
@@ -4707,19 +4570,19 @@
           <t>PBI 2023-30</t>
         </is>
       </c>
-      <c r="S23" s="2" t="n">
+      <c r="S23" s="3" t="n">
         <v>45117</v>
       </c>
-      <c r="T23" s="2" t="n">
+      <c r="T23" s="3" t="n">
         <v>45125</v>
       </c>
-      <c r="U23" s="2" t="n">
+      <c r="U23" s="3" t="n">
         <v>45141</v>
       </c>
-      <c r="V23" s="2" t="n">
+      <c r="V23" s="3" t="n">
         <v>45208</v>
       </c>
-      <c r="W23" s="2" t="n">
+      <c r="W23" s="3" t="n">
         <v>45258</v>
       </c>
       <c r="X23" t="inlineStr">
@@ -4801,15 +4664,9 @@
       <c r="AV23" t="n">
         <v>1</v>
       </c>
-      <c r="AW23" t="inlineStr"/>
-      <c r="AX23" t="inlineStr"/>
-      <c r="AY23" t="inlineStr"/>
-      <c r="AZ23" t="inlineStr"/>
-      <c r="BA23" t="inlineStr"/>
       <c r="BB23" t="n">
         <v>1</v>
       </c>
-      <c r="BC23" t="inlineStr"/>
       <c r="BD23" t="n">
         <v>0</v>
       </c>
@@ -4871,10 +4728,10 @@
       <c r="N24" t="n">
         <v>1</v>
       </c>
-      <c r="O24" s="2" t="n">
+      <c r="O24" s="3" t="n">
         <v>45536</v>
       </c>
-      <c r="P24" s="2" t="n">
+      <c r="P24" s="3" t="n">
         <v>45536</v>
       </c>
       <c r="Q24" t="inlineStr">
@@ -4887,16 +4744,16 @@
           <t>CY 2023 LMS-R7-CEBU-03</t>
         </is>
       </c>
-      <c r="S24" s="2" t="n">
+      <c r="S24" s="3" t="n">
         <v>45126</v>
       </c>
-      <c r="T24" s="2" t="n">
+      <c r="T24" s="3" t="n">
         <v>45133</v>
       </c>
-      <c r="U24" s="2" t="n">
+      <c r="U24" s="3" t="n">
         <v>45145</v>
       </c>
-      <c r="V24" s="2" t="n">
+      <c r="V24" s="3" t="n">
         <v>45155</v>
       </c>
       <c r="W24" t="inlineStr">
@@ -4986,14 +4843,9 @@
       <c r="AW24" t="n">
         <v>1</v>
       </c>
-      <c r="AX24" t="inlineStr"/>
-      <c r="AY24" t="inlineStr"/>
-      <c r="AZ24" t="inlineStr"/>
-      <c r="BA24" t="inlineStr"/>
       <c r="BB24" t="n">
         <v>1</v>
       </c>
-      <c r="BC24" t="inlineStr"/>
       <c r="BD24" t="n">
         <v>0</v>
       </c>
@@ -5075,16 +4927,16 @@
           <t>CY 2023 LMS-R7-CEBU-01</t>
         </is>
       </c>
-      <c r="S25" s="2" t="n">
+      <c r="S25" s="3" t="n">
         <v>45126</v>
       </c>
-      <c r="T25" s="2" t="n">
+      <c r="T25" s="3" t="n">
         <v>45133</v>
       </c>
-      <c r="U25" s="2" t="n">
+      <c r="U25" s="3" t="n">
         <v>45145</v>
       </c>
-      <c r="V25" s="2" t="n">
+      <c r="V25" s="3" t="n">
         <v>45155</v>
       </c>
       <c r="W25" t="inlineStr">
@@ -5171,15 +5023,9 @@
       <c r="AV25" t="n">
         <v>1</v>
       </c>
-      <c r="AW25" t="inlineStr"/>
-      <c r="AX25" t="inlineStr"/>
-      <c r="AY25" t="inlineStr"/>
-      <c r="AZ25" t="inlineStr"/>
-      <c r="BA25" t="inlineStr"/>
       <c r="BB25" t="n">
         <v>1</v>
       </c>
-      <c r="BC25" t="inlineStr"/>
       <c r="BD25" t="n">
         <v>0</v>
       </c>
@@ -5261,16 +5107,16 @@
           <t>CY 2023 LMS-R7-CEBU-02</t>
         </is>
       </c>
-      <c r="S26" s="2" t="n">
+      <c r="S26" s="3" t="n">
         <v>45126</v>
       </c>
-      <c r="T26" s="2" t="n">
+      <c r="T26" s="3" t="n">
         <v>45133</v>
       </c>
-      <c r="U26" s="2" t="n">
+      <c r="U26" s="3" t="n">
         <v>45145</v>
       </c>
-      <c r="V26" s="2" t="n">
+      <c r="V26" s="3" t="n">
         <v>45155</v>
       </c>
       <c r="W26" t="inlineStr">
@@ -5357,15 +5203,9 @@
       <c r="AV26" t="n">
         <v>1</v>
       </c>
-      <c r="AW26" t="inlineStr"/>
-      <c r="AX26" t="inlineStr"/>
-      <c r="AY26" t="inlineStr"/>
-      <c r="AZ26" t="inlineStr"/>
-      <c r="BA26" t="inlineStr"/>
       <c r="BB26" t="n">
         <v>1</v>
       </c>
-      <c r="BC26" t="inlineStr"/>
       <c r="BD26" t="n">
         <v>0</v>
       </c>
@@ -5427,10 +5267,10 @@
       <c r="N27" t="n">
         <v>1</v>
       </c>
-      <c r="O27" s="2" t="n">
+      <c r="O27" s="3" t="n">
         <v>45352</v>
       </c>
-      <c r="P27" s="2" t="n">
+      <c r="P27" s="3" t="n">
         <v>45294</v>
       </c>
       <c r="Q27" t="inlineStr">
@@ -5443,19 +5283,19 @@
           <t>CY 2023 LMS-R7-CEBU-04</t>
         </is>
       </c>
-      <c r="S27" s="2" t="n">
+      <c r="S27" s="3" t="n">
         <v>45126</v>
       </c>
-      <c r="T27" s="2" t="n">
+      <c r="T27" s="3" t="n">
         <v>45133</v>
       </c>
-      <c r="U27" s="2" t="n">
+      <c r="U27" s="3" t="n">
         <v>45145</v>
       </c>
-      <c r="V27" s="2" t="n">
+      <c r="V27" s="3" t="n">
         <v>45155</v>
       </c>
-      <c r="W27" s="2" t="n">
+      <c r="W27" s="3" t="n">
         <v>45269</v>
       </c>
       <c r="X27" t="inlineStr">
@@ -5537,10 +5377,6 @@
       <c r="AV27" t="n">
         <v>1</v>
       </c>
-      <c r="AW27" t="inlineStr"/>
-      <c r="AX27" t="inlineStr"/>
-      <c r="AY27" t="inlineStr"/>
-      <c r="AZ27" t="inlineStr"/>
       <c r="BA27" t="inlineStr">
         <is>
           <t>CY 2024</t>
@@ -5549,7 +5385,6 @@
       <c r="BB27" t="n">
         <v>1</v>
       </c>
-      <c r="BC27" t="inlineStr"/>
       <c r="BD27" t="n">
         <v>0</v>
       </c>
@@ -5611,7 +5446,7 @@
       <c r="N28" t="n">
         <v>1</v>
       </c>
-      <c r="O28" s="2" t="n">
+      <c r="O28" s="3" t="n">
         <v>45536</v>
       </c>
       <c r="P28" t="inlineStr">
@@ -5629,16 +5464,16 @@
           <t>CY 2023 LMS-R7-CEBU-06</t>
         </is>
       </c>
-      <c r="S28" s="2" t="n">
+      <c r="S28" s="3" t="n">
         <v>45126</v>
       </c>
-      <c r="T28" s="2" t="n">
+      <c r="T28" s="3" t="n">
         <v>45133</v>
       </c>
-      <c r="U28" s="2" t="n">
+      <c r="U28" s="3" t="n">
         <v>45145</v>
       </c>
-      <c r="V28" s="2" t="n">
+      <c r="V28" s="3" t="n">
         <v>45155</v>
       </c>
       <c r="W28" t="inlineStr">
@@ -5728,9 +5563,6 @@
       <c r="AW28" t="n">
         <v>1</v>
       </c>
-      <c r="AX28" t="inlineStr"/>
-      <c r="AY28" t="inlineStr"/>
-      <c r="AZ28" t="inlineStr"/>
       <c r="BA28" t="inlineStr">
         <is>
           <t>CY 2024</t>
@@ -5739,7 +5571,6 @@
       <c r="BB28" t="n">
         <v>1</v>
       </c>
-      <c r="BC28" t="inlineStr"/>
       <c r="BD28" t="n">
         <v>0</v>
       </c>
@@ -5821,16 +5652,16 @@
           <t>CY 2023 LMS-R7-CEBU-05</t>
         </is>
       </c>
-      <c r="S29" s="2" t="n">
+      <c r="S29" s="3" t="n">
         <v>45126</v>
       </c>
-      <c r="T29" s="2" t="n">
+      <c r="T29" s="3" t="n">
         <v>45133</v>
       </c>
-      <c r="U29" s="2" t="n">
+      <c r="U29" s="3" t="n">
         <v>45145</v>
       </c>
-      <c r="V29" s="2" t="n">
+      <c r="V29" s="3" t="n">
         <v>45155</v>
       </c>
       <c r="W29" t="inlineStr">
@@ -5917,10 +5748,6 @@
       <c r="AV29" t="n">
         <v>1</v>
       </c>
-      <c r="AW29" t="inlineStr"/>
-      <c r="AX29" t="inlineStr"/>
-      <c r="AY29" t="inlineStr"/>
-      <c r="AZ29" t="inlineStr"/>
       <c r="BA29" t="inlineStr">
         <is>
           <t>CY 2024</t>
@@ -5929,7 +5756,6 @@
       <c r="BB29" t="n">
         <v>1</v>
       </c>
-      <c r="BC29" t="inlineStr"/>
       <c r="BD29" t="n">
         <v>0</v>
       </c>
@@ -6013,7 +5839,7 @@
           <t>CY 2024 BEFF LMS-DepED-R7-Cebu-01</t>
         </is>
       </c>
-      <c r="S30" s="2" t="n">
+      <c r="S30" s="3" t="n">
         <v>45602</v>
       </c>
       <c r="T30" t="inlineStr">
@@ -6021,7 +5847,7 @@
           <t>18/06/2024</t>
         </is>
       </c>
-      <c r="U30" s="2" t="n">
+      <c r="U30" s="3" t="n">
         <v>45329</v>
       </c>
       <c r="V30" t="inlineStr">
@@ -6102,15 +5928,6 @@
       <c r="AS30" t="n">
         <v>0.2000000000000001</v>
       </c>
-      <c r="AT30" t="inlineStr"/>
-      <c r="AU30" t="inlineStr"/>
-      <c r="AV30" t="inlineStr"/>
-      <c r="AW30" t="inlineStr"/>
-      <c r="AX30" t="inlineStr"/>
-      <c r="AY30" t="inlineStr"/>
-      <c r="AZ30" t="inlineStr"/>
-      <c r="BA30" t="inlineStr"/>
-      <c r="BB30" t="inlineStr"/>
       <c r="BC30" t="inlineStr">
         <is>
           <t>1st</t>
@@ -6199,7 +6016,7 @@
           <t>CY 2024 BEFF LMS-DepED-R7-Cebu-02</t>
         </is>
       </c>
-      <c r="S31" s="2" t="n">
+      <c r="S31" s="3" t="n">
         <v>45602</v>
       </c>
       <c r="T31" t="inlineStr">
@@ -6207,7 +6024,7 @@
           <t>18/06/2024</t>
         </is>
       </c>
-      <c r="U31" s="2" t="n">
+      <c r="U31" s="3" t="n">
         <v>45329</v>
       </c>
       <c r="V31" t="inlineStr">
@@ -6291,14 +6108,6 @@
       <c r="AT31" t="n">
         <v>5.25</v>
       </c>
-      <c r="AU31" t="inlineStr"/>
-      <c r="AV31" t="inlineStr"/>
-      <c r="AW31" t="inlineStr"/>
-      <c r="AX31" t="inlineStr"/>
-      <c r="AY31" t="inlineStr"/>
-      <c r="AZ31" t="inlineStr"/>
-      <c r="BA31" t="inlineStr"/>
-      <c r="BB31" t="inlineStr"/>
       <c r="BC31" t="inlineStr">
         <is>
           <t>6th</t>
@@ -6387,7 +6196,7 @@
           <t>CY 2024 BEFF LMS-DepED-R7-Cebu-03</t>
         </is>
       </c>
-      <c r="S32" s="2" t="n">
+      <c r="S32" s="3" t="n">
         <v>45602</v>
       </c>
       <c r="T32" t="inlineStr">
@@ -6395,7 +6204,7 @@
           <t>18/06/2024</t>
         </is>
       </c>
-      <c r="U32" s="2" t="n">
+      <c r="U32" s="3" t="n">
         <v>45329</v>
       </c>
       <c r="V32" t="inlineStr">
@@ -6479,14 +6288,6 @@
       <c r="AT32" t="n">
         <v>5.25</v>
       </c>
-      <c r="AU32" t="inlineStr"/>
-      <c r="AV32" t="inlineStr"/>
-      <c r="AW32" t="inlineStr"/>
-      <c r="AX32" t="inlineStr"/>
-      <c r="AY32" t="inlineStr"/>
-      <c r="AZ32" t="inlineStr"/>
-      <c r="BA32" t="inlineStr"/>
-      <c r="BB32" t="inlineStr"/>
       <c r="BC32" t="inlineStr">
         <is>
           <t>6th</t>
@@ -6575,7 +6376,7 @@
           <t>CY 2024 BEFF LMS-DepED-R7-Cebu-04</t>
         </is>
       </c>
-      <c r="S33" s="2" t="n">
+      <c r="S33" s="3" t="n">
         <v>45602</v>
       </c>
       <c r="T33" t="inlineStr">
@@ -6583,7 +6384,7 @@
           <t>18/06/2024</t>
         </is>
       </c>
-      <c r="U33" s="2" t="n">
+      <c r="U33" s="3" t="n">
         <v>45329</v>
       </c>
       <c r="V33" t="inlineStr">
@@ -6664,15 +6465,6 @@
       <c r="AS33" t="n">
         <v>0.3</v>
       </c>
-      <c r="AT33" t="inlineStr"/>
-      <c r="AU33" t="inlineStr"/>
-      <c r="AV33" t="inlineStr"/>
-      <c r="AW33" t="inlineStr"/>
-      <c r="AX33" t="inlineStr"/>
-      <c r="AY33" t="inlineStr"/>
-      <c r="AZ33" t="inlineStr"/>
-      <c r="BA33" t="inlineStr"/>
-      <c r="BB33" t="inlineStr"/>
       <c r="BC33" t="inlineStr">
         <is>
           <t>6th</t>
@@ -6761,7 +6553,7 @@
           <t>CY 2024 BEFF LMS-DepED-R7-Cebu-05</t>
         </is>
       </c>
-      <c r="S34" s="2" t="n">
+      <c r="S34" s="3" t="n">
         <v>45602</v>
       </c>
       <c r="T34" t="inlineStr">
@@ -6769,7 +6561,7 @@
           <t>18/06/2024</t>
         </is>
       </c>
-      <c r="U34" s="2" t="n">
+      <c r="U34" s="3" t="n">
         <v>45329</v>
       </c>
       <c r="V34" t="inlineStr">
@@ -6853,14 +6645,6 @@
       <c r="AT34" t="n">
         <v>5.25</v>
       </c>
-      <c r="AU34" t="inlineStr"/>
-      <c r="AV34" t="inlineStr"/>
-      <c r="AW34" t="inlineStr"/>
-      <c r="AX34" t="inlineStr"/>
-      <c r="AY34" t="inlineStr"/>
-      <c r="AZ34" t="inlineStr"/>
-      <c r="BA34" t="inlineStr"/>
-      <c r="BB34" t="inlineStr"/>
       <c r="BC34" t="inlineStr">
         <is>
           <t>2nd</t>
@@ -6929,7 +6713,7 @@
       <c r="N35" t="n">
         <v>0.8</v>
       </c>
-      <c r="O35" s="2" t="n">
+      <c r="O35" s="3" t="n">
         <v>45867</v>
       </c>
       <c r="P35" t="inlineStr">
@@ -6947,19 +6731,19 @@
           <t>LMS202405023</t>
         </is>
       </c>
-      <c r="S35" s="2" t="n">
+      <c r="S35" s="3" t="n">
         <v>45239</v>
       </c>
-      <c r="T35" s="2" t="n">
+      <c r="T35" s="3" t="n">
         <v>45246</v>
       </c>
-      <c r="U35" s="2" t="n">
+      <c r="U35" s="3" t="n">
         <v>45258</v>
       </c>
-      <c r="V35" s="2" t="n">
+      <c r="V35" s="3" t="n">
         <v>45264</v>
       </c>
-      <c r="W35" s="2" t="n">
+      <c r="W35" s="3" t="n">
         <v>45434</v>
       </c>
       <c r="X35" t="inlineStr">
@@ -7032,15 +6816,6 @@
       <c r="AS35" t="n">
         <v>0.15</v>
       </c>
-      <c r="AT35" t="inlineStr"/>
-      <c r="AU35" t="inlineStr"/>
-      <c r="AV35" t="inlineStr"/>
-      <c r="AW35" t="inlineStr"/>
-      <c r="AX35" t="inlineStr"/>
-      <c r="AY35" t="inlineStr"/>
-      <c r="AZ35" t="inlineStr"/>
-      <c r="BA35" t="inlineStr"/>
-      <c r="BB35" t="inlineStr"/>
       <c r="BC35" t="inlineStr">
         <is>
           <t>1st</t>
@@ -7109,10 +6884,10 @@
       <c r="N36" t="n">
         <v>1</v>
       </c>
-      <c r="O36" s="2" t="n">
+      <c r="O36" s="3" t="n">
         <v>45702</v>
       </c>
-      <c r="P36" s="2" t="n">
+      <c r="P36" s="3" t="n">
         <v>45702</v>
       </c>
       <c r="Q36" t="inlineStr">
@@ -7125,19 +6900,19 @@
           <t>LMS202405024</t>
         </is>
       </c>
-      <c r="S36" s="2" t="n">
+      <c r="S36" s="3" t="n">
         <v>45239</v>
       </c>
-      <c r="T36" s="2" t="n">
+      <c r="T36" s="3" t="n">
         <v>45246</v>
       </c>
-      <c r="U36" s="2" t="n">
+      <c r="U36" s="3" t="n">
         <v>45258</v>
       </c>
-      <c r="V36" s="2" t="n">
+      <c r="V36" s="3" t="n">
         <v>45264</v>
       </c>
-      <c r="W36" s="2" t="n">
+      <c r="W36" s="3" t="n">
         <v>45434</v>
       </c>
       <c r="X36" t="inlineStr">
@@ -7213,14 +6988,6 @@
       <c r="AT36" t="n">
         <v>3.25</v>
       </c>
-      <c r="AU36" t="inlineStr"/>
-      <c r="AV36" t="inlineStr"/>
-      <c r="AW36" t="inlineStr"/>
-      <c r="AX36" t="inlineStr"/>
-      <c r="AY36" t="inlineStr"/>
-      <c r="AZ36" t="inlineStr"/>
-      <c r="BA36" t="inlineStr"/>
-      <c r="BB36" t="inlineStr"/>
       <c r="BC36" t="inlineStr">
         <is>
           <t>4th</t>
@@ -7289,10 +7056,10 @@
       <c r="N37" t="n">
         <v>1</v>
       </c>
-      <c r="O37" s="2" t="n">
+      <c r="O37" s="3" t="n">
         <v>45792</v>
       </c>
-      <c r="P37" s="2" t="n">
+      <c r="P37" s="3" t="n">
         <v>45790</v>
       </c>
       <c r="Q37" t="inlineStr">
@@ -7305,19 +7072,19 @@
           <t>LMS202405025</t>
         </is>
       </c>
-      <c r="S37" s="2" t="n">
+      <c r="S37" s="3" t="n">
         <v>45239</v>
       </c>
-      <c r="T37" s="2" t="n">
+      <c r="T37" s="3" t="n">
         <v>45246</v>
       </c>
-      <c r="U37" s="2" t="n">
+      <c r="U37" s="3" t="n">
         <v>45258</v>
       </c>
-      <c r="V37" s="2" t="n">
+      <c r="V37" s="3" t="n">
         <v>45264</v>
       </c>
-      <c r="W37" s="2" t="n">
+      <c r="W37" s="3" t="n">
         <v>45434</v>
       </c>
       <c r="X37" t="inlineStr">
@@ -7393,14 +7160,6 @@
       <c r="AT37" t="n">
         <v>5.25</v>
       </c>
-      <c r="AU37" t="inlineStr"/>
-      <c r="AV37" t="inlineStr"/>
-      <c r="AW37" t="inlineStr"/>
-      <c r="AX37" t="inlineStr"/>
-      <c r="AY37" t="inlineStr"/>
-      <c r="AZ37" t="inlineStr"/>
-      <c r="BA37" t="inlineStr"/>
-      <c r="BB37" t="inlineStr"/>
       <c r="BC37" t="inlineStr">
         <is>
           <t>4th</t>
@@ -7469,10 +7228,10 @@
       <c r="N38" t="n">
         <v>0.95</v>
       </c>
-      <c r="O38" s="2" t="n">
+      <c r="O38" s="3" t="n">
         <v>45607</v>
       </c>
-      <c r="P38" s="2" t="n">
+      <c r="P38" s="3" t="n">
         <v>45807</v>
       </c>
       <c r="Q38" t="n">
@@ -7483,19 +7242,19 @@
           <t>2023-89</t>
         </is>
       </c>
-      <c r="S38" s="2" t="n">
+      <c r="S38" s="3" t="n">
         <v>45252</v>
       </c>
-      <c r="T38" s="2" t="n">
+      <c r="T38" s="3" t="n">
         <v>45259</v>
       </c>
-      <c r="U38" s="2" t="n">
+      <c r="U38" s="3" t="n">
         <v>45271</v>
       </c>
-      <c r="V38" s="2" t="n">
+      <c r="V38" s="3" t="n">
         <v>45272</v>
       </c>
-      <c r="W38" s="2" t="n">
+      <c r="W38" s="3" t="n">
         <v>45428</v>
       </c>
       <c r="X38" t="inlineStr">
@@ -7568,15 +7327,6 @@
       <c r="AS38" t="n">
         <v>0.03999999999999992</v>
       </c>
-      <c r="AT38" t="inlineStr"/>
-      <c r="AU38" t="inlineStr"/>
-      <c r="AV38" t="inlineStr"/>
-      <c r="AW38" t="inlineStr"/>
-      <c r="AX38" t="inlineStr"/>
-      <c r="AY38" t="inlineStr"/>
-      <c r="AZ38" t="inlineStr"/>
-      <c r="BA38" t="inlineStr"/>
-      <c r="BB38" t="inlineStr"/>
       <c r="BC38" t="inlineStr">
         <is>
           <t>1st</t>
@@ -7645,10 +7395,10 @@
       <c r="N39" t="n">
         <v>1</v>
       </c>
-      <c r="O39" s="2" t="n">
+      <c r="O39" s="3" t="n">
         <v>45688</v>
       </c>
-      <c r="P39" s="2" t="n">
+      <c r="P39" s="3" t="n">
         <v>45688</v>
       </c>
       <c r="Q39" t="inlineStr">
@@ -7659,19 +7409,19 @@
       <c r="R39" t="n">
         <v>45436</v>
       </c>
-      <c r="S39" s="2" t="n">
+      <c r="S39" s="3" t="n">
         <v>45379</v>
       </c>
-      <c r="T39" s="2" t="n">
+      <c r="T39" s="3" t="n">
         <v>45386</v>
       </c>
-      <c r="U39" s="2" t="n">
+      <c r="U39" s="3" t="n">
         <v>45398</v>
       </c>
-      <c r="V39" s="2" t="n">
+      <c r="V39" s="3" t="n">
         <v>45400</v>
       </c>
-      <c r="W39" s="2" t="n">
+      <c r="W39" s="3" t="n">
         <v>45449</v>
       </c>
       <c r="X39" t="inlineStr">
@@ -7745,14 +7495,6 @@
       <c r="AT39" t="n">
         <v>3.25</v>
       </c>
-      <c r="AU39" t="inlineStr"/>
-      <c r="AV39" t="inlineStr"/>
-      <c r="AW39" t="inlineStr"/>
-      <c r="AX39" t="inlineStr"/>
-      <c r="AY39" t="inlineStr"/>
-      <c r="AZ39" t="inlineStr"/>
-      <c r="BA39" t="inlineStr"/>
-      <c r="BB39" t="inlineStr"/>
       <c r="BC39" t="inlineStr">
         <is>
           <t>3rd</t>
@@ -7821,7 +7563,7 @@
       <c r="N40" t="n">
         <v>0.2</v>
       </c>
-      <c r="O40" s="2" t="n">
+      <c r="O40" s="3" t="n">
         <v>45865</v>
       </c>
       <c r="P40" t="inlineStr">
@@ -7934,15 +7676,6 @@
       <c r="AS40" t="n">
         <v>0.1</v>
       </c>
-      <c r="AT40" t="inlineStr"/>
-      <c r="AU40" t="inlineStr"/>
-      <c r="AV40" t="inlineStr"/>
-      <c r="AW40" t="inlineStr"/>
-      <c r="AX40" t="inlineStr"/>
-      <c r="AY40" t="inlineStr"/>
-      <c r="AZ40" t="inlineStr"/>
-      <c r="BA40" t="inlineStr"/>
-      <c r="BB40" t="inlineStr"/>
       <c r="BC40" t="inlineStr">
         <is>
           <t>3rd</t>
@@ -7950,6 +7683,79 @@
       </c>
       <c r="BD40" t="n">
         <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation sqref="BE2:BE40" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>=DropdownOptions!$A$1:$A$7</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>0% - 10%: Foundation completed: Groundwork finished; no vertical structure yet.</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>11% - 25%: Structure and rough-in started: Structural framing in progress; initial MEP rough-in.</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>26% - 50%: Structure erected, partial roofing: Building shape defined; roof and systems advancing.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>51% - 75%: Exterior sealed, interior work underway: Enclosed structure; painting, flooring, and testing begin.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">76% - 90%: Final finishes and inspections: Systems tested; </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>91% - 99%: Final touches and punch list: Minor adjustments; final inspections and approvals.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>100% - Construction complete: Ready for handover and occupancy.</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/Filtered_By_Region/Region VII/Region VII_LMS.xlsx
+++ b/Filtered_By_Region/Region VII/Region VII_LMS.xlsx
@@ -32,12 +32,18 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF00"/>
+        <bgColor rgb="00FFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -58,15 +64,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -435,4249 +447,4278 @@
   <dimension ref="A1:Z40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="10" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="17" customWidth="1" min="3" max="3"/>
+    <col width="11" customWidth="1" min="4" max="4"/>
+    <col width="44" customWidth="1" min="5" max="5"/>
+    <col width="23" customWidth="1" min="6" max="6"/>
+    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="11" customWidth="1" min="9" max="9"/>
+    <col width="230" customWidth="1" min="10" max="10"/>
+    <col width="20" customWidth="1" min="11" max="11"/>
+    <col width="17" customWidth="1" min="12" max="12"/>
+    <col width="11" customWidth="1" min="13" max="13"/>
+    <col width="26" customWidth="1" min="14" max="14"/>
+    <col width="26" customWidth="1" min="15" max="15"/>
+    <col width="27" customWidth="1" min="16" max="16"/>
+    <col width="35" customWidth="1" min="17" max="17"/>
+    <col width="35" customWidth="1" min="18" max="18"/>
+    <col width="31" customWidth="1" min="19" max="19"/>
+    <col width="27" customWidth="1" min="20" max="20"/>
+    <col width="21" customWidth="1" min="21" max="21"/>
+    <col width="33" customWidth="1" min="22" max="22"/>
+    <col width="31" customWidth="1" min="23" max="23"/>
+    <col width="49" customWidth="1" min="24" max="24"/>
+    <col width="195" customWidth="1" min="25" max="25"/>
+    <col width="28" customWidth="1" min="26" max="26"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>CATEGORY</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>REGION</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>DIVISION</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>SCHOOL ID</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>SCHOOL NAME</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>MUNICIPALITY</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>LD</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>NO. OF SITES</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>NO. OF CL</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>SCOPE OF WORK</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>PROJECT ALLOCATION</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" s="3" t="inlineStr">
         <is>
           <t>CONTRACT AMOUNT</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>STATUS</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N1" s="3" t="inlineStr">
         <is>
           <t>PERCENTAGE OF COMPLETION</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="O1" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> Target Completion Date </t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="P1" s="3" t="inlineStr">
         <is>
           <t>Actual Date of Completion</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="Q1" s="3" t="inlineStr">
         <is>
           <t>Project ID</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="R1" s="3" t="inlineStr">
         <is>
           <t>Contract ID</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="S1" s="3" t="inlineStr">
         <is>
           <t>Issuance of Invitation to Bid</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="T1" s="3" t="inlineStr">
         <is>
           <t>Pre-Submission Conference</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="U1" s="3" t="inlineStr">
         <is>
           <t>Bid Opening</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="V1" s="3" t="inlineStr">
         <is>
           <t>Issuance of Resolution to Award</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="W1" s="3" t="inlineStr">
         <is>
           <t>Issuance of Notice to Proceed</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="X1" s="3" t="inlineStr">
         <is>
           <t>Name of Contractor</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Y1" s="3" t="inlineStr">
         <is>
           <t>Other Remarks</t>
         </is>
       </c>
-      <c r="Z1" s="3" t="inlineStr">
-        <is>
-          <t>Status as of July 4, 2025</t>
+      <c r="Z1" s="4" t="inlineStr">
+        <is>
+          <t>Status as of July 11, 2025</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="inlineStr">
+      <c r="A2" s="5" t="inlineStr">
         <is>
           <t>LMS 2020</t>
         </is>
       </c>
-      <c r="B2" s="4" t="inlineStr">
+      <c r="B2" s="5" t="inlineStr">
         <is>
           <t>Region VII</t>
         </is>
       </c>
-      <c r="C2" s="4" t="inlineStr">
+      <c r="C2" s="5" t="inlineStr">
         <is>
           <t>Bohol</t>
         </is>
       </c>
-      <c r="D2" s="4" t="n">
+      <c r="D2" s="5" t="n">
         <v>300519</v>
       </c>
-      <c r="E2" s="4" t="inlineStr">
+      <c r="E2" s="5" t="inlineStr">
         <is>
           <t>Mahanay High School</t>
         </is>
       </c>
-      <c r="F2" s="4" t="inlineStr">
+      <c r="F2" s="5" t="inlineStr">
         <is>
           <t>TALIBON</t>
         </is>
       </c>
-      <c r="G2" s="4" t="n">
+      <c r="G2" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" s="4" t="n">
+      <c r="H2" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J2" s="4" t="inlineStr">
+      <c r="J2" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY -TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K2" s="4" t="n">
+      <c r="K2" s="5" t="n">
         <v>9750782.822988</v>
       </c>
-      <c r="L2" s="4" t="n">
+      <c r="L2" s="5" t="n">
         <v>7050000</v>
       </c>
-      <c r="M2" s="4" t="inlineStr">
+      <c r="M2" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O2" s="5" t="n">
+      <c r="N2" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O2" s="6" t="n">
         <v>44637</v>
       </c>
-      <c r="P2" s="5" t="n">
+      <c r="P2" s="6" t="n">
         <v>44778</v>
       </c>
-      <c r="Q2" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="T2" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="U2" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="V2" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="W2" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="X2" s="4" t="inlineStr">
+      <c r="Q2" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="T2" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="U2" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="V2" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="W2" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="X2" s="5" t="inlineStr">
         <is>
           <t>Inabanga Drilling Conts Steel Fab and Gen Mdse</t>
         </is>
       </c>
-      <c r="Y2" s="4" t="inlineStr">
+      <c r="Y2" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">Request Extension due to destruction of port due to Typhoon Odette(not ganted by the BAC)
 </t>
         </is>
       </c>
-      <c r="Z2" s="4" t="n"/>
+      <c r="Z2" s="7" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="4" t="inlineStr">
+      <c r="A3" s="5" t="inlineStr">
         <is>
           <t>LMS 2021</t>
         </is>
       </c>
-      <c r="B3" s="4" t="inlineStr">
+      <c r="B3" s="5" t="inlineStr">
         <is>
           <t>Region VII</t>
         </is>
       </c>
-      <c r="C3" s="4" t="inlineStr">
+      <c r="C3" s="5" t="inlineStr">
         <is>
           <t>Bogo City</t>
         </is>
       </c>
-      <c r="D3" s="4" t="n">
+      <c r="D3" s="5" t="n">
         <v>119105</v>
       </c>
-      <c r="E3" s="4" t="inlineStr">
+      <c r="E3" s="5" t="inlineStr">
         <is>
           <t>Anonang Norte ES</t>
         </is>
       </c>
-      <c r="F3" s="4" t="inlineStr">
+      <c r="F3" s="5" t="inlineStr">
         <is>
           <t>CITY OF BOGO</t>
         </is>
       </c>
-      <c r="G3" s="4" t="n">
+      <c r="G3" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="H3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" s="4" t="n">
+      <c r="H3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J3" s="4" t="inlineStr">
+      <c r="J3" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve"> CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITHOUT TOILET) WITH PROVISION OF RAINWATER COLLECTOR, WATER AND SANITATION FACILITIES (4 SEATER), SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K3" s="4" t="n">
+      <c r="K3" s="5" t="n">
         <v>17588188.9435</v>
       </c>
-      <c r="L3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" s="4" t="inlineStr">
+      <c r="L3" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="N3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O3" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="P3" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="Q3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="T3" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="U3" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="V3" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="W3" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="X3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="4" t="n"/>
+      <c r="N3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O3" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="P3" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="Q3" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="T3" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="U3" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="V3" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="W3" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="X3" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="7" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="inlineStr">
+      <c r="A4" s="5" t="inlineStr">
         <is>
           <t>LMS 2021</t>
         </is>
       </c>
-      <c r="B4" s="4" t="inlineStr">
+      <c r="B4" s="5" t="inlineStr">
         <is>
           <t>Region VII</t>
         </is>
       </c>
-      <c r="C4" s="4" t="inlineStr">
+      <c r="C4" s="5" t="inlineStr">
         <is>
           <t>Bohol</t>
         </is>
       </c>
-      <c r="D4" s="4" t="n">
+      <c r="D4" s="5" t="n">
         <v>117974</v>
       </c>
-      <c r="E4" s="4" t="inlineStr">
+      <c r="E4" s="5" t="inlineStr">
         <is>
           <t>Cansibuan PS</t>
         </is>
       </c>
-      <c r="F4" s="4" t="inlineStr">
+      <c r="F4" s="5" t="inlineStr">
         <is>
           <t>ANTEQUERA</t>
         </is>
       </c>
-      <c r="G4" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" s="4" t="n">
+      <c r="G4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J4" s="4" t="inlineStr">
+      <c r="J4" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve"> CONSTRUCTION OF ONE (1) STOREY - THREE (3) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR AND  SCHOOL FURNITURE</t>
         </is>
       </c>
-      <c r="K4" s="4" t="n">
+      <c r="K4" s="5" t="n">
         <v>8051837.57</v>
       </c>
-      <c r="L4" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" s="4" t="inlineStr">
+      <c r="L4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="N4" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O4" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="P4" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="Q4" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="T4" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="U4" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="V4" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="W4" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="X4" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="4" t="inlineStr">
+      <c r="N4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O4" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="P4" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="Q4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="T4" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="U4" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="V4" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="W4" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="X4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="5" t="inlineStr">
         <is>
           <t>inaugurated (August)</t>
         </is>
       </c>
-      <c r="Z4" s="4" t="n"/>
+      <c r="Z4" s="7" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="4" t="inlineStr">
+      <c r="A5" s="5" t="inlineStr">
         <is>
           <t>LMS 2021</t>
         </is>
       </c>
-      <c r="B5" s="4" t="inlineStr">
+      <c r="B5" s="5" t="inlineStr">
         <is>
           <t>Region VII</t>
         </is>
       </c>
-      <c r="C5" s="4" t="inlineStr">
+      <c r="C5" s="5" t="inlineStr">
         <is>
           <t>Bohol</t>
         </is>
       </c>
-      <c r="D5" s="4" t="n">
+      <c r="D5" s="5" t="n">
         <v>118473</v>
       </c>
-      <c r="E5" s="4" t="inlineStr">
+      <c r="E5" s="5" t="inlineStr">
         <is>
           <t>Biasong ES</t>
         </is>
       </c>
-      <c r="F5" s="4" t="inlineStr">
+      <c r="F5" s="5" t="inlineStr">
         <is>
           <t>LOON</t>
         </is>
       </c>
-      <c r="G5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" s="4" t="n">
+      <c r="G5" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J5" s="4" t="inlineStr">
+      <c r="J5" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE</t>
         </is>
       </c>
-      <c r="K5" s="4" t="n">
+      <c r="K5" s="5" t="n">
         <v>9532846.1644</v>
       </c>
-      <c r="L5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" s="4" t="inlineStr">
+      <c r="L5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="N5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O5" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="P5" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="T5" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="U5" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="V5" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="W5" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="4" t="inlineStr">
+      <c r="N5" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O5" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="P5" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="Q5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="T5" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="U5" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="V5" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="W5" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="X5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="5" t="inlineStr">
         <is>
           <t>inaugurated (August)</t>
         </is>
       </c>
-      <c r="Z5" s="4" t="n"/>
+      <c r="Z5" s="7" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="4" t="inlineStr">
+      <c r="A6" s="5" t="inlineStr">
         <is>
           <t>LMS 2021</t>
         </is>
       </c>
-      <c r="B6" s="4" t="inlineStr">
+      <c r="B6" s="5" t="inlineStr">
         <is>
           <t>Region VII</t>
         </is>
       </c>
-      <c r="C6" s="4" t="inlineStr">
+      <c r="C6" s="5" t="inlineStr">
         <is>
           <t>Bohol</t>
         </is>
       </c>
-      <c r="D6" s="4" t="n">
+      <c r="D6" s="5" t="n">
         <v>118780</v>
       </c>
-      <c r="E6" s="4" t="inlineStr">
+      <c r="E6" s="5" t="inlineStr">
         <is>
           <t>Carmen Mellijor PS</t>
         </is>
       </c>
-      <c r="F6" s="4" t="inlineStr">
+      <c r="F6" s="5" t="inlineStr">
         <is>
           <t>TUBIGON</t>
         </is>
       </c>
-      <c r="G6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" s="4" t="n">
+      <c r="G6" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J6" s="4" t="inlineStr">
+      <c r="J6" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve"> CONSTRUCTION OF  ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR AND SCHOOL FURNITURE</t>
         </is>
       </c>
-      <c r="K6" s="4" t="n">
+      <c r="K6" s="5" t="n">
         <v>6286948.88</v>
       </c>
-      <c r="L6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" s="4" t="inlineStr">
+      <c r="L6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="N6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="P6" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="T6" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="U6" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="V6" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="W6" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="4" t="inlineStr">
+      <c r="N6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="P6" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="Q6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="T6" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="U6" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="V6" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="W6" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="X6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="5" t="inlineStr">
         <is>
           <t>Site issues</t>
         </is>
       </c>
-      <c r="Z6" s="4" t="n"/>
+      <c r="Z6" s="7" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="4" t="inlineStr">
+      <c r="A7" s="5" t="inlineStr">
         <is>
           <t>LMS 2021</t>
         </is>
       </c>
-      <c r="B7" s="4" t="inlineStr">
+      <c r="B7" s="5" t="inlineStr">
         <is>
           <t>Region VII</t>
         </is>
       </c>
-      <c r="C7" s="4" t="inlineStr">
+      <c r="C7" s="5" t="inlineStr">
         <is>
           <t>Bohol</t>
         </is>
       </c>
-      <c r="D7" s="4" t="n">
+      <c r="D7" s="5" t="n">
         <v>118349</v>
       </c>
-      <c r="E7" s="4" t="inlineStr">
+      <c r="E7" s="5" t="inlineStr">
         <is>
           <t>Biabas ES</t>
         </is>
       </c>
-      <c r="F7" s="4" t="inlineStr">
+      <c r="F7" s="5" t="inlineStr">
         <is>
           <t>GUINDULMAN</t>
         </is>
       </c>
-      <c r="G7" s="4" t="n">
+      <c r="G7" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="H7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" s="4" t="n">
+      <c r="H7" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J7" s="4" t="inlineStr">
+      <c r="J7" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve"> CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE</t>
         </is>
       </c>
-      <c r="K7" s="4" t="n">
+      <c r="K7" s="5" t="n">
         <v>9289481.369999999</v>
       </c>
-      <c r="L7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" s="4" t="inlineStr">
+      <c r="L7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="N7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O7" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="P7" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="Q7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="T7" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="U7" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="V7" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="W7" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="X7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="4" t="n"/>
+      <c r="N7" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O7" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="P7" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="Q7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="T7" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="U7" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="V7" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="W7" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="X7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="7" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="4" t="inlineStr">
+      <c r="A8" s="5" t="inlineStr">
         <is>
           <t>LMS 2021</t>
         </is>
       </c>
-      <c r="B8" s="4" t="inlineStr">
+      <c r="B8" s="5" t="inlineStr">
         <is>
           <t>Region VII</t>
         </is>
       </c>
-      <c r="C8" s="4" t="inlineStr">
+      <c r="C8" s="5" t="inlineStr">
         <is>
           <t>Carcar City</t>
         </is>
       </c>
-      <c r="D8" s="4" t="n">
+      <c r="D8" s="5" t="n">
         <v>119157</v>
       </c>
-      <c r="E8" s="4" t="inlineStr">
+      <c r="E8" s="5" t="inlineStr">
         <is>
           <t>Cara-atan Elementary School</t>
         </is>
       </c>
-      <c r="F8" s="4" t="inlineStr">
+      <c r="F8" s="5" t="inlineStr">
         <is>
           <t>CITY OF CARCAR</t>
         </is>
       </c>
-      <c r="G8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" s="4" t="n">
+      <c r="G8" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J8" s="4" t="inlineStr">
+      <c r="J8" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve"> CONSTRUCTION OF ONE (1) STOREY - THREE (3) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K8" s="4" t="n">
+      <c r="K8" s="5" t="n">
         <v>17400878.67</v>
       </c>
-      <c r="L8" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" s="4" t="inlineStr">
+      <c r="L8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O8" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="P8" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="Q8" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="T8" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="U8" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="V8" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="W8" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="X8" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="4" t="n"/>
+      <c r="N8" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O8" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="P8" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="Q8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="T8" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="U8" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="V8" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="W8" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="X8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="7" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="4" t="inlineStr">
+      <c r="A9" s="5" t="inlineStr">
         <is>
           <t>LMS 2021</t>
         </is>
       </c>
-      <c r="B9" s="4" t="inlineStr">
+      <c r="B9" s="5" t="inlineStr">
         <is>
           <t>Region VII</t>
         </is>
       </c>
-      <c r="C9" s="4" t="inlineStr">
+      <c r="C9" s="5" t="inlineStr">
         <is>
           <t>Cebu</t>
         </is>
       </c>
-      <c r="D9" s="4" t="n">
+      <c r="D9" s="5" t="n">
         <v>118926</v>
       </c>
-      <c r="E9" s="4" t="inlineStr">
+      <c r="E9" s="5" t="inlineStr">
         <is>
           <t>Catang PS</t>
         </is>
       </c>
-      <c r="F9" s="4" t="inlineStr">
+      <c r="F9" s="5" t="inlineStr">
         <is>
           <t>ARGAO</t>
         </is>
       </c>
-      <c r="G9" s="4" t="n">
+      <c r="G9" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H9" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" s="4" t="n">
+      <c r="H9" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J9" s="4" t="inlineStr">
+      <c r="J9" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve"> CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE</t>
         </is>
       </c>
-      <c r="K9" s="4" t="n">
+      <c r="K9" s="5" t="n">
         <v>9541017.1149</v>
       </c>
-      <c r="L9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" s="4" t="inlineStr">
+      <c r="L9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="N9" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O9" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="P9" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="Q9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="T9" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="U9" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="V9" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="W9" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="X9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="4" t="inlineStr">
+      <c r="N9" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O9" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="P9" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="Q9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="T9" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="U9" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="V9" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="W9" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="X9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="5" t="inlineStr">
         <is>
           <t>inaugurated (August)</t>
         </is>
       </c>
-      <c r="Z9" s="4" t="n"/>
+      <c r="Z9" s="7" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="4" t="inlineStr">
+      <c r="A10" s="5" t="inlineStr">
         <is>
           <t>LMS 2021</t>
         </is>
       </c>
-      <c r="B10" s="4" t="inlineStr">
+      <c r="B10" s="5" t="inlineStr">
         <is>
           <t>Region VII</t>
         </is>
       </c>
-      <c r="C10" s="4" t="inlineStr">
+      <c r="C10" s="5" t="inlineStr">
         <is>
           <t>Cebu</t>
         </is>
       </c>
-      <c r="D10" s="4" t="n">
+      <c r="D10" s="5" t="n">
         <v>118975</v>
       </c>
-      <c r="E10" s="4" t="inlineStr">
+      <c r="E10" s="5" t="inlineStr">
         <is>
           <t>Kaluangan I PS</t>
         </is>
       </c>
-      <c r="F10" s="4" t="inlineStr">
+      <c r="F10" s="5" t="inlineStr">
         <is>
           <t>ASTURIAS</t>
         </is>
       </c>
-      <c r="G10" s="4" t="n">
+      <c r="G10" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="H10" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" s="4" t="n">
+      <c r="H10" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J10" s="4" t="inlineStr">
+      <c r="J10" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve"> CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K10" s="4" t="n">
+      <c r="K10" s="5" t="n">
         <v>10414217.32</v>
       </c>
-      <c r="L10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" s="4" t="inlineStr">
+      <c r="L10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="N10" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O10" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="P10" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="Q10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="T10" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="U10" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="V10" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="W10" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="X10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="4" t="inlineStr">
+      <c r="N10" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O10" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="P10" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="Q10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="T10" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="U10" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="V10" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="W10" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="X10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="5" t="inlineStr">
         <is>
           <t>inaugurated (August)</t>
         </is>
       </c>
-      <c r="Z10" s="4" t="n"/>
+      <c r="Z10" s="7" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="4" t="inlineStr">
+      <c r="A11" s="5" t="inlineStr">
         <is>
           <t>LMS 2021</t>
         </is>
       </c>
-      <c r="B11" s="4" t="inlineStr">
+      <c r="B11" s="5" t="inlineStr">
         <is>
           <t>Region VII</t>
         </is>
       </c>
-      <c r="C11" s="4" t="inlineStr">
+      <c r="C11" s="5" t="inlineStr">
         <is>
           <t>Cebu</t>
         </is>
       </c>
-      <c r="D11" s="4" t="n">
+      <c r="D11" s="5" t="n">
         <v>119466</v>
       </c>
-      <c r="E11" s="4" t="inlineStr">
+      <c r="E11" s="5" t="inlineStr">
         <is>
           <t>Maharuhay ES</t>
         </is>
       </c>
-      <c r="F11" s="4" t="inlineStr">
+      <c r="F11" s="5" t="inlineStr">
         <is>
           <t>MEDELLIN</t>
         </is>
       </c>
-      <c r="G11" s="4" t="n">
+      <c r="G11" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="H11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" s="4" t="n">
+      <c r="H11" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J11" s="4" t="inlineStr">
+      <c r="J11" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve"> CONSTRUCTION OF ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, AND SCHOOL FURNITURE</t>
         </is>
       </c>
-      <c r="K11" s="4" t="n">
+      <c r="K11" s="5" t="n">
         <v>6563376.166900001</v>
       </c>
-      <c r="L11" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" s="4" t="inlineStr">
+      <c r="L11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="N11" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="P11" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="Q11" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="T11" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="U11" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="V11" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="W11" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="X11" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="4" t="n"/>
+      <c r="N11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="P11" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="Q11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="T11" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="U11" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="V11" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="W11" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="X11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="7" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="4" t="inlineStr">
+      <c r="A12" s="5" t="inlineStr">
         <is>
           <t>LMS 2021</t>
         </is>
       </c>
-      <c r="B12" s="4" t="inlineStr">
+      <c r="B12" s="5" t="inlineStr">
         <is>
           <t>Region VII</t>
         </is>
       </c>
-      <c r="C12" s="4" t="inlineStr">
+      <c r="C12" s="5" t="inlineStr">
         <is>
           <t>Cebu</t>
         </is>
       </c>
-      <c r="D12" s="4" t="n">
+      <c r="D12" s="5" t="n">
         <v>119448</v>
       </c>
-      <c r="E12" s="4" t="inlineStr">
+      <c r="E12" s="5" t="inlineStr">
         <is>
           <t>Palaypay PS</t>
         </is>
       </c>
-      <c r="F12" s="4" t="inlineStr">
+      <c r="F12" s="5" t="inlineStr">
         <is>
           <t>MALABUYOC</t>
         </is>
       </c>
-      <c r="G12" s="4" t="n">
+      <c r="G12" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="H12" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" s="4" t="n">
+      <c r="H12" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J12" s="4" t="inlineStr">
+      <c r="J12" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve"> CONSTRUCTION OF ONE (1) STOREY - THREE (3) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K12" s="4" t="n">
+      <c r="K12" s="5" t="n">
         <v>8618124.5</v>
       </c>
-      <c r="L12" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" s="4" t="inlineStr">
+      <c r="L12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="N12" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O12" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="P12" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="Q12" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R12" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S12" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="T12" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="U12" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="V12" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="W12" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="X12" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="4" t="inlineStr">
+      <c r="N12" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O12" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="P12" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="Q12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="T12" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="U12" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="V12" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="W12" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="X12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="5" t="inlineStr">
         <is>
           <t>inaugurated (August)</t>
         </is>
       </c>
-      <c r="Z12" s="4" t="n"/>
+      <c r="Z12" s="7" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="4" t="inlineStr">
+      <c r="A13" s="5" t="inlineStr">
         <is>
           <t>LMS 2021</t>
         </is>
       </c>
-      <c r="B13" s="4" t="inlineStr">
+      <c r="B13" s="5" t="inlineStr">
         <is>
           <t>Region VII</t>
         </is>
       </c>
-      <c r="C13" s="4" t="inlineStr">
+      <c r="C13" s="5" t="inlineStr">
         <is>
           <t>Danao City</t>
         </is>
       </c>
-      <c r="D13" s="4" t="n">
+      <c r="D13" s="5" t="n">
         <v>119352</v>
       </c>
-      <c r="E13" s="4" t="inlineStr">
+      <c r="E13" s="5" t="inlineStr">
         <is>
           <t>Melecio B. Tito ES</t>
         </is>
       </c>
-      <c r="F13" s="4" t="inlineStr">
+      <c r="F13" s="5" t="inlineStr">
         <is>
           <t>DANAO CITY</t>
         </is>
       </c>
-      <c r="G13" s="4" t="n">
+      <c r="G13" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="H13" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" s="4" t="n">
+      <c r="H13" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J13" s="4" t="inlineStr">
+      <c r="J13" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve"> CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITHOUT TOILET), WITH PROVISION OF RAINWATER COLLECTOR, WATER AND SANITATION FACILITIES (4 - SEATER), SCHOOL FURNITURE  AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K13" s="4" t="n">
+      <c r="K13" s="5" t="n">
         <v>9616220.826099999</v>
       </c>
-      <c r="L13" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" s="4" t="inlineStr">
+      <c r="L13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="N13" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O13" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="P13" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="Q13" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R13" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S13" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="T13" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="U13" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="V13" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="W13" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="X13" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="4" t="inlineStr">
+      <c r="N13" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O13" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="P13" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="Q13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="T13" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="U13" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="V13" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="W13" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="X13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="5" t="inlineStr">
         <is>
           <t>inaugurated (August)</t>
         </is>
       </c>
-      <c r="Z13" s="4" t="n"/>
+      <c r="Z13" s="7" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="4" t="inlineStr">
+      <c r="A14" s="5" t="inlineStr">
         <is>
           <t>LMS 2021</t>
         </is>
       </c>
-      <c r="B14" s="4" t="inlineStr">
+      <c r="B14" s="5" t="inlineStr">
         <is>
           <t>Region VII</t>
         </is>
       </c>
-      <c r="C14" s="4" t="inlineStr">
+      <c r="C14" s="5" t="inlineStr">
         <is>
           <t>Negros Oriental</t>
         </is>
       </c>
-      <c r="D14" s="4" t="n">
+      <c r="D14" s="5" t="n">
         <v>120038</v>
       </c>
-      <c r="E14" s="4" t="inlineStr">
+      <c r="E14" s="5" t="inlineStr">
         <is>
           <t>Canlukduhan ES</t>
         </is>
       </c>
-      <c r="F14" s="4" t="inlineStr">
+      <c r="F14" s="5" t="inlineStr">
         <is>
           <t>AYUNGON</t>
         </is>
       </c>
-      <c r="G14" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H14" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" s="4" t="n">
+      <c r="G14" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J14" s="4" t="inlineStr">
+      <c r="J14" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve"> CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K14" s="4" t="n">
+      <c r="K14" s="5" t="n">
         <v>17295671.81</v>
       </c>
-      <c r="L14" s="4" t="n">
+      <c r="L14" s="5" t="n">
         <v>17268197.24</v>
       </c>
-      <c r="M14" s="4" t="inlineStr">
+      <c r="M14" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="N14" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O14" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="P14" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="Q14" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="T14" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="U14" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="V14" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="W14" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="X14" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="4" t="n"/>
+      <c r="N14" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O14" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="P14" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="Q14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="T14" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="U14" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="V14" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="W14" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="X14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="7" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="4" t="inlineStr">
+      <c r="A15" s="5" t="inlineStr">
         <is>
           <t>LMS 2021</t>
         </is>
       </c>
-      <c r="B15" s="4" t="inlineStr">
+      <c r="B15" s="5" t="inlineStr">
         <is>
           <t>Region VII</t>
         </is>
       </c>
-      <c r="C15" s="4" t="inlineStr">
+      <c r="C15" s="5" t="inlineStr">
         <is>
           <t>Negros Oriental</t>
         </is>
       </c>
-      <c r="D15" s="4" t="n">
+      <c r="D15" s="5" t="n">
         <v>120303</v>
       </c>
-      <c r="E15" s="4" t="inlineStr">
+      <c r="E15" s="5" t="inlineStr">
         <is>
           <t>Mongpong Primary School</t>
         </is>
       </c>
-      <c r="F15" s="4" t="inlineStr">
+      <c r="F15" s="5" t="inlineStr">
         <is>
           <t>JIMALALUD</t>
         </is>
       </c>
-      <c r="G15" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H15" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" s="4" t="n">
+      <c r="G15" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J15" s="4" t="inlineStr">
+      <c r="J15" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve"> CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K15" s="4" t="n">
+      <c r="K15" s="5" t="n">
         <v>16599217.8707</v>
       </c>
-      <c r="L15" s="4" t="n">
+      <c r="L15" s="5" t="n">
         <v>16572079.83</v>
       </c>
-      <c r="M15" s="4" t="inlineStr">
+      <c r="M15" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="N15" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O15" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="P15" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="Q15" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R15" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S15" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="T15" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="U15" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="V15" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="W15" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="X15" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="4" t="n"/>
+      <c r="N15" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O15" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="P15" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="Q15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="T15" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="U15" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="V15" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="W15" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="X15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="7" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="4" t="inlineStr">
+      <c r="A16" s="5" t="inlineStr">
         <is>
           <t>LMS 2021</t>
         </is>
       </c>
-      <c r="B16" s="4" t="inlineStr">
+      <c r="B16" s="5" t="inlineStr">
         <is>
           <t>Region VII</t>
         </is>
       </c>
-      <c r="C16" s="4" t="inlineStr">
+      <c r="C16" s="5" t="inlineStr">
         <is>
           <t>Negros Oriental</t>
         </is>
       </c>
-      <c r="D16" s="4" t="n">
+      <c r="D16" s="5" t="n">
         <v>120482</v>
       </c>
-      <c r="E16" s="4" t="inlineStr">
+      <c r="E16" s="5" t="inlineStr">
         <is>
           <t>Agan-an Elementary School</t>
         </is>
       </c>
-      <c r="F16" s="4" t="inlineStr">
+      <c r="F16" s="5" t="inlineStr">
         <is>
           <t>SIBULAN</t>
         </is>
       </c>
-      <c r="G16" s="4" t="n">
+      <c r="G16" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H16" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" s="4" t="n">
+      <c r="H16" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J16" s="4" t="inlineStr">
+      <c r="J16" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K16" s="4" t="n">
+      <c r="K16" s="5" t="n">
         <v>16382034.5205</v>
       </c>
-      <c r="L16" s="4" t="n">
+      <c r="L16" s="5" t="n">
         <v>16354914.9</v>
       </c>
-      <c r="M16" s="4" t="inlineStr">
+      <c r="M16" s="5" t="inlineStr">
         <is>
           <t>completed</t>
         </is>
       </c>
-      <c r="N16" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O16" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="P16" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="Q16" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R16" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S16" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="T16" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="U16" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="V16" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="W16" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="X16" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y16" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="4" t="n"/>
+      <c r="N16" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O16" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="P16" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="Q16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="T16" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="U16" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="V16" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="W16" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="X16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="7" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" s="4" t="inlineStr">
+      <c r="A17" s="5" t="inlineStr">
         <is>
           <t>LMS 2021</t>
         </is>
       </c>
-      <c r="B17" s="4" t="inlineStr">
+      <c r="B17" s="5" t="inlineStr">
         <is>
           <t>Region VII</t>
         </is>
       </c>
-      <c r="C17" s="4" t="inlineStr">
+      <c r="C17" s="5" t="inlineStr">
         <is>
           <t>Negros Oriental</t>
         </is>
       </c>
-      <c r="D17" s="4" t="n">
+      <c r="D17" s="5" t="n">
         <v>120443</v>
       </c>
-      <c r="E17" s="4" t="inlineStr">
+      <c r="E17" s="5" t="inlineStr">
         <is>
           <t>Antulang Elementary School</t>
         </is>
       </c>
-      <c r="F17" s="4" t="inlineStr">
+      <c r="F17" s="5" t="inlineStr">
         <is>
           <t>SIATON</t>
         </is>
       </c>
-      <c r="G17" s="4" t="n">
+      <c r="G17" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="H17" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" s="4" t="n">
+      <c r="H17" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J17" s="4" t="inlineStr">
+      <c r="J17" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve"> CONSTRUCTION OF ONE (1) UNIT ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K17" s="4" t="n">
+      <c r="K17" s="5" t="n">
         <v>16529232.17</v>
       </c>
-      <c r="L17" s="4" t="n">
+      <c r="L17" s="5" t="n">
         <v>16502080.2</v>
       </c>
-      <c r="M17" s="4" t="inlineStr">
+      <c r="M17" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="N17" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O17" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="P17" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="Q17" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="T17" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="U17" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="V17" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="W17" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="X17" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y17" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z17" s="4" t="n"/>
+      <c r="N17" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O17" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="P17" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="Q17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="T17" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="U17" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="V17" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="W17" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="X17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="7" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" s="4" t="inlineStr">
+      <c r="A18" s="5" t="inlineStr">
         <is>
           <t>LMS 2021</t>
         </is>
       </c>
-      <c r="B18" s="4" t="inlineStr">
+      <c r="B18" s="5" t="inlineStr">
         <is>
           <t>Region VII</t>
         </is>
       </c>
-      <c r="C18" s="4" t="inlineStr">
+      <c r="C18" s="5" t="inlineStr">
         <is>
           <t>Talisay City</t>
         </is>
       </c>
-      <c r="D18" s="4" t="n">
+      <c r="D18" s="5" t="n">
         <v>233505</v>
       </c>
-      <c r="E18" s="4" t="inlineStr">
+      <c r="E18" s="5" t="inlineStr">
         <is>
           <t>Campinsa Elementary School</t>
         </is>
       </c>
-      <c r="F18" s="4" t="inlineStr">
+      <c r="F18" s="5" t="inlineStr">
         <is>
           <t>CITY OF TALISAY</t>
         </is>
       </c>
-      <c r="G18" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H18" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" s="4" t="n">
+      <c r="G18" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H18" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J18" s="4" t="inlineStr">
+      <c r="J18" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve"> CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K18" s="4" t="n">
+      <c r="K18" s="5" t="n">
         <v>10909009.1202</v>
       </c>
-      <c r="L18" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" s="4" t="inlineStr">
+      <c r="L18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="N18" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O18" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="P18" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="Q18" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R18" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S18" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="T18" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="U18" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="V18" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="W18" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="X18" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y18" s="4" t="inlineStr">
+      <c r="N18" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O18" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="P18" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="Q18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="T18" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="U18" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="V18" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="W18" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="X18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="5" t="inlineStr">
         <is>
           <t>inaugurated (August)</t>
         </is>
       </c>
-      <c r="Z18" s="4" t="n"/>
+      <c r="Z18" s="7" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" s="4" t="inlineStr">
+      <c r="A19" s="5" t="inlineStr">
         <is>
           <t>LMS 2022</t>
         </is>
       </c>
-      <c r="B19" s="4" t="inlineStr">
+      <c r="B19" s="5" t="inlineStr">
         <is>
           <t>Region VII</t>
         </is>
       </c>
-      <c r="C19" s="4" t="inlineStr">
+      <c r="C19" s="5" t="inlineStr">
         <is>
           <t>Negros Oriental</t>
         </is>
       </c>
-      <c r="D19" s="4" t="n">
+      <c r="D19" s="5" t="n">
         <v>189514</v>
       </c>
-      <c r="E19" s="4" t="inlineStr">
+      <c r="E19" s="5" t="inlineStr">
         <is>
           <t>Guilongsoran Primary School</t>
         </is>
       </c>
-      <c r="F19" s="4" t="inlineStr">
+      <c r="F19" s="5" t="inlineStr">
         <is>
           <t>SAN JOSE</t>
         </is>
       </c>
-      <c r="G19" s="4" t="n">
+      <c r="G19" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H19" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" s="4" t="n">
+      <c r="H19" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J19" s="4" t="inlineStr">
+      <c r="J19" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K19" s="4" t="n">
+      <c r="K19" s="5" t="n">
         <v>16249807.02072526</v>
       </c>
-      <c r="L19" s="4" t="n">
+      <c r="L19" s="5" t="n">
         <v>16152092.89</v>
       </c>
-      <c r="M19" s="4" t="inlineStr">
+      <c r="M19" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N19" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O19" s="5" t="n">
+      <c r="N19" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O19" s="6" t="n">
         <v>45126</v>
       </c>
-      <c r="P19" s="5" t="n">
+      <c r="P19" s="6" t="n">
         <v>45126</v>
       </c>
-      <c r="Q19" s="4" t="inlineStr">
+      <c r="Q19" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve"> ITB 2022-10-136</t>
         </is>
       </c>
-      <c r="R19" s="4" t="inlineStr">
+      <c r="R19" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve"> LMS202211017</t>
         </is>
       </c>
-      <c r="S19" s="5" t="n">
+      <c r="S19" s="6" t="n">
         <v>44852</v>
       </c>
-      <c r="T19" s="4" t="inlineStr">
+      <c r="T19" s="5" t="inlineStr">
         <is>
           <t>#############</t>
         </is>
       </c>
-      <c r="U19" s="4" t="inlineStr">
+      <c r="U19" s="5" t="inlineStr">
         <is>
           <t>#############</t>
         </is>
       </c>
-      <c r="V19" s="4" t="inlineStr">
+      <c r="V19" s="5" t="inlineStr">
         <is>
           <t>#############</t>
         </is>
       </c>
-      <c r="W19" s="5" t="n">
+      <c r="W19" s="6" t="n">
         <v>44904</v>
       </c>
-      <c r="X19" s="4" t="inlineStr">
+      <c r="X19" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve"> TRINITYCAD CORPORATION</t>
         </is>
       </c>
-      <c r="Y19" s="4" t="inlineStr">
+      <c r="Y19" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve"> With approved Time Extension &amp; Variation order - extra work.</t>
         </is>
       </c>
-      <c r="Z19" s="4" t="n"/>
+      <c r="Z19" s="7" t="n"/>
     </row>
     <row r="20">
-      <c r="A20" s="4" t="inlineStr">
+      <c r="A20" s="5" t="inlineStr">
         <is>
           <t>LMS 2023</t>
         </is>
       </c>
-      <c r="B20" s="4" t="inlineStr">
+      <c r="B20" s="5" t="inlineStr">
         <is>
           <t>Region VII</t>
         </is>
       </c>
-      <c r="C20" s="4" t="inlineStr">
+      <c r="C20" s="5" t="inlineStr">
         <is>
           <t>Bohol</t>
         </is>
       </c>
-      <c r="D20" s="4" t="n">
+      <c r="D20" s="5" t="n">
         <v>117998</v>
       </c>
-      <c r="E20" s="4" t="inlineStr">
+      <c r="E20" s="5" t="inlineStr">
         <is>
           <t>Boyog ES</t>
         </is>
       </c>
-      <c r="F20" s="4" t="inlineStr">
+      <c r="F20" s="5" t="inlineStr">
         <is>
           <t>BALILIHAN</t>
         </is>
       </c>
-      <c r="G20" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H20" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" s="4" t="n">
+      <c r="G20" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J20" s="4" t="inlineStr">
+      <c r="J20" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY-FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMON TOILET) WITH PROVISION OF SCHOOL FURNITURE</t>
         </is>
       </c>
-      <c r="K20" s="4" t="n">
+      <c r="K20" s="5" t="n">
         <v>10766058.66</v>
       </c>
-      <c r="L20" s="4" t="n">
+      <c r="L20" s="5" t="n">
         <v>10644375.55</v>
       </c>
-      <c r="M20" s="4" t="inlineStr">
+      <c r="M20" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N20" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O20" s="4" t="inlineStr">
+      <c r="N20" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O20" s="5" t="inlineStr">
         <is>
           <t>05/15/2024</t>
         </is>
       </c>
-      <c r="P20" s="5" t="n">
+      <c r="P20" s="6" t="n">
         <v>45454</v>
       </c>
-      <c r="Q20" s="4" t="inlineStr">
+      <c r="Q20" s="5" t="inlineStr">
         <is>
           <t>PBI 2023-27</t>
         </is>
       </c>
-      <c r="R20" s="4" t="inlineStr">
+      <c r="R20" s="5" t="inlineStr">
         <is>
           <t>PBI 2023-27</t>
         </is>
       </c>
-      <c r="S20" s="5" t="n">
+      <c r="S20" s="6" t="n">
         <v>45117</v>
       </c>
-      <c r="T20" s="5" t="n">
+      <c r="T20" s="6" t="n">
         <v>45125</v>
       </c>
-      <c r="U20" s="5" t="n">
+      <c r="U20" s="6" t="n">
         <v>45141</v>
       </c>
-      <c r="V20" s="5" t="n">
+      <c r="V20" s="6" t="n">
         <v>45208</v>
       </c>
-      <c r="W20" s="5" t="n">
+      <c r="W20" s="6" t="n">
         <v>45246</v>
       </c>
-      <c r="X20" s="4" t="inlineStr">
+      <c r="X20" s="5" t="inlineStr">
         <is>
           <t>C. JANSENN CONSTRUCTION AND GENERAL MERCHANDISE</t>
         </is>
       </c>
-      <c r="Y20" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z20" s="4" t="n"/>
+      <c r="Y20" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="7" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" s="4" t="inlineStr">
+      <c r="A21" s="5" t="inlineStr">
         <is>
           <t>LMS 2023</t>
         </is>
       </c>
-      <c r="B21" s="4" t="inlineStr">
+      <c r="B21" s="5" t="inlineStr">
         <is>
           <t>Region VII</t>
         </is>
       </c>
-      <c r="C21" s="4" t="inlineStr">
+      <c r="C21" s="5" t="inlineStr">
         <is>
           <t>Bohol</t>
         </is>
       </c>
-      <c r="D21" s="4" t="n">
+      <c r="D21" s="5" t="n">
         <v>103611</v>
       </c>
-      <c r="E21" s="4" t="inlineStr">
+      <c r="E21" s="5" t="inlineStr">
         <is>
           <t>Cantumogcad ES</t>
         </is>
       </c>
-      <c r="F21" s="4" t="inlineStr">
+      <c r="F21" s="5" t="inlineStr">
         <is>
           <t>BUENAVISTA</t>
         </is>
       </c>
-      <c r="G21" s="4" t="n">
+      <c r="G21" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H21" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" s="4" t="n">
+      <c r="H21" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J21" s="4" t="inlineStr">
+      <c r="J21" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF 2 UNITS ONE (1) STOREY-TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR AND SCHOOL FURNITURE</t>
         </is>
       </c>
-      <c r="K21" s="4" t="n">
+      <c r="K21" s="5" t="n">
         <v>12125725.66</v>
       </c>
-      <c r="L21" s="4" t="n">
+      <c r="L21" s="5" t="n">
         <v>11981920.24</v>
       </c>
-      <c r="M21" s="4" t="inlineStr">
+      <c r="M21" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N21" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O21" s="4" t="inlineStr">
+      <c r="N21" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O21" s="5" t="inlineStr">
         <is>
           <t>05/15/2024</t>
         </is>
       </c>
-      <c r="P21" s="5" t="n">
+      <c r="P21" s="6" t="n">
         <v>45425</v>
       </c>
-      <c r="Q21" s="4" t="inlineStr">
+      <c r="Q21" s="5" t="inlineStr">
         <is>
           <t>PBI 2023-28</t>
         </is>
       </c>
-      <c r="R21" s="4" t="inlineStr">
+      <c r="R21" s="5" t="inlineStr">
         <is>
           <t>PBI 2023-28</t>
         </is>
       </c>
-      <c r="S21" s="5" t="n">
+      <c r="S21" s="6" t="n">
         <v>45117</v>
       </c>
-      <c r="T21" s="5" t="n">
+      <c r="T21" s="6" t="n">
         <v>45125</v>
       </c>
-      <c r="U21" s="5" t="n">
+      <c r="U21" s="6" t="n">
         <v>45141</v>
       </c>
-      <c r="V21" s="5" t="n">
+      <c r="V21" s="6" t="n">
         <v>45208</v>
       </c>
-      <c r="W21" s="5" t="n">
+      <c r="W21" s="6" t="n">
         <v>45246</v>
       </c>
-      <c r="X21" s="4" t="inlineStr">
+      <c r="X21" s="5" t="inlineStr">
         <is>
           <t>C. JANSENN CONSTRUCTION AND GENERAL MERCHANDISE</t>
         </is>
       </c>
-      <c r="Y21" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z21" s="4" t="n"/>
+      <c r="Y21" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="7" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="4" t="inlineStr">
+      <c r="A22" s="5" t="inlineStr">
         <is>
           <t>LMS 2023</t>
         </is>
       </c>
-      <c r="B22" s="4" t="inlineStr">
+      <c r="B22" s="5" t="inlineStr">
         <is>
           <t>Region VII</t>
         </is>
       </c>
-      <c r="C22" s="4" t="inlineStr">
+      <c r="C22" s="5" t="inlineStr">
         <is>
           <t>Bohol</t>
         </is>
       </c>
-      <c r="D22" s="4" t="n">
+      <c r="D22" s="5" t="n">
         <v>117965</v>
       </c>
-      <c r="E22" s="4" t="inlineStr">
+      <c r="E22" s="5" t="inlineStr">
         <is>
           <t>Tanod ES</t>
         </is>
       </c>
-      <c r="F22" s="4" t="inlineStr">
+      <c r="F22" s="5" t="inlineStr">
         <is>
           <t>ANDA</t>
         </is>
       </c>
-      <c r="G22" s="4" t="n">
+      <c r="G22" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="H22" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" s="4" t="n">
+      <c r="H22" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I22" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J22" s="4" t="inlineStr">
+      <c r="J22" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY-TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR AND SCHOOL FURNITURE</t>
         </is>
       </c>
-      <c r="K22" s="4" t="n">
+      <c r="K22" s="5" t="n">
         <v>6161022.46</v>
       </c>
-      <c r="L22" s="4" t="n">
+      <c r="L22" s="5" t="n">
         <v>6032357.5</v>
       </c>
-      <c r="M22" s="4" t="inlineStr">
+      <c r="M22" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N22" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O22" s="4" t="inlineStr">
+      <c r="N22" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O22" s="5" t="inlineStr">
         <is>
           <t>4/16/2024</t>
         </is>
       </c>
-      <c r="P22" s="5" t="n">
+      <c r="P22" s="6" t="n">
         <v>45468</v>
       </c>
-      <c r="Q22" s="4" t="inlineStr">
+      <c r="Q22" s="5" t="inlineStr">
         <is>
           <t>PBI 2023-29</t>
         </is>
       </c>
-      <c r="R22" s="4" t="inlineStr">
+      <c r="R22" s="5" t="inlineStr">
         <is>
           <t>PBI 2023-29</t>
         </is>
       </c>
-      <c r="S22" s="5" t="n">
+      <c r="S22" s="6" t="n">
         <v>45117</v>
       </c>
-      <c r="T22" s="5" t="n">
+      <c r="T22" s="6" t="n">
         <v>45125</v>
       </c>
-      <c r="U22" s="5" t="n">
+      <c r="U22" s="6" t="n">
         <v>45141</v>
       </c>
-      <c r="V22" s="5" t="n">
+      <c r="V22" s="6" t="n">
         <v>45208</v>
       </c>
-      <c r="W22" s="5" t="n">
+      <c r="W22" s="6" t="n">
         <v>45247</v>
       </c>
-      <c r="X22" s="4" t="inlineStr">
+      <c r="X22" s="5" t="inlineStr">
         <is>
           <t>DMAM CONSTRUCTION SERVICES</t>
         </is>
       </c>
-      <c r="Y22" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z22" s="4" t="n"/>
+      <c r="Y22" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="7" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="4" t="inlineStr">
+      <c r="A23" s="5" t="inlineStr">
         <is>
           <t>LMS 2023</t>
         </is>
       </c>
-      <c r="B23" s="4" t="inlineStr">
+      <c r="B23" s="5" t="inlineStr">
         <is>
           <t>Region VII</t>
         </is>
       </c>
-      <c r="C23" s="4" t="inlineStr">
+      <c r="C23" s="5" t="inlineStr">
         <is>
           <t>Bohol</t>
         </is>
       </c>
-      <c r="D23" s="4" t="n">
+      <c r="D23" s="5" t="n">
         <v>118859</v>
       </c>
-      <c r="E23" s="4" t="inlineStr">
+      <c r="E23" s="5" t="inlineStr">
         <is>
           <t>Pangian ES</t>
         </is>
       </c>
-      <c r="F23" s="4" t="inlineStr">
+      <c r="F23" s="5" t="inlineStr">
         <is>
           <t>VALENCIA</t>
         </is>
       </c>
-      <c r="G23" s="4" t="n">
+      <c r="G23" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="H23" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" s="4" t="n">
+      <c r="H23" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J23" s="4" t="inlineStr">
+      <c r="J23" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY-TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMON TOILET)WITH PROVISION OF SCHOOL FURNITURE</t>
         </is>
       </c>
-      <c r="K23" s="4" t="n">
+      <c r="K23" s="5" t="n">
         <v>6014632.02</v>
       </c>
-      <c r="L23" s="4" t="n">
+      <c r="L23" s="5" t="n">
         <v>4452592.82</v>
       </c>
-      <c r="M23" s="4" t="inlineStr">
+      <c r="M23" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N23" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O23" s="4" t="inlineStr">
+      <c r="N23" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O23" s="5" t="inlineStr">
         <is>
           <t>4/26/2024</t>
         </is>
       </c>
-      <c r="P23" s="5" t="n">
+      <c r="P23" s="6" t="n">
         <v>45471</v>
       </c>
-      <c r="Q23" s="4" t="inlineStr">
+      <c r="Q23" s="5" t="inlineStr">
         <is>
           <t>PBI 2023-30</t>
         </is>
       </c>
-      <c r="R23" s="4" t="inlineStr">
+      <c r="R23" s="5" t="inlineStr">
         <is>
           <t>PBI 2023-30</t>
         </is>
       </c>
-      <c r="S23" s="5" t="n">
+      <c r="S23" s="6" t="n">
         <v>45117</v>
       </c>
-      <c r="T23" s="5" t="n">
+      <c r="T23" s="6" t="n">
         <v>45125</v>
       </c>
-      <c r="U23" s="5" t="n">
+      <c r="U23" s="6" t="n">
         <v>45141</v>
       </c>
-      <c r="V23" s="5" t="n">
+      <c r="V23" s="6" t="n">
         <v>45208</v>
       </c>
-      <c r="W23" s="5" t="n">
+      <c r="W23" s="6" t="n">
         <v>45258</v>
       </c>
-      <c r="X23" s="4" t="inlineStr">
+      <c r="X23" s="5" t="inlineStr">
         <is>
           <t>LTS BUILDERS AND CONSTRUCTION SUPPLY</t>
         </is>
       </c>
-      <c r="Y23" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z23" s="4" t="n"/>
+      <c r="Y23" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="7" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" s="4" t="inlineStr">
+      <c r="A24" s="5" t="inlineStr">
         <is>
           <t>LMS 2023</t>
         </is>
       </c>
-      <c r="B24" s="4" t="inlineStr">
+      <c r="B24" s="5" t="inlineStr">
         <is>
           <t>Region VII</t>
         </is>
       </c>
-      <c r="C24" s="4" t="inlineStr">
+      <c r="C24" s="5" t="inlineStr">
         <is>
           <t>Cebu</t>
         </is>
       </c>
-      <c r="D24" s="4" t="n">
+      <c r="D24" s="5" t="n">
         <v>119061</v>
       </c>
-      <c r="E24" s="4" t="inlineStr">
+      <c r="E24" s="5" t="inlineStr">
         <is>
           <t>Balintawak ES</t>
         </is>
       </c>
-      <c r="F24" s="4" t="inlineStr">
+      <c r="F24" s="5" t="inlineStr">
         <is>
           <t>BANTAYAN</t>
         </is>
       </c>
-      <c r="G24" s="4" t="n">
+      <c r="G24" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="H24" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" s="4" t="n">
+      <c r="H24" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I24" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J24" s="4" t="inlineStr">
+      <c r="J24" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF 1STY-4CL SCHOOL BUILDING WITH COMMON TOILET WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K24" s="4" t="n">
+      <c r="K24" s="5" t="n">
         <v>11727969.19</v>
       </c>
-      <c r="L24" s="4" t="n">
+      <c r="L24" s="5" t="n">
         <v>11561367.39</v>
       </c>
-      <c r="M24" s="4" t="inlineStr">
+      <c r="M24" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N24" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O24" s="5" t="n">
+      <c r="N24" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O24" s="6" t="n">
         <v>45536</v>
       </c>
-      <c r="P24" s="5" t="n">
+      <c r="P24" s="6" t="n">
         <v>45536</v>
       </c>
-      <c r="Q24" s="4" t="inlineStr">
+      <c r="Q24" s="5" t="inlineStr">
         <is>
           <t>CY 2023 LMS-R7-CEBU</t>
         </is>
       </c>
-      <c r="R24" s="4" t="inlineStr">
+      <c r="R24" s="5" t="inlineStr">
         <is>
           <t>CY 2023 LMS-R7-CEBU-03</t>
         </is>
       </c>
-      <c r="S24" s="5" t="n">
+      <c r="S24" s="6" t="n">
         <v>45126</v>
       </c>
-      <c r="T24" s="5" t="n">
+      <c r="T24" s="6" t="n">
         <v>45133</v>
       </c>
-      <c r="U24" s="5" t="n">
+      <c r="U24" s="6" t="n">
         <v>45145</v>
       </c>
-      <c r="V24" s="5" t="n">
+      <c r="V24" s="6" t="n">
         <v>45155</v>
       </c>
-      <c r="W24" s="4" t="inlineStr">
+      <c r="W24" s="5" t="inlineStr">
         <is>
           <t>31/08/2023</t>
         </is>
       </c>
-      <c r="X24" s="4" t="inlineStr">
+      <c r="X24" s="5" t="inlineStr">
         <is>
           <t>ROVILLA CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Y24" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z24" s="4" t="n"/>
+      <c r="Y24" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="7" t="n"/>
     </row>
     <row r="25">
-      <c r="A25" s="4" t="inlineStr">
+      <c r="A25" s="5" t="inlineStr">
         <is>
           <t>LMS 2023</t>
         </is>
       </c>
-      <c r="B25" s="4" t="inlineStr">
+      <c r="B25" s="5" t="inlineStr">
         <is>
           <t>Region VII</t>
         </is>
       </c>
-      <c r="C25" s="4" t="inlineStr">
+      <c r="C25" s="5" t="inlineStr">
         <is>
           <t>Cebu</t>
         </is>
       </c>
-      <c r="D25" s="4" t="n">
+      <c r="D25" s="5" t="n">
         <v>119063</v>
       </c>
-      <c r="E25" s="4" t="inlineStr">
+      <c r="E25" s="5" t="inlineStr">
         <is>
           <t>Guiwanon Elementary School</t>
         </is>
       </c>
-      <c r="F25" s="4" t="inlineStr">
+      <c r="F25" s="5" t="inlineStr">
         <is>
           <t>BANTAYAN</t>
         </is>
       </c>
-      <c r="G25" s="4" t="n">
+      <c r="G25" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="H25" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" s="4" t="n">
+      <c r="H25" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I25" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J25" s="4" t="inlineStr">
+      <c r="J25" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF 1STY-3CL SCHOOL BUILDING WITH COMMON TOILET WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K25" s="4" t="n">
+      <c r="K25" s="5" t="n">
         <v>9943843.08</v>
       </c>
-      <c r="L25" s="4" t="n">
+      <c r="L25" s="5" t="n">
         <v>9794772.390000001</v>
       </c>
-      <c r="M25" s="4" t="inlineStr">
+      <c r="M25" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N25" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O25" s="4" t="inlineStr">
+      <c r="N25" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O25" s="5" t="inlineStr">
         <is>
           <t>25/12/2023</t>
         </is>
       </c>
-      <c r="P25" s="4" t="inlineStr">
+      <c r="P25" s="5" t="inlineStr">
         <is>
           <t>25/12/2023</t>
         </is>
       </c>
-      <c r="Q25" s="4" t="inlineStr">
+      <c r="Q25" s="5" t="inlineStr">
         <is>
           <t>CY 2023 LMS-R7-CEBU</t>
         </is>
       </c>
-      <c r="R25" s="4" t="inlineStr">
+      <c r="R25" s="5" t="inlineStr">
         <is>
           <t>CY 2023 LMS-R7-CEBU-01</t>
         </is>
       </c>
-      <c r="S25" s="5" t="n">
+      <c r="S25" s="6" t="n">
         <v>45126</v>
       </c>
-      <c r="T25" s="5" t="n">
+      <c r="T25" s="6" t="n">
         <v>45133</v>
       </c>
-      <c r="U25" s="5" t="n">
+      <c r="U25" s="6" t="n">
         <v>45145</v>
       </c>
-      <c r="V25" s="5" t="n">
+      <c r="V25" s="6" t="n">
         <v>45155</v>
       </c>
-      <c r="W25" s="4" t="inlineStr">
+      <c r="W25" s="5" t="inlineStr">
         <is>
           <t>31/08/2023</t>
         </is>
       </c>
-      <c r="X25" s="4" t="inlineStr">
+      <c r="X25" s="5" t="inlineStr">
         <is>
           <t>ROVILLA CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Y25" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z25" s="4" t="n"/>
+      <c r="Y25" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="7" t="n"/>
     </row>
     <row r="26">
-      <c r="A26" s="4" t="inlineStr">
+      <c r="A26" s="5" t="inlineStr">
         <is>
           <t>LMS 2023</t>
         </is>
       </c>
-      <c r="B26" s="4" t="inlineStr">
+      <c r="B26" s="5" t="inlineStr">
         <is>
           <t>Region VII</t>
         </is>
       </c>
-      <c r="C26" s="4" t="inlineStr">
+      <c r="C26" s="5" t="inlineStr">
         <is>
           <t>Cebu</t>
         </is>
       </c>
-      <c r="D26" s="4" t="n">
+      <c r="D26" s="5" t="n">
         <v>119071</v>
       </c>
-      <c r="E26" s="4" t="inlineStr">
+      <c r="E26" s="5" t="inlineStr">
         <is>
           <t>Vito ES</t>
         </is>
       </c>
-      <c r="F26" s="4" t="inlineStr">
+      <c r="F26" s="5" t="inlineStr">
         <is>
           <t>BANTAYAN</t>
         </is>
       </c>
-      <c r="G26" s="4" t="n">
+      <c r="G26" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="H26" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" s="4" t="n">
+      <c r="H26" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I26" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J26" s="4" t="inlineStr">
+      <c r="J26" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF 1STY-3CL SCHOOL BUILDING WITH COMMON TOILET WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K26" s="4" t="n">
+      <c r="K26" s="5" t="n">
         <v>9896120.58</v>
       </c>
-      <c r="L26" s="4" t="n">
+      <c r="L26" s="5" t="n">
         <v>9745999.34</v>
       </c>
-      <c r="M26" s="4" t="inlineStr">
+      <c r="M26" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N26" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O26" s="4" t="inlineStr">
+      <c r="N26" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O26" s="5" t="inlineStr">
         <is>
           <t>25/12/2023</t>
         </is>
       </c>
-      <c r="P26" s="4" t="inlineStr">
+      <c r="P26" s="5" t="inlineStr">
         <is>
           <t>25/12/2023</t>
         </is>
       </c>
-      <c r="Q26" s="4" t="inlineStr">
+      <c r="Q26" s="5" t="inlineStr">
         <is>
           <t>CY 2023 LMS-R7-CEBU</t>
         </is>
       </c>
-      <c r="R26" s="4" t="inlineStr">
+      <c r="R26" s="5" t="inlineStr">
         <is>
           <t>CY 2023 LMS-R7-CEBU-02</t>
         </is>
       </c>
-      <c r="S26" s="5" t="n">
+      <c r="S26" s="6" t="n">
         <v>45126</v>
       </c>
-      <c r="T26" s="5" t="n">
+      <c r="T26" s="6" t="n">
         <v>45133</v>
       </c>
-      <c r="U26" s="5" t="n">
+      <c r="U26" s="6" t="n">
         <v>45145</v>
       </c>
-      <c r="V26" s="5" t="n">
+      <c r="V26" s="6" t="n">
         <v>45155</v>
       </c>
-      <c r="W26" s="4" t="inlineStr">
+      <c r="W26" s="5" t="inlineStr">
         <is>
           <t>31/08/2023</t>
         </is>
       </c>
-      <c r="X26" s="4" t="inlineStr">
+      <c r="X26" s="5" t="inlineStr">
         <is>
           <t>ROVILLA CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Y26" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z26" s="4" t="n"/>
+      <c r="Y26" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="7" t="n"/>
     </row>
     <row r="27">
-      <c r="A27" s="4" t="inlineStr">
+      <c r="A27" s="5" t="inlineStr">
         <is>
           <t>LMS 2023</t>
         </is>
       </c>
-      <c r="B27" s="4" t="inlineStr">
+      <c r="B27" s="5" t="inlineStr">
         <is>
           <t>Region VII</t>
         </is>
       </c>
-      <c r="C27" s="4" t="inlineStr">
+      <c r="C27" s="5" t="inlineStr">
         <is>
           <t>Cebu</t>
         </is>
       </c>
-      <c r="D27" s="4" t="n">
+      <c r="D27" s="5" t="n">
         <v>119192</v>
       </c>
-      <c r="E27" s="4" t="inlineStr">
+      <c r="E27" s="5" t="inlineStr">
         <is>
           <t>Francisco S. Villamor Sr.Elementary School</t>
         </is>
       </c>
-      <c r="F27" s="4" t="inlineStr">
+      <c r="F27" s="5" t="inlineStr">
         <is>
           <t>CARMEN</t>
         </is>
       </c>
-      <c r="G27" s="4" t="n">
+      <c r="G27" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="H27" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" s="4" t="n">
+      <c r="H27" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I27" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J27" s="4" t="inlineStr">
+      <c r="J27" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF 1STY-3CL SCHOOL BUILDING WITH COMMON TOILET WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K27" s="4" t="n">
+      <c r="K27" s="5" t="n">
         <v>9745045.060000001</v>
       </c>
-      <c r="L27" s="4" t="n">
+      <c r="L27" s="5" t="n">
         <v>9618165.279999999</v>
       </c>
-      <c r="M27" s="4" t="inlineStr">
+      <c r="M27" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N27" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O27" s="5" t="n">
+      <c r="N27" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O27" s="6" t="n">
         <v>45352</v>
       </c>
-      <c r="P27" s="5" t="n">
+      <c r="P27" s="6" t="n">
         <v>45294</v>
       </c>
-      <c r="Q27" s="4" t="inlineStr">
+      <c r="Q27" s="5" t="inlineStr">
         <is>
           <t>CY 2023 LMS-R7-CEBU</t>
         </is>
       </c>
-      <c r="R27" s="4" t="inlineStr">
+      <c r="R27" s="5" t="inlineStr">
         <is>
           <t>CY 2023 LMS-R7-CEBU-04</t>
         </is>
       </c>
-      <c r="S27" s="5" t="n">
+      <c r="S27" s="6" t="n">
         <v>45126</v>
       </c>
-      <c r="T27" s="5" t="n">
+      <c r="T27" s="6" t="n">
         <v>45133</v>
       </c>
-      <c r="U27" s="5" t="n">
+      <c r="U27" s="6" t="n">
         <v>45145</v>
       </c>
-      <c r="V27" s="5" t="n">
+      <c r="V27" s="6" t="n">
         <v>45155</v>
       </c>
-      <c r="W27" s="5" t="n">
+      <c r="W27" s="6" t="n">
         <v>45269</v>
       </c>
-      <c r="X27" s="4" t="inlineStr">
+      <c r="X27" s="5" t="inlineStr">
         <is>
           <t>TRI-BAIRN CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Y27" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z27" s="4" t="n"/>
+      <c r="Y27" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="7" t="n"/>
     </row>
     <row r="28">
-      <c r="A28" s="4" t="inlineStr">
+      <c r="A28" s="5" t="inlineStr">
         <is>
           <t>LMS 2023</t>
         </is>
       </c>
-      <c r="B28" s="4" t="inlineStr">
+      <c r="B28" s="5" t="inlineStr">
         <is>
           <t>Region VII</t>
         </is>
       </c>
-      <c r="C28" s="4" t="inlineStr">
+      <c r="C28" s="5" t="inlineStr">
         <is>
           <t>Cebu</t>
         </is>
       </c>
-      <c r="D28" s="4" t="n">
+      <c r="D28" s="5" t="n">
         <v>119230</v>
       </c>
-      <c r="E28" s="4" t="inlineStr">
+      <c r="E28" s="5" t="inlineStr">
         <is>
           <t>Magay ES</t>
         </is>
       </c>
-      <c r="F28" s="4" t="inlineStr">
+      <c r="F28" s="5" t="inlineStr">
         <is>
           <t>COMPOSTELA</t>
         </is>
       </c>
-      <c r="G28" s="4" t="n">
+      <c r="G28" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="H28" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" s="4" t="n">
+      <c r="H28" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I28" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J28" s="4" t="inlineStr">
+      <c r="J28" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF 1STY-4CL SCHOOL BUILDING WITH COMMON TOILET WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K28" s="4" t="n">
+      <c r="K28" s="5" t="n">
         <v>11139089.16</v>
       </c>
-      <c r="L28" s="4" t="n">
+      <c r="L28" s="5" t="n">
         <v>10978920.9</v>
       </c>
-      <c r="M28" s="4" t="inlineStr">
+      <c r="M28" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N28" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O28" s="5" t="n">
+      <c r="N28" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O28" s="6" t="n">
         <v>45536</v>
       </c>
-      <c r="P28" s="4" t="inlineStr">
+      <c r="P28" s="5" t="inlineStr">
         <is>
           <t>25/12/2023</t>
         </is>
       </c>
-      <c r="Q28" s="4" t="inlineStr">
+      <c r="Q28" s="5" t="inlineStr">
         <is>
           <t>CY 2023 LMS-R7-CEBU</t>
         </is>
       </c>
-      <c r="R28" s="4" t="inlineStr">
+      <c r="R28" s="5" t="inlineStr">
         <is>
           <t>CY 2023 LMS-R7-CEBU-06</t>
         </is>
       </c>
-      <c r="S28" s="5" t="n">
+      <c r="S28" s="6" t="n">
         <v>45126</v>
       </c>
-      <c r="T28" s="5" t="n">
+      <c r="T28" s="6" t="n">
         <v>45133</v>
       </c>
-      <c r="U28" s="5" t="n">
+      <c r="U28" s="6" t="n">
         <v>45145</v>
       </c>
-      <c r="V28" s="5" t="n">
+      <c r="V28" s="6" t="n">
         <v>45155</v>
       </c>
-      <c r="W28" s="4" t="inlineStr">
+      <c r="W28" s="5" t="inlineStr">
         <is>
           <t>31/08/2023</t>
         </is>
       </c>
-      <c r="X28" s="4" t="inlineStr">
+      <c r="X28" s="5" t="inlineStr">
         <is>
           <t>BARR STEEL CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Y28" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z28" s="4" t="n"/>
+      <c r="Y28" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="7" t="n"/>
     </row>
     <row r="29">
-      <c r="A29" s="4" t="inlineStr">
+      <c r="A29" s="5" t="inlineStr">
         <is>
           <t>LMS 2023</t>
         </is>
       </c>
-      <c r="B29" s="4" t="inlineStr">
+      <c r="B29" s="5" t="inlineStr">
         <is>
           <t>Region VII</t>
         </is>
       </c>
-      <c r="C29" s="4" t="inlineStr">
+      <c r="C29" s="5" t="inlineStr">
         <is>
           <t>Cebu</t>
         </is>
       </c>
-      <c r="D29" s="4" t="n">
+      <c r="D29" s="5" t="n">
         <v>501350</v>
       </c>
-      <c r="E29" s="4" t="inlineStr">
+      <c r="E29" s="5" t="inlineStr">
         <is>
           <t>Tag-ubi Integrated School</t>
         </is>
       </c>
-      <c r="F29" s="4" t="inlineStr">
+      <c r="F29" s="5" t="inlineStr">
         <is>
           <t>COMPOSTELA</t>
         </is>
       </c>
-      <c r="G29" s="4" t="n">
+      <c r="G29" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="H29" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" s="4" t="n">
+      <c r="H29" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I29" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J29" s="4" t="inlineStr">
+      <c r="J29" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF 1STY-3CL SCHOOL BUILDING WITH COMMON TOILET WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K29" s="4" t="n">
+      <c r="K29" s="5" t="n">
         <v>9399879.76</v>
       </c>
-      <c r="L29" s="4" t="n">
+      <c r="L29" s="5" t="n">
         <v>7288932.45</v>
       </c>
-      <c r="M29" s="4" t="inlineStr">
+      <c r="M29" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N29" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O29" s="4" t="inlineStr">
+      <c r="N29" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O29" s="5" t="inlineStr">
         <is>
           <t>25/12/2023</t>
         </is>
       </c>
-      <c r="P29" s="4" t="inlineStr">
+      <c r="P29" s="5" t="inlineStr">
         <is>
           <t>25/12/2023</t>
         </is>
       </c>
-      <c r="Q29" s="4" t="inlineStr">
+      <c r="Q29" s="5" t="inlineStr">
         <is>
           <t>CY 2023 LMS-R7-CEBU</t>
         </is>
       </c>
-      <c r="R29" s="4" t="inlineStr">
+      <c r="R29" s="5" t="inlineStr">
         <is>
           <t>CY 2023 LMS-R7-CEBU-05</t>
         </is>
       </c>
-      <c r="S29" s="5" t="n">
+      <c r="S29" s="6" t="n">
         <v>45126</v>
       </c>
-      <c r="T29" s="5" t="n">
+      <c r="T29" s="6" t="n">
         <v>45133</v>
       </c>
-      <c r="U29" s="5" t="n">
+      <c r="U29" s="6" t="n">
         <v>45145</v>
       </c>
-      <c r="V29" s="5" t="n">
+      <c r="V29" s="6" t="n">
         <v>45155</v>
       </c>
-      <c r="W29" s="4" t="inlineStr">
+      <c r="W29" s="5" t="inlineStr">
         <is>
           <t>31/08/2023</t>
         </is>
       </c>
-      <c r="X29" s="4" t="inlineStr">
+      <c r="X29" s="5" t="inlineStr">
         <is>
           <t>ANIELTHON CONSTRUCTION AND SUPPLY</t>
         </is>
       </c>
-      <c r="Y29" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z29" s="4" t="n"/>
+      <c r="Y29" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="7" t="n"/>
     </row>
     <row r="30">
-      <c r="A30" s="4" t="inlineStr">
+      <c r="A30" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B30" s="4" t="inlineStr">
+      <c r="B30" s="5" t="inlineStr">
         <is>
           <t>Region VII</t>
         </is>
       </c>
-      <c r="C30" s="4" t="inlineStr">
+      <c r="C30" s="5" t="inlineStr">
         <is>
           <t>Cebu</t>
         </is>
       </c>
-      <c r="D30" s="4" t="n">
+      <c r="D30" s="5" t="n">
         <v>119637</v>
       </c>
-      <c r="E30" s="4" t="inlineStr">
+      <c r="E30" s="5" t="inlineStr">
         <is>
           <t>TUBOD ES</t>
         </is>
       </c>
-      <c r="F30" s="4" t="inlineStr">
+      <c r="F30" s="5" t="inlineStr">
         <is>
           <t>SAN FERNANDO</t>
         </is>
       </c>
-      <c r="G30" s="4" t="inlineStr">
+      <c r="G30" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">1st </t>
         </is>
       </c>
-      <c r="H30" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" s="4" t="n">
+      <c r="H30" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I30" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J30" s="4" t="inlineStr">
+      <c r="J30" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF TWO (2) UNITS ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF SCHOOL FURNITURE AND WATER SYSTEM (DEEP WELL)</t>
         </is>
       </c>
-      <c r="K30" s="4" t="n">
+      <c r="K30" s="5" t="n">
         <v>14679322.67</v>
       </c>
-      <c r="L30" s="4" t="n">
+      <c r="L30" s="5" t="n">
         <v>10400000</v>
       </c>
-      <c r="M30" s="4" t="inlineStr">
+      <c r="M30" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="N30" s="4" t="n">
+      <c r="N30" s="5" t="n">
         <v>0.8</v>
       </c>
-      <c r="O30" s="4" t="inlineStr">
+      <c r="O30" s="5" t="inlineStr">
         <is>
           <t>28/04/2025</t>
         </is>
       </c>
-      <c r="P30" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="Q30" s="4" t="inlineStr">
+      <c r="P30" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="Q30" s="5" t="inlineStr">
         <is>
           <t>CY 2024 BEFF LMS-DepED-R7-Cebu-01</t>
         </is>
       </c>
-      <c r="R30" s="4" t="inlineStr">
+      <c r="R30" s="5" t="inlineStr">
         <is>
           <t>CY 2024 BEFF LMS-DepED-R7-Cebu-01</t>
         </is>
       </c>
-      <c r="S30" s="5" t="n">
+      <c r="S30" s="6" t="n">
         <v>45602</v>
       </c>
-      <c r="T30" s="4" t="inlineStr">
+      <c r="T30" s="5" t="inlineStr">
         <is>
           <t>18/06/2024</t>
         </is>
       </c>
-      <c r="U30" s="5" t="n">
+      <c r="U30" s="6" t="n">
         <v>45329</v>
       </c>
-      <c r="V30" s="4" t="inlineStr">
+      <c r="V30" s="5" t="inlineStr">
         <is>
           <t>16/08/2024</t>
         </is>
       </c>
-      <c r="W30" s="4" t="inlineStr">
+      <c r="W30" s="5" t="inlineStr">
         <is>
           <t>22/10/2024</t>
         </is>
       </c>
-      <c r="X30" s="4" t="inlineStr">
+      <c r="X30" s="5" t="inlineStr">
         <is>
           <t>TRI-BAIRN CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Y30" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z30" s="4" t="n"/>
+      <c r="Y30" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="7" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="4" t="inlineStr">
+      <c r="A31" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B31" s="4" t="inlineStr">
+      <c r="B31" s="5" t="inlineStr">
         <is>
           <t>Region VII</t>
         </is>
       </c>
-      <c r="C31" s="4" t="inlineStr">
+      <c r="C31" s="5" t="inlineStr">
         <is>
           <t>Cebu</t>
         </is>
       </c>
-      <c r="D31" s="4" t="n">
+      <c r="D31" s="5" t="n">
         <v>119699</v>
       </c>
-      <c r="E31" s="4" t="inlineStr">
+      <c r="E31" s="5" t="inlineStr">
         <is>
           <t>LIPTONG ES</t>
         </is>
       </c>
-      <c r="F31" s="4" t="inlineStr">
+      <c r="F31" s="5" t="inlineStr">
         <is>
           <t>SANTANDER</t>
         </is>
       </c>
-      <c r="G31" s="4" t="inlineStr">
+      <c r="G31" s="5" t="inlineStr">
         <is>
           <t>2nd</t>
         </is>
       </c>
-      <c r="H31" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" s="4" t="n">
+      <c r="H31" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I31" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J31" s="4" t="inlineStr">
+      <c r="J31" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF SCHOOL FURNITURE AND WATER SYSTEM (DEEP WELL)</t>
         </is>
       </c>
-      <c r="K31" s="4" t="n">
+      <c r="K31" s="5" t="n">
         <v>11508290.01</v>
       </c>
-      <c r="L31" s="4" t="n">
+      <c r="L31" s="5" t="n">
         <v>11393207.11</v>
       </c>
-      <c r="M31" s="4" t="inlineStr">
+      <c r="M31" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="N31" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O31" s="4" t="inlineStr">
+      <c r="N31" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O31" s="5" t="inlineStr">
         <is>
           <t>28/04/2025</t>
         </is>
       </c>
-      <c r="P31" s="4" t="inlineStr">
+      <c r="P31" s="5" t="inlineStr">
         <is>
           <t>28/04/2025</t>
         </is>
       </c>
-      <c r="Q31" s="4" t="inlineStr">
+      <c r="Q31" s="5" t="inlineStr">
         <is>
           <t>CY 2024 BEFF LMS-DepED-R7-Cebu-02</t>
         </is>
       </c>
-      <c r="R31" s="4" t="inlineStr">
+      <c r="R31" s="5" t="inlineStr">
         <is>
           <t>CY 2024 BEFF LMS-DepED-R7-Cebu-02</t>
         </is>
       </c>
-      <c r="S31" s="5" t="n">
+      <c r="S31" s="6" t="n">
         <v>45602</v>
       </c>
-      <c r="T31" s="4" t="inlineStr">
+      <c r="T31" s="5" t="inlineStr">
         <is>
           <t>18/06/2024</t>
         </is>
       </c>
-      <c r="U31" s="5" t="n">
+      <c r="U31" s="6" t="n">
         <v>45329</v>
       </c>
-      <c r="V31" s="4" t="inlineStr">
+      <c r="V31" s="5" t="inlineStr">
         <is>
           <t>16/08/2024</t>
         </is>
       </c>
-      <c r="W31" s="4" t="inlineStr">
+      <c r="W31" s="5" t="inlineStr">
         <is>
           <t>22/10/2024</t>
         </is>
       </c>
-      <c r="X31" s="4" t="inlineStr">
+      <c r="X31" s="5" t="inlineStr">
         <is>
           <t>RT CONSTRUCTION &amp; ENTERPRISES</t>
         </is>
       </c>
-      <c r="Y31" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z31" s="4" t="n"/>
+      <c r="Y31" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="7" t="n"/>
     </row>
     <row r="32">
-      <c r="A32" s="4" t="inlineStr">
+      <c r="A32" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B32" s="4" t="inlineStr">
+      <c r="B32" s="5" t="inlineStr">
         <is>
           <t>Region VII</t>
         </is>
       </c>
-      <c r="C32" s="4" t="inlineStr">
+      <c r="C32" s="5" t="inlineStr">
         <is>
           <t>Cebu</t>
         </is>
       </c>
-      <c r="D32" s="4" t="n">
+      <c r="D32" s="5" t="n">
         <v>118976</v>
       </c>
-      <c r="E32" s="4" t="inlineStr">
+      <c r="E32" s="5" t="inlineStr">
         <is>
           <t>KALUANGAN II</t>
         </is>
       </c>
-      <c r="F32" s="4" t="inlineStr">
+      <c r="F32" s="5" t="inlineStr">
         <is>
           <t>ASTURIAS</t>
         </is>
       </c>
-      <c r="G32" s="4" t="inlineStr">
+      <c r="G32" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">3rd </t>
         </is>
       </c>
-      <c r="H32" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" s="4" t="n">
+      <c r="H32" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I32" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J32" s="4" t="inlineStr">
+      <c r="J32" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF SCHOOL FURNITURE AND WATER SYSTEM (DEEP WELL)</t>
         </is>
       </c>
-      <c r="K32" s="4" t="n">
+      <c r="K32" s="5" t="n">
         <v>11508290.01</v>
       </c>
-      <c r="L32" s="4" t="n">
+      <c r="L32" s="5" t="n">
         <v>11328208.14</v>
       </c>
-      <c r="M32" s="4" t="inlineStr">
+      <c r="M32" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="N32" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O32" s="4" t="inlineStr">
+      <c r="N32" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O32" s="5" t="inlineStr">
         <is>
           <t>28/04/2025</t>
         </is>
       </c>
-      <c r="P32" s="4" t="inlineStr">
+      <c r="P32" s="5" t="inlineStr">
         <is>
           <t>28/04/2025</t>
         </is>
       </c>
-      <c r="Q32" s="4" t="inlineStr">
+      <c r="Q32" s="5" t="inlineStr">
         <is>
           <t>CY 2024 BEFF LMS-DepED-R7-Cebu-03</t>
         </is>
       </c>
-      <c r="R32" s="4" t="inlineStr">
+      <c r="R32" s="5" t="inlineStr">
         <is>
           <t>CY 2024 BEFF LMS-DepED-R7-Cebu-03</t>
         </is>
       </c>
-      <c r="S32" s="5" t="n">
+      <c r="S32" s="6" t="n">
         <v>45602</v>
       </c>
-      <c r="T32" s="4" t="inlineStr">
+      <c r="T32" s="5" t="inlineStr">
         <is>
           <t>18/06/2024</t>
         </is>
       </c>
-      <c r="U32" s="5" t="n">
+      <c r="U32" s="6" t="n">
         <v>45329</v>
       </c>
-      <c r="V32" s="4" t="inlineStr">
+      <c r="V32" s="5" t="inlineStr">
         <is>
           <t>16/08/2024</t>
         </is>
       </c>
-      <c r="W32" s="4" t="inlineStr">
+      <c r="W32" s="5" t="inlineStr">
         <is>
           <t>22/10/2024</t>
         </is>
       </c>
-      <c r="X32" s="4" t="inlineStr">
+      <c r="X32" s="5" t="inlineStr">
         <is>
           <t>ANIELTHON CONSTRUCTION &amp; SUPPLY</t>
         </is>
       </c>
-      <c r="Y32" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z32" s="4" t="n"/>
+      <c r="Y32" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="7" t="n"/>
     </row>
     <row r="33">
-      <c r="A33" s="4" t="inlineStr">
+      <c r="A33" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B33" s="4" t="inlineStr">
+      <c r="B33" s="5" t="inlineStr">
         <is>
           <t>Region VII</t>
         </is>
       </c>
-      <c r="C33" s="4" t="inlineStr">
+      <c r="C33" s="5" t="inlineStr">
         <is>
           <t>Cebu</t>
         </is>
       </c>
-      <c r="D33" s="4" t="n">
+      <c r="D33" s="5" t="n">
         <v>119435</v>
       </c>
-      <c r="E33" s="4" t="inlineStr">
+      <c r="E33" s="5" t="inlineStr">
         <is>
           <t>TARONG ES</t>
         </is>
       </c>
-      <c r="F33" s="4" t="inlineStr">
+      <c r="F33" s="5" t="inlineStr">
         <is>
           <t>MADRIDEJOS</t>
         </is>
       </c>
-      <c r="G33" s="4" t="inlineStr">
+      <c r="G33" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">4th </t>
         </is>
       </c>
-      <c r="H33" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" s="4" t="n">
+      <c r="H33" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I33" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J33" s="4" t="inlineStr">
+      <c r="J33" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF SCHOOL FURNITURE AND WATER SYSTEM (DEEP WELL)</t>
         </is>
       </c>
-      <c r="K33" s="4" t="n">
+      <c r="K33" s="5" t="n">
         <v>8027122.46</v>
       </c>
-      <c r="L33" s="4" t="n">
+      <c r="L33" s="5" t="n">
         <v>7907423.97</v>
       </c>
-      <c r="M33" s="4" t="inlineStr">
+      <c r="M33" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="N33" s="4" t="n">
+      <c r="N33" s="5" t="n">
         <v>0.8</v>
       </c>
-      <c r="O33" s="4" t="inlineStr">
+      <c r="O33" s="5" t="inlineStr">
         <is>
           <t>29/03/2025</t>
         </is>
       </c>
-      <c r="P33" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="Q33" s="4" t="inlineStr">
+      <c r="P33" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="Q33" s="5" t="inlineStr">
         <is>
           <t>CY 2024 BEFF LMS-DepED-R7-Cebu-04</t>
         </is>
       </c>
-      <c r="R33" s="4" t="inlineStr">
+      <c r="R33" s="5" t="inlineStr">
         <is>
           <t>CY 2024 BEFF LMS-DepED-R7-Cebu-04</t>
         </is>
       </c>
-      <c r="S33" s="5" t="n">
+      <c r="S33" s="6" t="n">
         <v>45602</v>
       </c>
-      <c r="T33" s="4" t="inlineStr">
+      <c r="T33" s="5" t="inlineStr">
         <is>
           <t>18/06/2024</t>
         </is>
       </c>
-      <c r="U33" s="5" t="n">
+      <c r="U33" s="6" t="n">
         <v>45329</v>
       </c>
-      <c r="V33" s="4" t="inlineStr">
+      <c r="V33" s="5" t="inlineStr">
         <is>
           <t>16/08/2024</t>
         </is>
       </c>
-      <c r="W33" s="4" t="inlineStr">
+      <c r="W33" s="5" t="inlineStr">
         <is>
           <t>22/10/2024</t>
         </is>
       </c>
-      <c r="X33" s="4" t="inlineStr">
+      <c r="X33" s="5" t="inlineStr">
         <is>
           <t>ROVILLA CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Y33" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z33" s="4" t="n"/>
+      <c r="Y33" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="7" t="n"/>
     </row>
     <row r="34">
-      <c r="A34" s="4" t="inlineStr">
+      <c r="A34" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B34" s="4" t="inlineStr">
+      <c r="B34" s="5" t="inlineStr">
         <is>
           <t>Region VII</t>
         </is>
       </c>
-      <c r="C34" s="4" t="inlineStr">
+      <c r="C34" s="5" t="inlineStr">
         <is>
           <t>Cebu</t>
         </is>
       </c>
-      <c r="D34" s="4" t="n">
+      <c r="D34" s="5" t="n">
         <v>119214</v>
       </c>
-      <c r="E34" s="4" t="inlineStr">
+      <c r="E34" s="5" t="inlineStr">
         <is>
           <t>CAN-IBUANG PS</t>
         </is>
       </c>
-      <c r="F34" s="4" t="inlineStr">
+      <c r="F34" s="5" t="inlineStr">
         <is>
           <t>CATMON</t>
         </is>
       </c>
-      <c r="G34" s="4" t="inlineStr">
+      <c r="G34" s="5" t="inlineStr">
         <is>
           <t>5th</t>
         </is>
       </c>
-      <c r="H34" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" s="4" t="n">
+      <c r="H34" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I34" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J34" s="4" t="inlineStr">
+      <c r="J34" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF SCHOOL FURNITURE AND WATER SYSTEM (DEEP WELL)</t>
         </is>
       </c>
-      <c r="K34" s="4" t="n">
+      <c r="K34" s="5" t="n">
         <v>8027122.46</v>
       </c>
-      <c r="L34" s="4" t="n">
+      <c r="L34" s="5" t="n">
         <v>7900000</v>
       </c>
-      <c r="M34" s="4" t="inlineStr">
+      <c r="M34" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="N34" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O34" s="4" t="inlineStr">
+      <c r="N34" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O34" s="5" t="inlineStr">
         <is>
           <t>29/03/2025</t>
         </is>
       </c>
-      <c r="P34" s="4" t="inlineStr">
+      <c r="P34" s="5" t="inlineStr">
         <is>
           <t>29/03/2025</t>
         </is>
       </c>
-      <c r="Q34" s="4" t="inlineStr">
+      <c r="Q34" s="5" t="inlineStr">
         <is>
           <t>CY 2024 BEFF LMS-DepED-R7-Cebu-05</t>
         </is>
       </c>
-      <c r="R34" s="4" t="inlineStr">
+      <c r="R34" s="5" t="inlineStr">
         <is>
           <t>CY 2024 BEFF LMS-DepED-R7-Cebu-05</t>
         </is>
       </c>
-      <c r="S34" s="5" t="n">
+      <c r="S34" s="6" t="n">
         <v>45602</v>
       </c>
-      <c r="T34" s="4" t="inlineStr">
+      <c r="T34" s="5" t="inlineStr">
         <is>
           <t>18/06/2024</t>
         </is>
       </c>
-      <c r="U34" s="5" t="n">
+      <c r="U34" s="6" t="n">
         <v>45329</v>
       </c>
-      <c r="V34" s="4" t="inlineStr">
+      <c r="V34" s="5" t="inlineStr">
         <is>
           <t>16/08/2024</t>
         </is>
       </c>
-      <c r="W34" s="4" t="inlineStr">
+      <c r="W34" s="5" t="inlineStr">
         <is>
           <t>22/10/2024</t>
         </is>
       </c>
-      <c r="X34" s="4" t="inlineStr">
+      <c r="X34" s="5" t="inlineStr">
         <is>
           <t>TRI-BAIRN CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Y34" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z34" s="4" t="n"/>
+      <c r="Y34" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="7" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="4" t="inlineStr">
+      <c r="A35" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B35" s="4" t="inlineStr">
+      <c r="B35" s="5" t="inlineStr">
         <is>
           <t>Region VII</t>
         </is>
       </c>
-      <c r="C35" s="4" t="inlineStr">
+      <c r="C35" s="5" t="inlineStr">
         <is>
           <t>Negros Oriental</t>
         </is>
       </c>
-      <c r="D35" s="4" t="n">
+      <c r="D35" s="5" t="n">
         <v>120293</v>
       </c>
-      <c r="E35" s="4" t="inlineStr">
+      <c r="E35" s="5" t="inlineStr">
         <is>
           <t>Buto Primary School</t>
         </is>
       </c>
-      <c r="F35" s="4" t="inlineStr">
+      <c r="F35" s="5" t="inlineStr">
         <is>
           <t>JIMALALUD</t>
         </is>
       </c>
-      <c r="G35" s="4" t="inlineStr">
+      <c r="G35" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">1st </t>
         </is>
       </c>
-      <c r="H35" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" s="4" t="n">
+      <c r="H35" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I35" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J35" s="4" t="inlineStr">
+      <c r="J35" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K35" s="4" t="n">
+      <c r="K35" s="5" t="n">
         <v>21640739.3</v>
       </c>
-      <c r="L35" s="4" t="n">
+      <c r="L35" s="5" t="n">
         <v>18676898.11</v>
       </c>
-      <c r="M35" s="4" t="inlineStr">
+      <c r="M35" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="N35" s="4" t="n">
+      <c r="N35" s="5" t="n">
         <v>0.8</v>
       </c>
-      <c r="O35" s="5" t="n">
+      <c r="O35" s="6" t="n">
         <v>45867</v>
       </c>
-      <c r="P35" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="Q35" s="4" t="inlineStr">
+      <c r="P35" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="Q35" s="5" t="inlineStr">
         <is>
           <t>ITB 2023-11-145</t>
         </is>
       </c>
-      <c r="R35" s="4" t="inlineStr">
+      <c r="R35" s="5" t="inlineStr">
         <is>
           <t>LMS202405023</t>
         </is>
       </c>
-      <c r="S35" s="5" t="n">
+      <c r="S35" s="6" t="n">
         <v>45239</v>
       </c>
-      <c r="T35" s="5" t="n">
+      <c r="T35" s="6" t="n">
         <v>45246</v>
       </c>
-      <c r="U35" s="5" t="n">
+      <c r="U35" s="6" t="n">
         <v>45258</v>
       </c>
-      <c r="V35" s="5" t="n">
+      <c r="V35" s="6" t="n">
         <v>45264</v>
       </c>
-      <c r="W35" s="5" t="n">
+      <c r="W35" s="6" t="n">
         <v>45434</v>
       </c>
-      <c r="X35" s="4" t="inlineStr">
+      <c r="X35" s="5" t="inlineStr">
         <is>
           <t>TrinityCAD Corporation</t>
         </is>
       </c>
-      <c r="Y35" s="4" t="inlineStr">
+      <c r="Y35" s="5" t="inlineStr">
         <is>
           <t>With approved time extension due to access road issue during rainy days, unworkable weather condition, with change order to cover other essential items(refer to Variation order). Double hauling</t>
         </is>
       </c>
-      <c r="Z35" s="4" t="n"/>
+      <c r="Z35" s="7" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="4" t="inlineStr">
+      <c r="A36" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B36" s="4" t="inlineStr">
+      <c r="B36" s="5" t="inlineStr">
         <is>
           <t>Region VII</t>
         </is>
       </c>
-      <c r="C36" s="4" t="inlineStr">
+      <c r="C36" s="5" t="inlineStr">
         <is>
           <t>Negros Oriental</t>
         </is>
       </c>
-      <c r="D36" s="4" t="n">
+      <c r="D36" s="5" t="n">
         <v>120027</v>
       </c>
-      <c r="E36" s="4" t="inlineStr">
+      <c r="E36" s="5" t="inlineStr">
         <is>
           <t>PANUSUAN ELEMENTARY SCHOOL</t>
         </is>
       </c>
-      <c r="F36" s="4" t="inlineStr">
+      <c r="F36" s="5" t="inlineStr">
         <is>
           <t>AMLAN</t>
         </is>
       </c>
-      <c r="G36" s="4" t="inlineStr">
+      <c r="G36" s="5" t="inlineStr">
         <is>
           <t>2nd</t>
         </is>
       </c>
-      <c r="H36" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" s="4" t="n">
+      <c r="H36" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I36" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J36" s="4" t="inlineStr">
+      <c r="J36" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K36" s="4" t="n">
+      <c r="K36" s="5" t="n">
         <v>15703660.79</v>
       </c>
-      <c r="L36" s="4" t="n">
+      <c r="L36" s="5" t="n">
         <v>12964000.46</v>
       </c>
-      <c r="M36" s="4" t="inlineStr">
+      <c r="M36" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="N36" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O36" s="5" t="n">
+      <c r="N36" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O36" s="6" t="n">
         <v>45702</v>
       </c>
-      <c r="P36" s="5" t="n">
+      <c r="P36" s="6" t="n">
         <v>45702</v>
       </c>
-      <c r="Q36" s="4" t="inlineStr">
+      <c r="Q36" s="5" t="inlineStr">
         <is>
           <t>ITB 2023-11-146</t>
         </is>
       </c>
-      <c r="R36" s="4" t="inlineStr">
+      <c r="R36" s="5" t="inlineStr">
         <is>
           <t>LMS202405024</t>
         </is>
       </c>
-      <c r="S36" s="5" t="n">
+      <c r="S36" s="6" t="n">
         <v>45239</v>
       </c>
-      <c r="T36" s="5" t="n">
+      <c r="T36" s="6" t="n">
         <v>45246</v>
       </c>
-      <c r="U36" s="5" t="n">
+      <c r="U36" s="6" t="n">
         <v>45258</v>
       </c>
-      <c r="V36" s="5" t="n">
+      <c r="V36" s="6" t="n">
         <v>45264</v>
       </c>
-      <c r="W36" s="5" t="n">
+      <c r="W36" s="6" t="n">
         <v>45434</v>
       </c>
-      <c r="X36" s="4" t="inlineStr">
+      <c r="X36" s="5" t="inlineStr">
         <is>
           <t>TrinityCAD Corporation</t>
         </is>
       </c>
-      <c r="Y36" s="4" t="inlineStr">
+      <c r="Y36" s="5" t="inlineStr">
         <is>
           <t>With time extension due to variation orders, cutting of trees permit and unworkable weather condition</t>
         </is>
       </c>
-      <c r="Z36" s="4" t="n"/>
+      <c r="Z36" s="7" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="4" t="inlineStr">
+      <c r="A37" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B37" s="4" t="inlineStr">
+      <c r="B37" s="5" t="inlineStr">
         <is>
           <t>Region VII</t>
         </is>
       </c>
-      <c r="C37" s="4" t="inlineStr">
+      <c r="C37" s="5" t="inlineStr">
         <is>
           <t>Negros Oriental</t>
         </is>
       </c>
-      <c r="D37" s="4" t="n">
+      <c r="D37" s="5" t="n">
         <v>120618</v>
       </c>
-      <c r="E37" s="4" t="inlineStr">
+      <c r="E37" s="5" t="inlineStr">
         <is>
           <t>Nasuji Elementary School</t>
         </is>
       </c>
-      <c r="F37" s="4" t="inlineStr">
+      <c r="F37" s="5" t="inlineStr">
         <is>
           <t>VALENCIA (LUZURRIAGA)</t>
         </is>
       </c>
-      <c r="G37" s="4" t="inlineStr">
+      <c r="G37" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">3rd </t>
         </is>
       </c>
-      <c r="H37" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" s="4" t="n">
+      <c r="H37" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I37" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J37" s="4" t="inlineStr">
+      <c r="J37" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K37" s="4" t="n">
+      <c r="K37" s="5" t="n">
         <v>22517074.36</v>
       </c>
-      <c r="L37" s="4" t="n">
+      <c r="L37" s="5" t="n">
         <v>19373377.44</v>
       </c>
-      <c r="M37" s="4" t="inlineStr">
+      <c r="M37" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="N37" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O37" s="5" t="n">
+      <c r="N37" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O37" s="6" t="n">
         <v>45792</v>
       </c>
-      <c r="P37" s="5" t="n">
+      <c r="P37" s="6" t="n">
         <v>45790</v>
       </c>
-      <c r="Q37" s="4" t="inlineStr">
+      <c r="Q37" s="5" t="inlineStr">
         <is>
           <t>ITB 2023-11-147</t>
         </is>
       </c>
-      <c r="R37" s="4" t="inlineStr">
+      <c r="R37" s="5" t="inlineStr">
         <is>
           <t>LMS202405025</t>
         </is>
       </c>
-      <c r="S37" s="5" t="n">
+      <c r="S37" s="6" t="n">
         <v>45239</v>
       </c>
-      <c r="T37" s="5" t="n">
+      <c r="T37" s="6" t="n">
         <v>45246</v>
       </c>
-      <c r="U37" s="5" t="n">
+      <c r="U37" s="6" t="n">
         <v>45258</v>
       </c>
-      <c r="V37" s="5" t="n">
+      <c r="V37" s="6" t="n">
         <v>45264</v>
       </c>
-      <c r="W37" s="5" t="n">
+      <c r="W37" s="6" t="n">
         <v>45434</v>
       </c>
-      <c r="X37" s="4" t="inlineStr">
+      <c r="X37" s="5" t="inlineStr">
         <is>
           <t>TrinityCAD Corporation</t>
         </is>
       </c>
-      <c r="Y37" s="4" t="inlineStr">
+      <c r="Y37" s="5" t="inlineStr">
         <is>
           <t>With time extension</t>
         </is>
       </c>
-      <c r="Z37" s="4" t="n"/>
+      <c r="Z37" s="7" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="4" t="inlineStr">
+      <c r="A38" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B38" s="4" t="inlineStr">
+      <c r="B38" s="5" t="inlineStr">
         <is>
           <t>Region VII</t>
         </is>
       </c>
-      <c r="C38" s="4" t="inlineStr">
+      <c r="C38" s="5" t="inlineStr">
         <is>
           <t>Siquijor</t>
         </is>
       </c>
-      <c r="D38" s="4" t="n">
+      <c r="D38" s="5" t="n">
         <v>120662</v>
       </c>
-      <c r="E38" s="4" t="inlineStr">
+      <c r="E38" s="5" t="inlineStr">
         <is>
           <t>New Corregidor Elementary School</t>
         </is>
       </c>
-      <c r="F38" s="4" t="inlineStr">
+      <c r="F38" s="5" t="inlineStr">
         <is>
           <t>LARENA</t>
         </is>
       </c>
-      <c r="G38" s="4" t="inlineStr">
+      <c r="G38" s="5" t="inlineStr">
         <is>
           <t>Lone</t>
         </is>
       </c>
-      <c r="H38" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" s="4" t="n">
+      <c r="H38" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I38" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J38" s="4" t="inlineStr">
+      <c r="J38" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF ONE (1) STOREY - THREE (3) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE</t>
         </is>
       </c>
-      <c r="K38" s="4" t="n">
+      <c r="K38" s="5" t="n">
         <v>8295101.98</v>
       </c>
-      <c r="L38" s="4" t="n">
+      <c r="L38" s="5" t="n">
         <v>7573374.84</v>
       </c>
-      <c r="M38" s="4" t="inlineStr">
+      <c r="M38" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="N38" s="4" t="n">
+      <c r="N38" s="5" t="n">
         <v>0.95</v>
       </c>
-      <c r="O38" s="5" t="n">
+      <c r="O38" s="6" t="n">
         <v>45607</v>
       </c>
-      <c r="P38" s="5" t="n">
+      <c r="P38" s="6" t="n">
         <v>45807</v>
       </c>
-      <c r="Q38" s="4" t="n">
+      <c r="Q38" s="5" t="n">
         <v>10336667</v>
       </c>
-      <c r="R38" s="4" t="inlineStr">
+      <c r="R38" s="5" t="inlineStr">
         <is>
           <t>2023-89</t>
         </is>
       </c>
-      <c r="S38" s="5" t="n">
+      <c r="S38" s="6" t="n">
         <v>45252</v>
       </c>
-      <c r="T38" s="5" t="n">
+      <c r="T38" s="6" t="n">
         <v>45259</v>
       </c>
-      <c r="U38" s="5" t="n">
+      <c r="U38" s="6" t="n">
         <v>45271</v>
       </c>
-      <c r="V38" s="5" t="n">
+      <c r="V38" s="6" t="n">
         <v>45272</v>
       </c>
-      <c r="W38" s="5" t="n">
+      <c r="W38" s="6" t="n">
         <v>45428</v>
       </c>
-      <c r="X38" s="4" t="inlineStr">
+      <c r="X38" s="5" t="inlineStr">
         <is>
           <t>Nale Construction</t>
         </is>
       </c>
-      <c r="Y38" s="4" t="inlineStr">
+      <c r="Y38" s="5" t="inlineStr">
         <is>
           <t>with Time Extension. Revised completion date December 31, 2024</t>
         </is>
       </c>
-      <c r="Z38" s="4" t="n"/>
+      <c r="Z38" s="7" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="4" t="inlineStr">
+      <c r="A39" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B39" s="4" t="inlineStr">
+      <c r="B39" s="5" t="inlineStr">
         <is>
           <t>Region VII</t>
         </is>
       </c>
-      <c r="C39" s="4" t="inlineStr">
+      <c r="C39" s="5" t="inlineStr">
         <is>
           <t>Talisay City</t>
         </is>
       </c>
-      <c r="D39" s="4" t="n">
+      <c r="D39" s="5" t="n">
         <v>119804</v>
       </c>
-      <c r="E39" s="4" t="inlineStr">
+      <c r="E39" s="5" t="inlineStr">
         <is>
           <t>Tapul Elementary School</t>
         </is>
       </c>
-      <c r="F39" s="4" t="inlineStr">
+      <c r="F39" s="5" t="inlineStr">
         <is>
           <t>Talisay City</t>
         </is>
       </c>
-      <c r="G39" s="4" t="inlineStr">
+      <c r="G39" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">1st </t>
         </is>
       </c>
-      <c r="H39" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" s="4" t="n">
+      <c r="H39" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I39" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J39" s="4" t="inlineStr">
+      <c r="J39" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K39" s="4" t="n">
+      <c r="K39" s="5" t="n">
         <v>21184978.14</v>
       </c>
-      <c r="L39" s="4" t="n">
+      <c r="L39" s="5" t="n">
         <v>20952888</v>
       </c>
-      <c r="M39" s="4" t="inlineStr">
+      <c r="M39" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="N39" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O39" s="5" t="n">
+      <c r="N39" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O39" s="6" t="n">
         <v>45688</v>
       </c>
-      <c r="P39" s="5" t="n">
+      <c r="P39" s="6" t="n">
         <v>45688</v>
       </c>
-      <c r="Q39" s="4" t="inlineStr">
+      <c r="Q39" s="5" t="inlineStr">
         <is>
           <t>2024-001</t>
         </is>
       </c>
-      <c r="R39" s="4" t="n">
+      <c r="R39" s="5" t="n">
         <v>45436</v>
       </c>
-      <c r="S39" s="5" t="n">
+      <c r="S39" s="6" t="n">
         <v>45379</v>
       </c>
-      <c r="T39" s="5" t="n">
+      <c r="T39" s="6" t="n">
         <v>45386</v>
       </c>
-      <c r="U39" s="5" t="n">
+      <c r="U39" s="6" t="n">
         <v>45398</v>
       </c>
-      <c r="V39" s="5" t="n">
+      <c r="V39" s="6" t="n">
         <v>45400</v>
       </c>
-      <c r="W39" s="5" t="n">
+      <c r="W39" s="6" t="n">
         <v>45449</v>
       </c>
-      <c r="X39" s="4" t="inlineStr">
+      <c r="X39" s="5" t="inlineStr">
         <is>
           <t>Quirante Construction Corporation</t>
         </is>
       </c>
-      <c r="Y39" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z39" s="4" t="n"/>
+      <c r="Y39" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z39" s="7" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="4" t="inlineStr">
+      <c r="A40" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B40" s="4" t="inlineStr">
+      <c r="B40" s="5" t="inlineStr">
         <is>
           <t>Region VII</t>
         </is>
       </c>
-      <c r="C40" s="4" t="inlineStr">
+      <c r="C40" s="5" t="inlineStr">
         <is>
           <t>Toledo City</t>
         </is>
       </c>
-      <c r="D40" s="4" t="n">
+      <c r="D40" s="5" t="n">
         <v>120736</v>
       </c>
-      <c r="E40" s="4" t="inlineStr">
+      <c r="E40" s="5" t="inlineStr">
         <is>
           <t>NEW BUCAO ELEMENTARY SCHOOL</t>
         </is>
       </c>
-      <c r="F40" s="4" t="inlineStr">
+      <c r="F40" s="5" t="inlineStr">
         <is>
           <t>TOLEDO</t>
         </is>
       </c>
-      <c r="G40" s="4" t="inlineStr">
+      <c r="G40" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">3rd </t>
         </is>
       </c>
-      <c r="H40" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" s="4" t="n">
+      <c r="H40" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I40" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J40" s="4" t="inlineStr">
+      <c r="J40" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF ONE (1) STOREY - THREE (3) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K40" s="4" t="n">
+      <c r="K40" s="5" t="n">
         <v>9772031.960000001</v>
       </c>
-      <c r="L40" s="4" t="n">
+      <c r="L40" s="5" t="n">
         <v>10376058.62</v>
       </c>
-      <c r="M40" s="4" t="inlineStr">
+      <c r="M40" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="N40" s="4" t="n">
+      <c r="N40" s="5" t="n">
         <v>0.2</v>
       </c>
-      <c r="O40" s="5" t="n">
+      <c r="O40" s="6" t="n">
         <v>45865</v>
       </c>
-      <c r="P40" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="Q40" s="4" t="inlineStr">
+      <c r="P40" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="Q40" s="5" t="inlineStr">
         <is>
           <t>LMS 2023-R VII-TOLEDO CITY-001</t>
         </is>
       </c>
-      <c r="R40" s="4" t="inlineStr">
+      <c r="R40" s="5" t="inlineStr">
         <is>
           <t>2024-015</t>
         </is>
       </c>
-      <c r="S40" s="4" t="inlineStr">
+      <c r="S40" s="5" t="inlineStr">
         <is>
           <t>Mar. 21, 2024</t>
         </is>
       </c>
-      <c r="T40" s="4" t="inlineStr">
+      <c r="T40" s="5" t="inlineStr">
         <is>
           <t>Mar. 27, 2024</t>
         </is>
       </c>
-      <c r="U40" s="4" t="inlineStr">
+      <c r="U40" s="5" t="inlineStr">
         <is>
           <t>Apr. 8, 2024</t>
         </is>
       </c>
-      <c r="V40" s="4" t="inlineStr">
+      <c r="V40" s="5" t="inlineStr">
         <is>
           <t>Apr. 19, 2024</t>
         </is>
       </c>
-      <c r="W40" s="4" t="inlineStr">
+      <c r="W40" s="5" t="inlineStr">
         <is>
           <t>Feb. 27, 2025</t>
         </is>
       </c>
-      <c r="X40" s="4" t="inlineStr">
+      <c r="X40" s="5" t="inlineStr">
         <is>
           <t>Tribairn Construction</t>
         </is>
       </c>
-      <c r="Y40" s="4" t="inlineStr">
+      <c r="Y40" s="5" t="inlineStr">
         <is>
           <t>Late issuance of NTP due to road not passable</t>
         </is>
       </c>
-      <c r="Z40" s="4" t="n"/>
+      <c r="Z40" s="7" t="n"/>
     </row>
   </sheetData>
   <dataValidations count="1">

--- a/Filtered_By_Region/Region VII/Region VII_LMS.xlsx
+++ b/Filtered_By_Region/Region VII/Region VII_LMS.xlsx
@@ -444,7 +444,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z40"/>
+  <dimension ref="A1:Z31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -455,10 +455,10 @@
   <cols>
     <col width="10" customWidth="1" min="1" max="1"/>
     <col width="12" customWidth="1" min="2" max="2"/>
-    <col width="17" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
     <col width="11" customWidth="1" min="4" max="4"/>
     <col width="44" customWidth="1" min="5" max="5"/>
-    <col width="23" customWidth="1" min="6" max="6"/>
+    <col width="17" customWidth="1" min="6" max="6"/>
     <col width="6" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="11" customWidth="1" min="9" max="9"/>
@@ -477,7 +477,7 @@
     <col width="33" customWidth="1" min="22" max="22"/>
     <col width="31" customWidth="1" min="23" max="23"/>
     <col width="49" customWidth="1" min="24" max="24"/>
-    <col width="195" customWidth="1" min="25" max="25"/>
+    <col width="92" customWidth="1" min="25" max="25"/>
     <col width="28" customWidth="1" min="26" max="26"/>
   </cols>
   <sheetData>
@@ -489,7 +489,7 @@
       </c>
       <c r="B1" s="3" t="inlineStr">
         <is>
-          <t>REGION</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="C1" s="3" t="inlineStr">
@@ -1913,20 +1913,20 @@
       </c>
       <c r="C14" s="5" t="inlineStr">
         <is>
-          <t>Negros Oriental</t>
+          <t>Talisay City</t>
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>120038</v>
+        <v>233505</v>
       </c>
       <c r="E14" s="5" t="inlineStr">
         <is>
-          <t>Canlukduhan ES</t>
+          <t>Campinsa Elementary School</t>
         </is>
       </c>
       <c r="F14" s="5" t="inlineStr">
         <is>
-          <t>AYUNGON</t>
+          <t>CITY OF TALISAY</t>
         </is>
       </c>
       <c r="G14" s="5" t="n">
@@ -1940,14 +1940,14 @@
       </c>
       <c r="J14" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
+          <t xml:space="preserve"> CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, AND WATER SYSTEM</t>
         </is>
       </c>
       <c r="K14" s="5" t="n">
-        <v>17295671.81</v>
+        <v>10909009.1202</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>17268197.24</v>
+        <v>0</v>
       </c>
       <c r="M14" s="5" t="inlineStr">
         <is>
@@ -2001,15 +2001,17 @@
       <c r="X14" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="Y14" s="5" t="n">
-        <v>0</v>
+      <c r="Y14" s="5" t="inlineStr">
+        <is>
+          <t>inaugurated (August)</t>
+        </is>
       </c>
       <c r="Z14" s="7" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="5" t="inlineStr">
         <is>
-          <t>LMS 2021</t>
+          <t>LMS 2023</t>
         </is>
       </c>
       <c r="B15" s="5" t="inlineStr">
@@ -2019,20 +2021,20 @@
       </c>
       <c r="C15" s="5" t="inlineStr">
         <is>
-          <t>Negros Oriental</t>
+          <t>Bohol</t>
         </is>
       </c>
       <c r="D15" s="5" t="n">
-        <v>120303</v>
+        <v>117998</v>
       </c>
       <c r="E15" s="5" t="inlineStr">
         <is>
-          <t>Mongpong Primary School</t>
+          <t>Boyog ES</t>
         </is>
       </c>
       <c r="F15" s="5" t="inlineStr">
         <is>
-          <t>JIMALALUD</t>
+          <t>BALILIHAN</t>
         </is>
       </c>
       <c r="G15" s="5" t="n">
@@ -2046,18 +2048,18 @@
       </c>
       <c r="J15" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
+          <t>CONSTRUCTION OF ONE (1) STOREY-FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMON TOILET) WITH PROVISION OF SCHOOL FURNITURE</t>
         </is>
       </c>
       <c r="K15" s="5" t="n">
-        <v>16599217.8707</v>
+        <v>10766058.66</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>16572079.83</v>
+        <v>10644375.55</v>
       </c>
       <c r="M15" s="5" t="inlineStr">
         <is>
-          <t>COMPLETED</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="N15" s="5" t="n">
@@ -2065,47 +2067,41 @@
       </c>
       <c r="O15" s="5" t="inlineStr">
         <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="P15" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="Q15" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R15" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S15" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="T15" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="U15" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="V15" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="W15" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="X15" s="5" t="n">
-        <v>0</v>
+          <t>05/15/2024</t>
+        </is>
+      </c>
+      <c r="P15" s="6" t="n">
+        <v>45454</v>
+      </c>
+      <c r="Q15" s="5" t="inlineStr">
+        <is>
+          <t>PBI 2023-27</t>
+        </is>
+      </c>
+      <c r="R15" s="5" t="inlineStr">
+        <is>
+          <t>PBI 2023-27</t>
+        </is>
+      </c>
+      <c r="S15" s="6" t="n">
+        <v>45117</v>
+      </c>
+      <c r="T15" s="6" t="n">
+        <v>45125</v>
+      </c>
+      <c r="U15" s="6" t="n">
+        <v>45141</v>
+      </c>
+      <c r="V15" s="6" t="n">
+        <v>45208</v>
+      </c>
+      <c r="W15" s="6" t="n">
+        <v>45246</v>
+      </c>
+      <c r="X15" s="5" t="inlineStr">
+        <is>
+          <t>C. JANSENN CONSTRUCTION AND GENERAL MERCHANDISE</t>
+        </is>
       </c>
       <c r="Y15" s="5" t="n">
         <v>0</v>
@@ -2115,7 +2111,7 @@
     <row r="16">
       <c r="A16" s="5" t="inlineStr">
         <is>
-          <t>LMS 2021</t>
+          <t>LMS 2023</t>
         </is>
       </c>
       <c r="B16" s="5" t="inlineStr">
@@ -2125,20 +2121,20 @@
       </c>
       <c r="C16" s="5" t="inlineStr">
         <is>
-          <t>Negros Oriental</t>
+          <t>Bohol</t>
         </is>
       </c>
       <c r="D16" s="5" t="n">
-        <v>120482</v>
+        <v>103611</v>
       </c>
       <c r="E16" s="5" t="inlineStr">
         <is>
-          <t>Agan-an Elementary School</t>
+          <t>Cantumogcad ES</t>
         </is>
       </c>
       <c r="F16" s="5" t="inlineStr">
         <is>
-          <t>SIBULAN</t>
+          <t>BUENAVISTA</t>
         </is>
       </c>
       <c r="G16" s="5" t="n">
@@ -2152,18 +2148,18 @@
       </c>
       <c r="J16" s="5" t="inlineStr">
         <is>
-          <t>CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
+          <t>CONSTRUCTION OF 2 UNITS ONE (1) STOREY-TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR AND SCHOOL FURNITURE</t>
         </is>
       </c>
       <c r="K16" s="5" t="n">
-        <v>16382034.5205</v>
+        <v>12125725.66</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>16354914.9</v>
+        <v>11981920.24</v>
       </c>
       <c r="M16" s="5" t="inlineStr">
         <is>
-          <t>completed</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="N16" s="5" t="n">
@@ -2171,47 +2167,41 @@
       </c>
       <c r="O16" s="5" t="inlineStr">
         <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="P16" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="Q16" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R16" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S16" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="T16" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="U16" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="V16" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="W16" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="X16" s="5" t="n">
-        <v>0</v>
+          <t>05/15/2024</t>
+        </is>
+      </c>
+      <c r="P16" s="6" t="n">
+        <v>45425</v>
+      </c>
+      <c r="Q16" s="5" t="inlineStr">
+        <is>
+          <t>PBI 2023-28</t>
+        </is>
+      </c>
+      <c r="R16" s="5" t="inlineStr">
+        <is>
+          <t>PBI 2023-28</t>
+        </is>
+      </c>
+      <c r="S16" s="6" t="n">
+        <v>45117</v>
+      </c>
+      <c r="T16" s="6" t="n">
+        <v>45125</v>
+      </c>
+      <c r="U16" s="6" t="n">
+        <v>45141</v>
+      </c>
+      <c r="V16" s="6" t="n">
+        <v>45208</v>
+      </c>
+      <c r="W16" s="6" t="n">
+        <v>45246</v>
+      </c>
+      <c r="X16" s="5" t="inlineStr">
+        <is>
+          <t>C. JANSENN CONSTRUCTION AND GENERAL MERCHANDISE</t>
+        </is>
       </c>
       <c r="Y16" s="5" t="n">
         <v>0</v>
@@ -2221,7 +2211,7 @@
     <row r="17">
       <c r="A17" s="5" t="inlineStr">
         <is>
-          <t>LMS 2021</t>
+          <t>LMS 2023</t>
         </is>
       </c>
       <c r="B17" s="5" t="inlineStr">
@@ -2231,20 +2221,20 @@
       </c>
       <c r="C17" s="5" t="inlineStr">
         <is>
-          <t>Negros Oriental</t>
+          <t>Bohol</t>
         </is>
       </c>
       <c r="D17" s="5" t="n">
-        <v>120443</v>
+        <v>117965</v>
       </c>
       <c r="E17" s="5" t="inlineStr">
         <is>
-          <t>Antulang Elementary School</t>
+          <t>Tanod ES</t>
         </is>
       </c>
       <c r="F17" s="5" t="inlineStr">
         <is>
-          <t>SIATON</t>
+          <t>ANDA</t>
         </is>
       </c>
       <c r="G17" s="5" t="n">
@@ -2254,22 +2244,22 @@
         <v>1</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J17" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CONSTRUCTION OF ONE (1) UNIT ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
+          <t>CONSTRUCTION OF ONE (1) STOREY-TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR AND SCHOOL FURNITURE</t>
         </is>
       </c>
       <c r="K17" s="5" t="n">
-        <v>16529232.17</v>
+        <v>6161022.46</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>16502080.2</v>
+        <v>6032357.5</v>
       </c>
       <c r="M17" s="5" t="inlineStr">
         <is>
-          <t>COMPLETED</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="N17" s="5" t="n">
@@ -2277,47 +2267,41 @@
       </c>
       <c r="O17" s="5" t="inlineStr">
         <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="P17" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="Q17" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="T17" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="U17" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="V17" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="W17" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="X17" s="5" t="n">
-        <v>0</v>
+          <t>4/16/2024</t>
+        </is>
+      </c>
+      <c r="P17" s="6" t="n">
+        <v>45468</v>
+      </c>
+      <c r="Q17" s="5" t="inlineStr">
+        <is>
+          <t>PBI 2023-29</t>
+        </is>
+      </c>
+      <c r="R17" s="5" t="inlineStr">
+        <is>
+          <t>PBI 2023-29</t>
+        </is>
+      </c>
+      <c r="S17" s="6" t="n">
+        <v>45117</v>
+      </c>
+      <c r="T17" s="6" t="n">
+        <v>45125</v>
+      </c>
+      <c r="U17" s="6" t="n">
+        <v>45141</v>
+      </c>
+      <c r="V17" s="6" t="n">
+        <v>45208</v>
+      </c>
+      <c r="W17" s="6" t="n">
+        <v>45247</v>
+      </c>
+      <c r="X17" s="5" t="inlineStr">
+        <is>
+          <t>DMAM CONSTRUCTION SERVICES</t>
+        </is>
       </c>
       <c r="Y17" s="5" t="n">
         <v>0</v>
@@ -2327,7 +2311,7 @@
     <row r="18">
       <c r="A18" s="5" t="inlineStr">
         <is>
-          <t>LMS 2021</t>
+          <t>LMS 2023</t>
         </is>
       </c>
       <c r="B18" s="5" t="inlineStr">
@@ -2337,45 +2321,45 @@
       </c>
       <c r="C18" s="5" t="inlineStr">
         <is>
-          <t>Talisay City</t>
+          <t>Bohol</t>
         </is>
       </c>
       <c r="D18" s="5" t="n">
-        <v>233505</v>
+        <v>118859</v>
       </c>
       <c r="E18" s="5" t="inlineStr">
         <is>
-          <t>Campinsa Elementary School</t>
+          <t>Pangian ES</t>
         </is>
       </c>
       <c r="F18" s="5" t="inlineStr">
         <is>
-          <t>CITY OF TALISAY</t>
+          <t>VALENCIA</t>
         </is>
       </c>
       <c r="G18" s="5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H18" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J18" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, AND WATER SYSTEM</t>
+          <t>CONSTRUCTION OF ONE (1) STOREY-TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMON TOILET)WITH PROVISION OF SCHOOL FURNITURE</t>
         </is>
       </c>
       <c r="K18" s="5" t="n">
-        <v>10909009.1202</v>
+        <v>6014632.02</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0</v>
+        <v>4452592.82</v>
       </c>
       <c r="M18" s="5" t="inlineStr">
         <is>
-          <t>COMPLETED</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="N18" s="5" t="n">
@@ -2383,59 +2367,51 @@
       </c>
       <c r="O18" s="5" t="inlineStr">
         <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="P18" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="Q18" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R18" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S18" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="T18" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="U18" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="V18" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="W18" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="X18" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y18" s="5" t="inlineStr">
-        <is>
-          <t>inaugurated (August)</t>
-        </is>
+          <t>4/26/2024</t>
+        </is>
+      </c>
+      <c r="P18" s="6" t="n">
+        <v>45471</v>
+      </c>
+      <c r="Q18" s="5" t="inlineStr">
+        <is>
+          <t>PBI 2023-30</t>
+        </is>
+      </c>
+      <c r="R18" s="5" t="inlineStr">
+        <is>
+          <t>PBI 2023-30</t>
+        </is>
+      </c>
+      <c r="S18" s="6" t="n">
+        <v>45117</v>
+      </c>
+      <c r="T18" s="6" t="n">
+        <v>45125</v>
+      </c>
+      <c r="U18" s="6" t="n">
+        <v>45141</v>
+      </c>
+      <c r="V18" s="6" t="n">
+        <v>45208</v>
+      </c>
+      <c r="W18" s="6" t="n">
+        <v>45258</v>
+      </c>
+      <c r="X18" s="5" t="inlineStr">
+        <is>
+          <t>LTS BUILDERS AND CONSTRUCTION SUPPLY</t>
+        </is>
+      </c>
+      <c r="Y18" s="5" t="n">
+        <v>0</v>
       </c>
       <c r="Z18" s="7" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="5" t="inlineStr">
         <is>
-          <t>LMS 2022</t>
+          <t>LMS 2023</t>
         </is>
       </c>
       <c r="B19" s="5" t="inlineStr">
@@ -2445,24 +2421,24 @@
       </c>
       <c r="C19" s="5" t="inlineStr">
         <is>
-          <t>Negros Oriental</t>
+          <t>Cebu</t>
         </is>
       </c>
       <c r="D19" s="5" t="n">
-        <v>189514</v>
+        <v>119061</v>
       </c>
       <c r="E19" s="5" t="inlineStr">
         <is>
-          <t>Guilongsoran Primary School</t>
+          <t>Balintawak ES</t>
         </is>
       </c>
       <c r="F19" s="5" t="inlineStr">
         <is>
-          <t>SAN JOSE</t>
+          <t>BANTAYAN</t>
         </is>
       </c>
       <c r="G19" s="5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H19" s="5" t="n">
         <v>1</v>
@@ -2472,14 +2448,14 @@
       </c>
       <c r="J19" s="5" t="inlineStr">
         <is>
-          <t>CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
+          <t>CONSTRUCTION OF 1STY-4CL SCHOOL BUILDING WITH COMMON TOILET WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE AND WATER SYSTEM</t>
         </is>
       </c>
       <c r="K19" s="5" t="n">
-        <v>16249807.02072526</v>
+        <v>11727969.19</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>16152092.89</v>
+        <v>11561367.39</v>
       </c>
       <c r="M19" s="5" t="inlineStr">
         <is>
@@ -2490,51 +2466,45 @@
         <v>1</v>
       </c>
       <c r="O19" s="6" t="n">
+        <v>45536</v>
+      </c>
+      <c r="P19" s="6" t="n">
+        <v>45536</v>
+      </c>
+      <c r="Q19" s="5" t="inlineStr">
+        <is>
+          <t>CY 2023 LMS-R7-CEBU</t>
+        </is>
+      </c>
+      <c r="R19" s="5" t="inlineStr">
+        <is>
+          <t>CY 2023 LMS-R7-CEBU-03</t>
+        </is>
+      </c>
+      <c r="S19" s="6" t="n">
         <v>45126</v>
       </c>
-      <c r="P19" s="6" t="n">
-        <v>45126</v>
-      </c>
-      <c r="Q19" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> ITB 2022-10-136</t>
-        </is>
-      </c>
-      <c r="R19" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> LMS202211017</t>
-        </is>
-      </c>
-      <c r="S19" s="6" t="n">
-        <v>44852</v>
-      </c>
-      <c r="T19" s="5" t="inlineStr">
-        <is>
-          <t>#############</t>
-        </is>
-      </c>
-      <c r="U19" s="5" t="inlineStr">
-        <is>
-          <t>#############</t>
-        </is>
-      </c>
-      <c r="V19" s="5" t="inlineStr">
-        <is>
-          <t>#############</t>
-        </is>
-      </c>
-      <c r="W19" s="6" t="n">
-        <v>44904</v>
+      <c r="T19" s="6" t="n">
+        <v>45133</v>
+      </c>
+      <c r="U19" s="6" t="n">
+        <v>45145</v>
+      </c>
+      <c r="V19" s="6" t="n">
+        <v>45155</v>
+      </c>
+      <c r="W19" s="5" t="inlineStr">
+        <is>
+          <t>31/08/2023</t>
+        </is>
       </c>
       <c r="X19" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> TRINITYCAD CORPORATION</t>
-        </is>
-      </c>
-      <c r="Y19" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> With approved Time Extension &amp; Variation order - extra work.</t>
-        </is>
+          <t>ROVILLA CONSTRUCTION</t>
+        </is>
+      </c>
+      <c r="Y19" s="5" t="n">
+        <v>0</v>
       </c>
       <c r="Z19" s="7" t="n"/>
     </row>
@@ -2551,41 +2521,41 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>Bohol</t>
+          <t>Cebu</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>117998</v>
+        <v>119063</v>
       </c>
       <c r="E20" s="5" t="inlineStr">
         <is>
-          <t>Boyog ES</t>
+          <t>Guiwanon Elementary School</t>
         </is>
       </c>
       <c r="F20" s="5" t="inlineStr">
         <is>
-          <t>BALILIHAN</t>
+          <t>BANTAYAN</t>
         </is>
       </c>
       <c r="G20" s="5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H20" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J20" s="5" t="inlineStr">
         <is>
-          <t>CONSTRUCTION OF ONE (1) STOREY-FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMON TOILET) WITH PROVISION OF SCHOOL FURNITURE</t>
+          <t>CONSTRUCTION OF 1STY-3CL SCHOOL BUILDING WITH COMMON TOILET WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE AND WATER SYSTEM</t>
         </is>
       </c>
       <c r="K20" s="5" t="n">
-        <v>10766058.66</v>
+        <v>9943843.08</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>10644375.55</v>
+        <v>9794772.390000001</v>
       </c>
       <c r="M20" s="5" t="inlineStr">
         <is>
@@ -2597,40 +2567,44 @@
       </c>
       <c r="O20" s="5" t="inlineStr">
         <is>
-          <t>05/15/2024</t>
-        </is>
-      </c>
-      <c r="P20" s="6" t="n">
-        <v>45454</v>
+          <t>25/12/2023</t>
+        </is>
+      </c>
+      <c r="P20" s="5" t="inlineStr">
+        <is>
+          <t>25/12/2023</t>
+        </is>
       </c>
       <c r="Q20" s="5" t="inlineStr">
         <is>
-          <t>PBI 2023-27</t>
+          <t>CY 2023 LMS-R7-CEBU</t>
         </is>
       </c>
       <c r="R20" s="5" t="inlineStr">
         <is>
-          <t>PBI 2023-27</t>
+          <t>CY 2023 LMS-R7-CEBU-01</t>
         </is>
       </c>
       <c r="S20" s="6" t="n">
-        <v>45117</v>
+        <v>45126</v>
       </c>
       <c r="T20" s="6" t="n">
-        <v>45125</v>
+        <v>45133</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>45141</v>
+        <v>45145</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>45208</v>
-      </c>
-      <c r="W20" s="6" t="n">
-        <v>45246</v>
+        <v>45155</v>
+      </c>
+      <c r="W20" s="5" t="inlineStr">
+        <is>
+          <t>31/08/2023</t>
+        </is>
       </c>
       <c r="X20" s="5" t="inlineStr">
         <is>
-          <t>C. JANSENN CONSTRUCTION AND GENERAL MERCHANDISE</t>
+          <t>ROVILLA CONSTRUCTION</t>
         </is>
       </c>
       <c r="Y20" s="5" t="n">
@@ -2651,41 +2625,41 @@
       </c>
       <c r="C21" s="5" t="inlineStr">
         <is>
-          <t>Bohol</t>
+          <t>Cebu</t>
         </is>
       </c>
       <c r="D21" s="5" t="n">
-        <v>103611</v>
+        <v>119071</v>
       </c>
       <c r="E21" s="5" t="inlineStr">
         <is>
-          <t>Cantumogcad ES</t>
+          <t>Vito ES</t>
         </is>
       </c>
       <c r="F21" s="5" t="inlineStr">
         <is>
-          <t>BUENAVISTA</t>
+          <t>BANTAYAN</t>
         </is>
       </c>
       <c r="G21" s="5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H21" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J21" s="5" t="inlineStr">
         <is>
-          <t>CONSTRUCTION OF 2 UNITS ONE (1) STOREY-TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR AND SCHOOL FURNITURE</t>
+          <t>CONSTRUCTION OF 1STY-3CL SCHOOL BUILDING WITH COMMON TOILET WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE AND WATER SYSTEM</t>
         </is>
       </c>
       <c r="K21" s="5" t="n">
-        <v>12125725.66</v>
+        <v>9896120.58</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>11981920.24</v>
+        <v>9745999.34</v>
       </c>
       <c r="M21" s="5" t="inlineStr">
         <is>
@@ -2697,40 +2671,44 @@
       </c>
       <c r="O21" s="5" t="inlineStr">
         <is>
-          <t>05/15/2024</t>
-        </is>
-      </c>
-      <c r="P21" s="6" t="n">
-        <v>45425</v>
+          <t>25/12/2023</t>
+        </is>
+      </c>
+      <c r="P21" s="5" t="inlineStr">
+        <is>
+          <t>25/12/2023</t>
+        </is>
       </c>
       <c r="Q21" s="5" t="inlineStr">
         <is>
-          <t>PBI 2023-28</t>
+          <t>CY 2023 LMS-R7-CEBU</t>
         </is>
       </c>
       <c r="R21" s="5" t="inlineStr">
         <is>
-          <t>PBI 2023-28</t>
+          <t>CY 2023 LMS-R7-CEBU-02</t>
         </is>
       </c>
       <c r="S21" s="6" t="n">
-        <v>45117</v>
+        <v>45126</v>
       </c>
       <c r="T21" s="6" t="n">
-        <v>45125</v>
+        <v>45133</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>45141</v>
+        <v>45145</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>45208</v>
-      </c>
-      <c r="W21" s="6" t="n">
-        <v>45246</v>
+        <v>45155</v>
+      </c>
+      <c r="W21" s="5" t="inlineStr">
+        <is>
+          <t>31/08/2023</t>
+        </is>
       </c>
       <c r="X21" s="5" t="inlineStr">
         <is>
-          <t>C. JANSENN CONSTRUCTION AND GENERAL MERCHANDISE</t>
+          <t>ROVILLA CONSTRUCTION</t>
         </is>
       </c>
       <c r="Y21" s="5" t="n">
@@ -2751,41 +2729,41 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>Bohol</t>
+          <t>Cebu</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>117965</v>
+        <v>119192</v>
       </c>
       <c r="E22" s="5" t="inlineStr">
         <is>
-          <t>Tanod ES</t>
+          <t>Francisco S. Villamor Sr.Elementary School</t>
         </is>
       </c>
       <c r="F22" s="5" t="inlineStr">
         <is>
-          <t>ANDA</t>
+          <t>CARMEN</t>
         </is>
       </c>
       <c r="G22" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I22" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="H22" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" s="5" t="n">
-        <v>2</v>
-      </c>
       <c r="J22" s="5" t="inlineStr">
         <is>
-          <t>CONSTRUCTION OF ONE (1) STOREY-TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR AND SCHOOL FURNITURE</t>
+          <t>CONSTRUCTION OF 1STY-3CL SCHOOL BUILDING WITH COMMON TOILET WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE AND WATER SYSTEM</t>
         </is>
       </c>
       <c r="K22" s="5" t="n">
-        <v>6161022.46</v>
+        <v>9745045.060000001</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>6032357.5</v>
+        <v>9618165.279999999</v>
       </c>
       <c r="M22" s="5" t="inlineStr">
         <is>
@@ -2795,42 +2773,40 @@
       <c r="N22" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="O22" s="5" t="inlineStr">
-        <is>
-          <t>4/16/2024</t>
-        </is>
+      <c r="O22" s="6" t="n">
+        <v>45352</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>45468</v>
+        <v>45294</v>
       </c>
       <c r="Q22" s="5" t="inlineStr">
         <is>
-          <t>PBI 2023-29</t>
+          <t>CY 2023 LMS-R7-CEBU</t>
         </is>
       </c>
       <c r="R22" s="5" t="inlineStr">
         <is>
-          <t>PBI 2023-29</t>
+          <t>CY 2023 LMS-R7-CEBU-04</t>
         </is>
       </c>
       <c r="S22" s="6" t="n">
-        <v>45117</v>
+        <v>45126</v>
       </c>
       <c r="T22" s="6" t="n">
-        <v>45125</v>
+        <v>45133</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>45141</v>
+        <v>45145</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>45208</v>
+        <v>45155</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>45247</v>
+        <v>45269</v>
       </c>
       <c r="X22" s="5" t="inlineStr">
         <is>
-          <t>DMAM CONSTRUCTION SERVICES</t>
+          <t>TRI-BAIRN CONSTRUCTION</t>
         </is>
       </c>
       <c r="Y22" s="5" t="n">
@@ -2851,41 +2827,41 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
-          <t>Bohol</t>
+          <t>Cebu</t>
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>118859</v>
+        <v>119230</v>
       </c>
       <c r="E23" s="5" t="inlineStr">
         <is>
-          <t>Pangian ES</t>
+          <t>Magay ES</t>
         </is>
       </c>
       <c r="F23" s="5" t="inlineStr">
         <is>
-          <t>VALENCIA</t>
+          <t>COMPOSTELA</t>
         </is>
       </c>
       <c r="G23" s="5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H23" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J23" s="5" t="inlineStr">
         <is>
-          <t>CONSTRUCTION OF ONE (1) STOREY-TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMON TOILET)WITH PROVISION OF SCHOOL FURNITURE</t>
+          <t>PROPOSED CONSTRUCTION OF 1STY-4CL SCHOOL BUILDING WITH COMMON TOILET WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE AND WATER SYSTEM</t>
         </is>
       </c>
       <c r="K23" s="5" t="n">
-        <v>6014632.02</v>
+        <v>11139089.16</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>4452592.82</v>
+        <v>10978920.9</v>
       </c>
       <c r="M23" s="5" t="inlineStr">
         <is>
@@ -2895,42 +2871,44 @@
       <c r="N23" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="O23" s="5" t="inlineStr">
-        <is>
-          <t>4/26/2024</t>
-        </is>
-      </c>
-      <c r="P23" s="6" t="n">
-        <v>45471</v>
+      <c r="O23" s="6" t="n">
+        <v>45536</v>
+      </c>
+      <c r="P23" s="5" t="inlineStr">
+        <is>
+          <t>25/12/2023</t>
+        </is>
       </c>
       <c r="Q23" s="5" t="inlineStr">
         <is>
-          <t>PBI 2023-30</t>
+          <t>CY 2023 LMS-R7-CEBU</t>
         </is>
       </c>
       <c r="R23" s="5" t="inlineStr">
         <is>
-          <t>PBI 2023-30</t>
+          <t>CY 2023 LMS-R7-CEBU-06</t>
         </is>
       </c>
       <c r="S23" s="6" t="n">
-        <v>45117</v>
+        <v>45126</v>
       </c>
       <c r="T23" s="6" t="n">
-        <v>45125</v>
+        <v>45133</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>45141</v>
+        <v>45145</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>45208</v>
-      </c>
-      <c r="W23" s="6" t="n">
-        <v>45258</v>
+        <v>45155</v>
+      </c>
+      <c r="W23" s="5" t="inlineStr">
+        <is>
+          <t>31/08/2023</t>
+        </is>
       </c>
       <c r="X23" s="5" t="inlineStr">
         <is>
-          <t>LTS BUILDERS AND CONSTRUCTION SUPPLY</t>
+          <t>BARR STEEL CONSTRUCTION</t>
         </is>
       </c>
       <c r="Y23" s="5" t="n">
@@ -2955,37 +2933,37 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>119061</v>
+        <v>501350</v>
       </c>
       <c r="E24" s="5" t="inlineStr">
         <is>
-          <t>Balintawak ES</t>
+          <t>Tag-ubi Integrated School</t>
         </is>
       </c>
       <c r="F24" s="5" t="inlineStr">
         <is>
-          <t>BANTAYAN</t>
+          <t>COMPOSTELA</t>
         </is>
       </c>
       <c r="G24" s="5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H24" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J24" s="5" t="inlineStr">
         <is>
-          <t>CONSTRUCTION OF 1STY-4CL SCHOOL BUILDING WITH COMMON TOILET WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE AND WATER SYSTEM</t>
+          <t>CONSTRUCTION OF 1STY-3CL SCHOOL BUILDING WITH COMMON TOILET WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE AND WATER SYSTEM</t>
         </is>
       </c>
       <c r="K24" s="5" t="n">
-        <v>11727969.19</v>
+        <v>9399879.76</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>11561367.39</v>
+        <v>7288932.45</v>
       </c>
       <c r="M24" s="5" t="inlineStr">
         <is>
@@ -2995,11 +2973,15 @@
       <c r="N24" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="O24" s="6" t="n">
-        <v>45536</v>
-      </c>
-      <c r="P24" s="6" t="n">
-        <v>45536</v>
+      <c r="O24" s="5" t="inlineStr">
+        <is>
+          <t>25/12/2023</t>
+        </is>
+      </c>
+      <c r="P24" s="5" t="inlineStr">
+        <is>
+          <t>25/12/2023</t>
+        </is>
       </c>
       <c r="Q24" s="5" t="inlineStr">
         <is>
@@ -3008,7 +2990,7 @@
       </c>
       <c r="R24" s="5" t="inlineStr">
         <is>
-          <t>CY 2023 LMS-R7-CEBU-03</t>
+          <t>CY 2023 LMS-R7-CEBU-05</t>
         </is>
       </c>
       <c r="S24" s="6" t="n">
@@ -3030,7 +3012,7 @@
       </c>
       <c r="X24" s="5" t="inlineStr">
         <is>
-          <t>ROVILLA CONSTRUCTION</t>
+          <t>ANIELTHON CONSTRUCTION AND SUPPLY</t>
         </is>
       </c>
       <c r="Y24" s="5" t="n">
@@ -3041,7 +3023,7 @@
     <row r="25">
       <c r="A25" s="5" t="inlineStr">
         <is>
-          <t>LMS 2023</t>
+          <t>LMS 2024</t>
         </is>
       </c>
       <c r="B25" s="5" t="inlineStr">
@@ -3055,86 +3037,92 @@
         </is>
       </c>
       <c r="D25" s="5" t="n">
-        <v>119063</v>
+        <v>119637</v>
       </c>
       <c r="E25" s="5" t="inlineStr">
         <is>
-          <t>Guiwanon Elementary School</t>
+          <t>TUBOD ES</t>
         </is>
       </c>
       <c r="F25" s="5" t="inlineStr">
         <is>
-          <t>BANTAYAN</t>
-        </is>
-      </c>
-      <c r="G25" s="5" t="n">
+          <t>SAN FERNANDO</t>
+        </is>
+      </c>
+      <c r="G25" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1st </t>
+        </is>
+      </c>
+      <c r="H25" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I25" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="H25" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" s="5" t="n">
-        <v>3</v>
-      </c>
       <c r="J25" s="5" t="inlineStr">
         <is>
-          <t>CONSTRUCTION OF 1STY-3CL SCHOOL BUILDING WITH COMMON TOILET WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE AND WATER SYSTEM</t>
+          <t>PROPOSED CONSTRUCTION OF TWO (2) UNITS ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF SCHOOL FURNITURE AND WATER SYSTEM (DEEP WELL)</t>
         </is>
       </c>
       <c r="K25" s="5" t="n">
-        <v>9943843.08</v>
+        <v>14679322.67</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>9794772.390000001</v>
+        <v>10400000</v>
       </c>
       <c r="M25" s="5" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Ongoing</t>
         </is>
       </c>
       <c r="N25" s="5" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="O25" s="5" t="inlineStr">
         <is>
-          <t>25/12/2023</t>
+          <t>28/04/2025</t>
         </is>
       </c>
       <c r="P25" s="5" t="inlineStr">
         <is>
-          <t>25/12/2023</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="Q25" s="5" t="inlineStr">
         <is>
-          <t>CY 2023 LMS-R7-CEBU</t>
+          <t>CY 2024 BEFF LMS-DepED-R7-Cebu-01</t>
         </is>
       </c>
       <c r="R25" s="5" t="inlineStr">
         <is>
-          <t>CY 2023 LMS-R7-CEBU-01</t>
+          <t>CY 2024 BEFF LMS-DepED-R7-Cebu-01</t>
         </is>
       </c>
       <c r="S25" s="6" t="n">
-        <v>45126</v>
-      </c>
-      <c r="T25" s="6" t="n">
-        <v>45133</v>
+        <v>45602</v>
+      </c>
+      <c r="T25" s="5" t="inlineStr">
+        <is>
+          <t>18/06/2024</t>
+        </is>
       </c>
       <c r="U25" s="6" t="n">
-        <v>45145</v>
-      </c>
-      <c r="V25" s="6" t="n">
-        <v>45155</v>
+        <v>45329</v>
+      </c>
+      <c r="V25" s="5" t="inlineStr">
+        <is>
+          <t>16/08/2024</t>
+        </is>
       </c>
       <c r="W25" s="5" t="inlineStr">
         <is>
-          <t>31/08/2023</t>
+          <t>22/10/2024</t>
         </is>
       </c>
       <c r="X25" s="5" t="inlineStr">
         <is>
-          <t>ROVILLA CONSTRUCTION</t>
+          <t>TRI-BAIRN CONSTRUCTION</t>
         </is>
       </c>
       <c r="Y25" s="5" t="n">
@@ -3145,7 +3133,7 @@
     <row r="26">
       <c r="A26" s="5" t="inlineStr">
         <is>
-          <t>LMS 2023</t>
+          <t>LMS 2024</t>
         </is>
       </c>
       <c r="B26" s="5" t="inlineStr">
@@ -3159,41 +3147,43 @@
         </is>
       </c>
       <c r="D26" s="5" t="n">
-        <v>119071</v>
+        <v>119699</v>
       </c>
       <c r="E26" s="5" t="inlineStr">
         <is>
-          <t>Vito ES</t>
+          <t>LIPTONG ES</t>
         </is>
       </c>
       <c r="F26" s="5" t="inlineStr">
         <is>
-          <t>BANTAYAN</t>
-        </is>
-      </c>
-      <c r="G26" s="5" t="n">
+          <t>SANTANDER</t>
+        </is>
+      </c>
+      <c r="G26" s="5" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="H26" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I26" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="H26" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" s="5" t="n">
-        <v>3</v>
-      </c>
       <c r="J26" s="5" t="inlineStr">
         <is>
-          <t>CONSTRUCTION OF 1STY-3CL SCHOOL BUILDING WITH COMMON TOILET WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE AND WATER SYSTEM</t>
+          <t>PROPOSED CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF SCHOOL FURNITURE AND WATER SYSTEM (DEEP WELL)</t>
         </is>
       </c>
       <c r="K26" s="5" t="n">
-        <v>9896120.58</v>
+        <v>11508290.01</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>9745999.34</v>
+        <v>11393207.11</v>
       </c>
       <c r="M26" s="5" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>COMPLETED</t>
         </is>
       </c>
       <c r="N26" s="5" t="n">
@@ -3201,44 +3191,48 @@
       </c>
       <c r="O26" s="5" t="inlineStr">
         <is>
-          <t>25/12/2023</t>
+          <t>28/04/2025</t>
         </is>
       </c>
       <c r="P26" s="5" t="inlineStr">
         <is>
-          <t>25/12/2023</t>
+          <t>28/04/2025</t>
         </is>
       </c>
       <c r="Q26" s="5" t="inlineStr">
         <is>
-          <t>CY 2023 LMS-R7-CEBU</t>
+          <t>CY 2024 BEFF LMS-DepED-R7-Cebu-02</t>
         </is>
       </c>
       <c r="R26" s="5" t="inlineStr">
         <is>
-          <t>CY 2023 LMS-R7-CEBU-02</t>
+          <t>CY 2024 BEFF LMS-DepED-R7-Cebu-02</t>
         </is>
       </c>
       <c r="S26" s="6" t="n">
-        <v>45126</v>
-      </c>
-      <c r="T26" s="6" t="n">
-        <v>45133</v>
+        <v>45602</v>
+      </c>
+      <c r="T26" s="5" t="inlineStr">
+        <is>
+          <t>18/06/2024</t>
+        </is>
       </c>
       <c r="U26" s="6" t="n">
-        <v>45145</v>
-      </c>
-      <c r="V26" s="6" t="n">
-        <v>45155</v>
+        <v>45329</v>
+      </c>
+      <c r="V26" s="5" t="inlineStr">
+        <is>
+          <t>16/08/2024</t>
+        </is>
       </c>
       <c r="W26" s="5" t="inlineStr">
         <is>
-          <t>31/08/2023</t>
+          <t>22/10/2024</t>
         </is>
       </c>
       <c r="X26" s="5" t="inlineStr">
         <is>
-          <t>ROVILLA CONSTRUCTION</t>
+          <t>RT CONSTRUCTION &amp; ENTERPRISES</t>
         </is>
       </c>
       <c r="Y26" s="5" t="n">
@@ -3249,7 +3243,7 @@
     <row r="27">
       <c r="A27" s="5" t="inlineStr">
         <is>
-          <t>LMS 2023</t>
+          <t>LMS 2024</t>
         </is>
       </c>
       <c r="B27" s="5" t="inlineStr">
@@ -3263,80 +3257,92 @@
         </is>
       </c>
       <c r="D27" s="5" t="n">
-        <v>119192</v>
+        <v>118976</v>
       </c>
       <c r="E27" s="5" t="inlineStr">
         <is>
-          <t>Francisco S. Villamor Sr.Elementary School</t>
+          <t>KALUANGAN II</t>
         </is>
       </c>
       <c r="F27" s="5" t="inlineStr">
         <is>
-          <t>CARMEN</t>
-        </is>
-      </c>
-      <c r="G27" s="5" t="n">
-        <v>5</v>
+          <t>ASTURIAS</t>
+        </is>
+      </c>
+      <c r="G27" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">3rd </t>
+        </is>
       </c>
       <c r="H27" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J27" s="5" t="inlineStr">
         <is>
-          <t>CONSTRUCTION OF 1STY-3CL SCHOOL BUILDING WITH COMMON TOILET WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE AND WATER SYSTEM</t>
+          <t>PROPOSED CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF SCHOOL FURNITURE AND WATER SYSTEM (DEEP WELL)</t>
         </is>
       </c>
       <c r="K27" s="5" t="n">
-        <v>9745045.060000001</v>
+        <v>11508290.01</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>9618165.279999999</v>
+        <v>11328208.14</v>
       </c>
       <c r="M27" s="5" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>COMPLETED</t>
         </is>
       </c>
       <c r="N27" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="O27" s="6" t="n">
-        <v>45352</v>
-      </c>
-      <c r="P27" s="6" t="n">
-        <v>45294</v>
+      <c r="O27" s="5" t="inlineStr">
+        <is>
+          <t>28/04/2025</t>
+        </is>
+      </c>
+      <c r="P27" s="5" t="inlineStr">
+        <is>
+          <t>28/04/2025</t>
+        </is>
       </c>
       <c r="Q27" s="5" t="inlineStr">
         <is>
-          <t>CY 2023 LMS-R7-CEBU</t>
+          <t>CY 2024 BEFF LMS-DepED-R7-Cebu-03</t>
         </is>
       </c>
       <c r="R27" s="5" t="inlineStr">
         <is>
-          <t>CY 2023 LMS-R7-CEBU-04</t>
+          <t>CY 2024 BEFF LMS-DepED-R7-Cebu-03</t>
         </is>
       </c>
       <c r="S27" s="6" t="n">
-        <v>45126</v>
-      </c>
-      <c r="T27" s="6" t="n">
-        <v>45133</v>
+        <v>45602</v>
+      </c>
+      <c r="T27" s="5" t="inlineStr">
+        <is>
+          <t>18/06/2024</t>
+        </is>
       </c>
       <c r="U27" s="6" t="n">
-        <v>45145</v>
-      </c>
-      <c r="V27" s="6" t="n">
-        <v>45155</v>
-      </c>
-      <c r="W27" s="6" t="n">
-        <v>45269</v>
+        <v>45329</v>
+      </c>
+      <c r="V27" s="5" t="inlineStr">
+        <is>
+          <t>16/08/2024</t>
+        </is>
+      </c>
+      <c r="W27" s="5" t="inlineStr">
+        <is>
+          <t>22/10/2024</t>
+        </is>
       </c>
       <c r="X27" s="5" t="inlineStr">
         <is>
-          <t>TRI-BAIRN CONSTRUCTION</t>
+          <t>ANIELTHON CONSTRUCTION &amp; SUPPLY</t>
         </is>
       </c>
       <c r="Y27" s="5" t="n">
@@ -3347,7 +3353,7 @@
     <row r="28">
       <c r="A28" s="5" t="inlineStr">
         <is>
-          <t>LMS 2023</t>
+          <t>LMS 2024</t>
         </is>
       </c>
       <c r="B28" s="5" t="inlineStr">
@@ -3361,84 +3367,92 @@
         </is>
       </c>
       <c r="D28" s="5" t="n">
-        <v>119230</v>
+        <v>119435</v>
       </c>
       <c r="E28" s="5" t="inlineStr">
         <is>
-          <t>Magay ES</t>
+          <t>TARONG ES</t>
         </is>
       </c>
       <c r="F28" s="5" t="inlineStr">
         <is>
-          <t>COMPOSTELA</t>
-        </is>
-      </c>
-      <c r="G28" s="5" t="n">
-        <v>5</v>
+          <t>MADRIDEJOS</t>
+        </is>
+      </c>
+      <c r="G28" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4th </t>
+        </is>
       </c>
       <c r="H28" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I28" s="5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J28" s="5" t="inlineStr">
         <is>
-          <t>PROPOSED CONSTRUCTION OF 1STY-4CL SCHOOL BUILDING WITH COMMON TOILET WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE AND WATER SYSTEM</t>
+          <t>PROPOSED CONSTRUCTION OF ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF SCHOOL FURNITURE AND WATER SYSTEM (DEEP WELL)</t>
         </is>
       </c>
       <c r="K28" s="5" t="n">
-        <v>11139089.16</v>
+        <v>8027122.46</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>10978920.9</v>
+        <v>7907423.97</v>
       </c>
       <c r="M28" s="5" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Ongoing</t>
         </is>
       </c>
       <c r="N28" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O28" s="6" t="n">
-        <v>45536</v>
+        <v>0.8</v>
+      </c>
+      <c r="O28" s="5" t="inlineStr">
+        <is>
+          <t>29/03/2025</t>
+        </is>
       </c>
       <c r="P28" s="5" t="inlineStr">
         <is>
-          <t>25/12/2023</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="Q28" s="5" t="inlineStr">
         <is>
-          <t>CY 2023 LMS-R7-CEBU</t>
+          <t>CY 2024 BEFF LMS-DepED-R7-Cebu-04</t>
         </is>
       </c>
       <c r="R28" s="5" t="inlineStr">
         <is>
-          <t>CY 2023 LMS-R7-CEBU-06</t>
+          <t>CY 2024 BEFF LMS-DepED-R7-Cebu-04</t>
         </is>
       </c>
       <c r="S28" s="6" t="n">
-        <v>45126</v>
-      </c>
-      <c r="T28" s="6" t="n">
-        <v>45133</v>
+        <v>45602</v>
+      </c>
+      <c r="T28" s="5" t="inlineStr">
+        <is>
+          <t>18/06/2024</t>
+        </is>
       </c>
       <c r="U28" s="6" t="n">
-        <v>45145</v>
-      </c>
-      <c r="V28" s="6" t="n">
-        <v>45155</v>
+        <v>45329</v>
+      </c>
+      <c r="V28" s="5" t="inlineStr">
+        <is>
+          <t>16/08/2024</t>
+        </is>
       </c>
       <c r="W28" s="5" t="inlineStr">
         <is>
-          <t>31/08/2023</t>
+          <t>22/10/2024</t>
         </is>
       </c>
       <c r="X28" s="5" t="inlineStr">
         <is>
-          <t>BARR STEEL CONSTRUCTION</t>
+          <t>ROVILLA CONSTRUCTION</t>
         </is>
       </c>
       <c r="Y28" s="5" t="n">
@@ -3449,7 +3463,7 @@
     <row r="29">
       <c r="A29" s="5" t="inlineStr">
         <is>
-          <t>LMS 2023</t>
+          <t>LMS 2024</t>
         </is>
       </c>
       <c r="B29" s="5" t="inlineStr">
@@ -3463,41 +3477,43 @@
         </is>
       </c>
       <c r="D29" s="5" t="n">
-        <v>501350</v>
+        <v>119214</v>
       </c>
       <c r="E29" s="5" t="inlineStr">
         <is>
-          <t>Tag-ubi Integrated School</t>
+          <t>CAN-IBUANG PS</t>
         </is>
       </c>
       <c r="F29" s="5" t="inlineStr">
         <is>
-          <t>COMPOSTELA</t>
-        </is>
-      </c>
-      <c r="G29" s="5" t="n">
-        <v>5</v>
+          <t>CATMON</t>
+        </is>
+      </c>
+      <c r="G29" s="5" t="inlineStr">
+        <is>
+          <t>5th</t>
+        </is>
       </c>
       <c r="H29" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J29" s="5" t="inlineStr">
         <is>
-          <t>CONSTRUCTION OF 1STY-3CL SCHOOL BUILDING WITH COMMON TOILET WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE AND WATER SYSTEM</t>
+          <t>PROPOSED CONSTRUCTION OF ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF SCHOOL FURNITURE AND WATER SYSTEM (DEEP WELL)</t>
         </is>
       </c>
       <c r="K29" s="5" t="n">
-        <v>9399879.76</v>
+        <v>8027122.46</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>7288932.45</v>
+        <v>7900000</v>
       </c>
       <c r="M29" s="5" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>COMPLETED</t>
         </is>
       </c>
       <c r="N29" s="5" t="n">
@@ -3505,44 +3521,48 @@
       </c>
       <c r="O29" s="5" t="inlineStr">
         <is>
-          <t>25/12/2023</t>
+          <t>29/03/2025</t>
         </is>
       </c>
       <c r="P29" s="5" t="inlineStr">
         <is>
-          <t>25/12/2023</t>
+          <t>29/03/2025</t>
         </is>
       </c>
       <c r="Q29" s="5" t="inlineStr">
         <is>
-          <t>CY 2023 LMS-R7-CEBU</t>
+          <t>CY 2024 BEFF LMS-DepED-R7-Cebu-05</t>
         </is>
       </c>
       <c r="R29" s="5" t="inlineStr">
         <is>
-          <t>CY 2023 LMS-R7-CEBU-05</t>
+          <t>CY 2024 BEFF LMS-DepED-R7-Cebu-05</t>
         </is>
       </c>
       <c r="S29" s="6" t="n">
-        <v>45126</v>
-      </c>
-      <c r="T29" s="6" t="n">
-        <v>45133</v>
+        <v>45602</v>
+      </c>
+      <c r="T29" s="5" t="inlineStr">
+        <is>
+          <t>18/06/2024</t>
+        </is>
       </c>
       <c r="U29" s="6" t="n">
-        <v>45145</v>
-      </c>
-      <c r="V29" s="6" t="n">
-        <v>45155</v>
+        <v>45329</v>
+      </c>
+      <c r="V29" s="5" t="inlineStr">
+        <is>
+          <t>16/08/2024</t>
+        </is>
       </c>
       <c r="W29" s="5" t="inlineStr">
         <is>
-          <t>31/08/2023</t>
+          <t>22/10/2024</t>
         </is>
       </c>
       <c r="X29" s="5" t="inlineStr">
         <is>
-          <t>ANIELTHON CONSTRUCTION AND SUPPLY</t>
+          <t>TRI-BAIRN CONSTRUCTION</t>
         </is>
       </c>
       <c r="Y29" s="5" t="n">
@@ -3563,20 +3583,20 @@
       </c>
       <c r="C30" s="5" t="inlineStr">
         <is>
-          <t>Cebu</t>
+          <t>Talisay City</t>
         </is>
       </c>
       <c r="D30" s="5" t="n">
-        <v>119637</v>
+        <v>119804</v>
       </c>
       <c r="E30" s="5" t="inlineStr">
         <is>
-          <t>TUBOD ES</t>
+          <t>Tapul Elementary School</t>
         </is>
       </c>
       <c r="F30" s="5" t="inlineStr">
         <is>
-          <t>SAN FERNANDO</t>
+          <t>Talisay City</t>
         </is>
       </c>
       <c r="G30" s="5" t="inlineStr">
@@ -3592,67 +3612,55 @@
       </c>
       <c r="J30" s="5" t="inlineStr">
         <is>
-          <t>PROPOSED CONSTRUCTION OF TWO (2) UNITS ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF SCHOOL FURNITURE AND WATER SYSTEM (DEEP WELL)</t>
+          <t>PROPOSED CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, AND WATER SYSTEM</t>
         </is>
       </c>
       <c r="K30" s="5" t="n">
-        <v>14679322.67</v>
+        <v>21184978.14</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>10400000</v>
+        <v>20952888</v>
       </c>
       <c r="M30" s="5" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>COMPLETED</t>
         </is>
       </c>
       <c r="N30" s="5" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="O30" s="5" t="inlineStr">
-        <is>
-          <t>28/04/2025</t>
-        </is>
-      </c>
-      <c r="P30" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="O30" s="6" t="n">
+        <v>45688</v>
+      </c>
+      <c r="P30" s="6" t="n">
+        <v>45688</v>
       </c>
       <c r="Q30" s="5" t="inlineStr">
         <is>
-          <t>CY 2024 BEFF LMS-DepED-R7-Cebu-01</t>
-        </is>
-      </c>
-      <c r="R30" s="5" t="inlineStr">
-        <is>
-          <t>CY 2024 BEFF LMS-DepED-R7-Cebu-01</t>
-        </is>
+          <t>2024-001</t>
+        </is>
+      </c>
+      <c r="R30" s="5" t="n">
+        <v>45436</v>
       </c>
       <c r="S30" s="6" t="n">
-        <v>45602</v>
-      </c>
-      <c r="T30" s="5" t="inlineStr">
-        <is>
-          <t>18/06/2024</t>
-        </is>
+        <v>45379</v>
+      </c>
+      <c r="T30" s="6" t="n">
+        <v>45386</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>45329</v>
-      </c>
-      <c r="V30" s="5" t="inlineStr">
-        <is>
-          <t>16/08/2024</t>
-        </is>
-      </c>
-      <c r="W30" s="5" t="inlineStr">
-        <is>
-          <t>22/10/2024</t>
-        </is>
+        <v>45398</v>
+      </c>
+      <c r="V30" s="6" t="n">
+        <v>45400</v>
+      </c>
+      <c r="W30" s="6" t="n">
+        <v>45449</v>
       </c>
       <c r="X30" s="5" t="inlineStr">
         <is>
-          <t>TRI-BAIRN CONSTRUCTION</t>
+          <t>Quirante Construction Corporation</t>
         </is>
       </c>
       <c r="Y30" s="5" t="n">
@@ -3673,1056 +3681,110 @@
       </c>
       <c r="C31" s="5" t="inlineStr">
         <is>
-          <t>Cebu</t>
+          <t>Toledo City</t>
         </is>
       </c>
       <c r="D31" s="5" t="n">
-        <v>119699</v>
+        <v>120736</v>
       </c>
       <c r="E31" s="5" t="inlineStr">
         <is>
-          <t>LIPTONG ES</t>
+          <t>NEW BUCAO ELEMENTARY SCHOOL</t>
         </is>
       </c>
       <c r="F31" s="5" t="inlineStr">
         <is>
-          <t>SANTANDER</t>
+          <t>TOLEDO</t>
         </is>
       </c>
       <c r="G31" s="5" t="inlineStr">
         <is>
-          <t>2nd</t>
+          <t xml:space="preserve">3rd </t>
         </is>
       </c>
       <c r="H31" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I31" s="5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J31" s="5" t="inlineStr">
         <is>
-          <t>PROPOSED CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF SCHOOL FURNITURE AND WATER SYSTEM (DEEP WELL)</t>
+          <t>PROPOSED CONSTRUCTION OF ONE (1) STOREY - THREE (3) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, AND WATER SYSTEM</t>
         </is>
       </c>
       <c r="K31" s="5" t="n">
-        <v>11508290.01</v>
+        <v>9772031.960000001</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>11393207.11</v>
+        <v>10376058.62</v>
       </c>
       <c r="M31" s="5" t="inlineStr">
         <is>
-          <t>COMPLETED</t>
+          <t>Ongoing</t>
         </is>
       </c>
       <c r="N31" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O31" s="5" t="inlineStr">
-        <is>
-          <t>28/04/2025</t>
-        </is>
+        <v>0.2</v>
+      </c>
+      <c r="O31" s="6" t="n">
+        <v>45865</v>
       </c>
       <c r="P31" s="5" t="inlineStr">
         <is>
-          <t>28/04/2025</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="Q31" s="5" t="inlineStr">
         <is>
-          <t>CY 2024 BEFF LMS-DepED-R7-Cebu-02</t>
+          <t>LMS 2023-R VII-TOLEDO CITY-001</t>
         </is>
       </c>
       <c r="R31" s="5" t="inlineStr">
         <is>
-          <t>CY 2024 BEFF LMS-DepED-R7-Cebu-02</t>
-        </is>
-      </c>
-      <c r="S31" s="6" t="n">
-        <v>45602</v>
+          <t>2024-015</t>
+        </is>
+      </c>
+      <c r="S31" s="5" t="inlineStr">
+        <is>
+          <t>Mar. 21, 2024</t>
+        </is>
       </c>
       <c r="T31" s="5" t="inlineStr">
         <is>
-          <t>18/06/2024</t>
-        </is>
-      </c>
-      <c r="U31" s="6" t="n">
-        <v>45329</v>
+          <t>Mar. 27, 2024</t>
+        </is>
+      </c>
+      <c r="U31" s="5" t="inlineStr">
+        <is>
+          <t>Apr. 8, 2024</t>
+        </is>
       </c>
       <c r="V31" s="5" t="inlineStr">
         <is>
-          <t>16/08/2024</t>
+          <t>Apr. 19, 2024</t>
         </is>
       </c>
       <c r="W31" s="5" t="inlineStr">
         <is>
-          <t>22/10/2024</t>
+          <t>Feb. 27, 2025</t>
         </is>
       </c>
       <c r="X31" s="5" t="inlineStr">
         <is>
-          <t>RT CONSTRUCTION &amp; ENTERPRISES</t>
-        </is>
-      </c>
-      <c r="Y31" s="5" t="n">
-        <v>0</v>
+          <t>Tribairn Construction</t>
+        </is>
+      </c>
+      <c r="Y31" s="5" t="inlineStr">
+        <is>
+          <t>Late issuance of NTP due to road not passable</t>
+        </is>
       </c>
       <c r="Z31" s="7" t="n"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="5" t="inlineStr">
-        <is>
-          <t>LMS 2024</t>
-        </is>
-      </c>
-      <c r="B32" s="5" t="inlineStr">
-        <is>
-          <t>Region VII</t>
-        </is>
-      </c>
-      <c r="C32" s="5" t="inlineStr">
-        <is>
-          <t>Cebu</t>
-        </is>
-      </c>
-      <c r="D32" s="5" t="n">
-        <v>118976</v>
-      </c>
-      <c r="E32" s="5" t="inlineStr">
-        <is>
-          <t>KALUANGAN II</t>
-        </is>
-      </c>
-      <c r="F32" s="5" t="inlineStr">
-        <is>
-          <t>ASTURIAS</t>
-        </is>
-      </c>
-      <c r="G32" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">3rd </t>
-        </is>
-      </c>
-      <c r="H32" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" s="5" t="n">
-        <v>4</v>
-      </c>
-      <c r="J32" s="5" t="inlineStr">
-        <is>
-          <t>PROPOSED CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF SCHOOL FURNITURE AND WATER SYSTEM (DEEP WELL)</t>
-        </is>
-      </c>
-      <c r="K32" s="5" t="n">
-        <v>11508290.01</v>
-      </c>
-      <c r="L32" s="5" t="n">
-        <v>11328208.14</v>
-      </c>
-      <c r="M32" s="5" t="inlineStr">
-        <is>
-          <t>COMPLETED</t>
-        </is>
-      </c>
-      <c r="N32" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O32" s="5" t="inlineStr">
-        <is>
-          <t>28/04/2025</t>
-        </is>
-      </c>
-      <c r="P32" s="5" t="inlineStr">
-        <is>
-          <t>28/04/2025</t>
-        </is>
-      </c>
-      <c r="Q32" s="5" t="inlineStr">
-        <is>
-          <t>CY 2024 BEFF LMS-DepED-R7-Cebu-03</t>
-        </is>
-      </c>
-      <c r="R32" s="5" t="inlineStr">
-        <is>
-          <t>CY 2024 BEFF LMS-DepED-R7-Cebu-03</t>
-        </is>
-      </c>
-      <c r="S32" s="6" t="n">
-        <v>45602</v>
-      </c>
-      <c r="T32" s="5" t="inlineStr">
-        <is>
-          <t>18/06/2024</t>
-        </is>
-      </c>
-      <c r="U32" s="6" t="n">
-        <v>45329</v>
-      </c>
-      <c r="V32" s="5" t="inlineStr">
-        <is>
-          <t>16/08/2024</t>
-        </is>
-      </c>
-      <c r="W32" s="5" t="inlineStr">
-        <is>
-          <t>22/10/2024</t>
-        </is>
-      </c>
-      <c r="X32" s="5" t="inlineStr">
-        <is>
-          <t>ANIELTHON CONSTRUCTION &amp; SUPPLY</t>
-        </is>
-      </c>
-      <c r="Y32" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z32" s="7" t="n"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="5" t="inlineStr">
-        <is>
-          <t>LMS 2024</t>
-        </is>
-      </c>
-      <c r="B33" s="5" t="inlineStr">
-        <is>
-          <t>Region VII</t>
-        </is>
-      </c>
-      <c r="C33" s="5" t="inlineStr">
-        <is>
-          <t>Cebu</t>
-        </is>
-      </c>
-      <c r="D33" s="5" t="n">
-        <v>119435</v>
-      </c>
-      <c r="E33" s="5" t="inlineStr">
-        <is>
-          <t>TARONG ES</t>
-        </is>
-      </c>
-      <c r="F33" s="5" t="inlineStr">
-        <is>
-          <t>MADRIDEJOS</t>
-        </is>
-      </c>
-      <c r="G33" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">4th </t>
-        </is>
-      </c>
-      <c r="H33" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="J33" s="5" t="inlineStr">
-        <is>
-          <t>PROPOSED CONSTRUCTION OF ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF SCHOOL FURNITURE AND WATER SYSTEM (DEEP WELL)</t>
-        </is>
-      </c>
-      <c r="K33" s="5" t="n">
-        <v>8027122.46</v>
-      </c>
-      <c r="L33" s="5" t="n">
-        <v>7907423.97</v>
-      </c>
-      <c r="M33" s="5" t="inlineStr">
-        <is>
-          <t>Ongoing</t>
-        </is>
-      </c>
-      <c r="N33" s="5" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="O33" s="5" t="inlineStr">
-        <is>
-          <t>29/03/2025</t>
-        </is>
-      </c>
-      <c r="P33" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="Q33" s="5" t="inlineStr">
-        <is>
-          <t>CY 2024 BEFF LMS-DepED-R7-Cebu-04</t>
-        </is>
-      </c>
-      <c r="R33" s="5" t="inlineStr">
-        <is>
-          <t>CY 2024 BEFF LMS-DepED-R7-Cebu-04</t>
-        </is>
-      </c>
-      <c r="S33" s="6" t="n">
-        <v>45602</v>
-      </c>
-      <c r="T33" s="5" t="inlineStr">
-        <is>
-          <t>18/06/2024</t>
-        </is>
-      </c>
-      <c r="U33" s="6" t="n">
-        <v>45329</v>
-      </c>
-      <c r="V33" s="5" t="inlineStr">
-        <is>
-          <t>16/08/2024</t>
-        </is>
-      </c>
-      <c r="W33" s="5" t="inlineStr">
-        <is>
-          <t>22/10/2024</t>
-        </is>
-      </c>
-      <c r="X33" s="5" t="inlineStr">
-        <is>
-          <t>ROVILLA CONSTRUCTION</t>
-        </is>
-      </c>
-      <c r="Y33" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z33" s="7" t="n"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="5" t="inlineStr">
-        <is>
-          <t>LMS 2024</t>
-        </is>
-      </c>
-      <c r="B34" s="5" t="inlineStr">
-        <is>
-          <t>Region VII</t>
-        </is>
-      </c>
-      <c r="C34" s="5" t="inlineStr">
-        <is>
-          <t>Cebu</t>
-        </is>
-      </c>
-      <c r="D34" s="5" t="n">
-        <v>119214</v>
-      </c>
-      <c r="E34" s="5" t="inlineStr">
-        <is>
-          <t>CAN-IBUANG PS</t>
-        </is>
-      </c>
-      <c r="F34" s="5" t="inlineStr">
-        <is>
-          <t>CATMON</t>
-        </is>
-      </c>
-      <c r="G34" s="5" t="inlineStr">
-        <is>
-          <t>5th</t>
-        </is>
-      </c>
-      <c r="H34" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="J34" s="5" t="inlineStr">
-        <is>
-          <t>PROPOSED CONSTRUCTION OF ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF SCHOOL FURNITURE AND WATER SYSTEM (DEEP WELL)</t>
-        </is>
-      </c>
-      <c r="K34" s="5" t="n">
-        <v>8027122.46</v>
-      </c>
-      <c r="L34" s="5" t="n">
-        <v>7900000</v>
-      </c>
-      <c r="M34" s="5" t="inlineStr">
-        <is>
-          <t>COMPLETED</t>
-        </is>
-      </c>
-      <c r="N34" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O34" s="5" t="inlineStr">
-        <is>
-          <t>29/03/2025</t>
-        </is>
-      </c>
-      <c r="P34" s="5" t="inlineStr">
-        <is>
-          <t>29/03/2025</t>
-        </is>
-      </c>
-      <c r="Q34" s="5" t="inlineStr">
-        <is>
-          <t>CY 2024 BEFF LMS-DepED-R7-Cebu-05</t>
-        </is>
-      </c>
-      <c r="R34" s="5" t="inlineStr">
-        <is>
-          <t>CY 2024 BEFF LMS-DepED-R7-Cebu-05</t>
-        </is>
-      </c>
-      <c r="S34" s="6" t="n">
-        <v>45602</v>
-      </c>
-      <c r="T34" s="5" t="inlineStr">
-        <is>
-          <t>18/06/2024</t>
-        </is>
-      </c>
-      <c r="U34" s="6" t="n">
-        <v>45329</v>
-      </c>
-      <c r="V34" s="5" t="inlineStr">
-        <is>
-          <t>16/08/2024</t>
-        </is>
-      </c>
-      <c r="W34" s="5" t="inlineStr">
-        <is>
-          <t>22/10/2024</t>
-        </is>
-      </c>
-      <c r="X34" s="5" t="inlineStr">
-        <is>
-          <t>TRI-BAIRN CONSTRUCTION</t>
-        </is>
-      </c>
-      <c r="Y34" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z34" s="7" t="n"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="5" t="inlineStr">
-        <is>
-          <t>LMS 2024</t>
-        </is>
-      </c>
-      <c r="B35" s="5" t="inlineStr">
-        <is>
-          <t>Region VII</t>
-        </is>
-      </c>
-      <c r="C35" s="5" t="inlineStr">
-        <is>
-          <t>Negros Oriental</t>
-        </is>
-      </c>
-      <c r="D35" s="5" t="n">
-        <v>120293</v>
-      </c>
-      <c r="E35" s="5" t="inlineStr">
-        <is>
-          <t>Buto Primary School</t>
-        </is>
-      </c>
-      <c r="F35" s="5" t="inlineStr">
-        <is>
-          <t>JIMALALUD</t>
-        </is>
-      </c>
-      <c r="G35" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1st </t>
-        </is>
-      </c>
-      <c r="H35" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" s="5" t="n">
-        <v>4</v>
-      </c>
-      <c r="J35" s="5" t="inlineStr">
-        <is>
-          <t>PROPOSED CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
-        </is>
-      </c>
-      <c r="K35" s="5" t="n">
-        <v>21640739.3</v>
-      </c>
-      <c r="L35" s="5" t="n">
-        <v>18676898.11</v>
-      </c>
-      <c r="M35" s="5" t="inlineStr">
-        <is>
-          <t>Ongoing</t>
-        </is>
-      </c>
-      <c r="N35" s="5" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="O35" s="6" t="n">
-        <v>45867</v>
-      </c>
-      <c r="P35" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="Q35" s="5" t="inlineStr">
-        <is>
-          <t>ITB 2023-11-145</t>
-        </is>
-      </c>
-      <c r="R35" s="5" t="inlineStr">
-        <is>
-          <t>LMS202405023</t>
-        </is>
-      </c>
-      <c r="S35" s="6" t="n">
-        <v>45239</v>
-      </c>
-      <c r="T35" s="6" t="n">
-        <v>45246</v>
-      </c>
-      <c r="U35" s="6" t="n">
-        <v>45258</v>
-      </c>
-      <c r="V35" s="6" t="n">
-        <v>45264</v>
-      </c>
-      <c r="W35" s="6" t="n">
-        <v>45434</v>
-      </c>
-      <c r="X35" s="5" t="inlineStr">
-        <is>
-          <t>TrinityCAD Corporation</t>
-        </is>
-      </c>
-      <c r="Y35" s="5" t="inlineStr">
-        <is>
-          <t>With approved time extension due to access road issue during rainy days, unworkable weather condition, with change order to cover other essential items(refer to Variation order). Double hauling</t>
-        </is>
-      </c>
-      <c r="Z35" s="7" t="n"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="5" t="inlineStr">
-        <is>
-          <t>LMS 2024</t>
-        </is>
-      </c>
-      <c r="B36" s="5" t="inlineStr">
-        <is>
-          <t>Region VII</t>
-        </is>
-      </c>
-      <c r="C36" s="5" t="inlineStr">
-        <is>
-          <t>Negros Oriental</t>
-        </is>
-      </c>
-      <c r="D36" s="5" t="n">
-        <v>120027</v>
-      </c>
-      <c r="E36" s="5" t="inlineStr">
-        <is>
-          <t>PANUSUAN ELEMENTARY SCHOOL</t>
-        </is>
-      </c>
-      <c r="F36" s="5" t="inlineStr">
-        <is>
-          <t>AMLAN</t>
-        </is>
-      </c>
-      <c r="G36" s="5" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="H36" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="J36" s="5" t="inlineStr">
-        <is>
-          <t>PROPOSED CONSTRUCTION OF ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
-        </is>
-      </c>
-      <c r="K36" s="5" t="n">
-        <v>15703660.79</v>
-      </c>
-      <c r="L36" s="5" t="n">
-        <v>12964000.46</v>
-      </c>
-      <c r="M36" s="5" t="inlineStr">
-        <is>
-          <t>COMPLETED</t>
-        </is>
-      </c>
-      <c r="N36" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O36" s="6" t="n">
-        <v>45702</v>
-      </c>
-      <c r="P36" s="6" t="n">
-        <v>45702</v>
-      </c>
-      <c r="Q36" s="5" t="inlineStr">
-        <is>
-          <t>ITB 2023-11-146</t>
-        </is>
-      </c>
-      <c r="R36" s="5" t="inlineStr">
-        <is>
-          <t>LMS202405024</t>
-        </is>
-      </c>
-      <c r="S36" s="6" t="n">
-        <v>45239</v>
-      </c>
-      <c r="T36" s="6" t="n">
-        <v>45246</v>
-      </c>
-      <c r="U36" s="6" t="n">
-        <v>45258</v>
-      </c>
-      <c r="V36" s="6" t="n">
-        <v>45264</v>
-      </c>
-      <c r="W36" s="6" t="n">
-        <v>45434</v>
-      </c>
-      <c r="X36" s="5" t="inlineStr">
-        <is>
-          <t>TrinityCAD Corporation</t>
-        </is>
-      </c>
-      <c r="Y36" s="5" t="inlineStr">
-        <is>
-          <t>With time extension due to variation orders, cutting of trees permit and unworkable weather condition</t>
-        </is>
-      </c>
-      <c r="Z36" s="7" t="n"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="5" t="inlineStr">
-        <is>
-          <t>LMS 2024</t>
-        </is>
-      </c>
-      <c r="B37" s="5" t="inlineStr">
-        <is>
-          <t>Region VII</t>
-        </is>
-      </c>
-      <c r="C37" s="5" t="inlineStr">
-        <is>
-          <t>Negros Oriental</t>
-        </is>
-      </c>
-      <c r="D37" s="5" t="n">
-        <v>120618</v>
-      </c>
-      <c r="E37" s="5" t="inlineStr">
-        <is>
-          <t>Nasuji Elementary School</t>
-        </is>
-      </c>
-      <c r="F37" s="5" t="inlineStr">
-        <is>
-          <t>VALENCIA (LUZURRIAGA)</t>
-        </is>
-      </c>
-      <c r="G37" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">3rd </t>
-        </is>
-      </c>
-      <c r="H37" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" s="5" t="n">
-        <v>4</v>
-      </c>
-      <c r="J37" s="5" t="inlineStr">
-        <is>
-          <t>PROPOSED CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
-        </is>
-      </c>
-      <c r="K37" s="5" t="n">
-        <v>22517074.36</v>
-      </c>
-      <c r="L37" s="5" t="n">
-        <v>19373377.44</v>
-      </c>
-      <c r="M37" s="5" t="inlineStr">
-        <is>
-          <t>COMPLETED</t>
-        </is>
-      </c>
-      <c r="N37" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O37" s="6" t="n">
-        <v>45792</v>
-      </c>
-      <c r="P37" s="6" t="n">
-        <v>45790</v>
-      </c>
-      <c r="Q37" s="5" t="inlineStr">
-        <is>
-          <t>ITB 2023-11-147</t>
-        </is>
-      </c>
-      <c r="R37" s="5" t="inlineStr">
-        <is>
-          <t>LMS202405025</t>
-        </is>
-      </c>
-      <c r="S37" s="6" t="n">
-        <v>45239</v>
-      </c>
-      <c r="T37" s="6" t="n">
-        <v>45246</v>
-      </c>
-      <c r="U37" s="6" t="n">
-        <v>45258</v>
-      </c>
-      <c r="V37" s="6" t="n">
-        <v>45264</v>
-      </c>
-      <c r="W37" s="6" t="n">
-        <v>45434</v>
-      </c>
-      <c r="X37" s="5" t="inlineStr">
-        <is>
-          <t>TrinityCAD Corporation</t>
-        </is>
-      </c>
-      <c r="Y37" s="5" t="inlineStr">
-        <is>
-          <t>With time extension</t>
-        </is>
-      </c>
-      <c r="Z37" s="7" t="n"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="5" t="inlineStr">
-        <is>
-          <t>LMS 2024</t>
-        </is>
-      </c>
-      <c r="B38" s="5" t="inlineStr">
-        <is>
-          <t>Region VII</t>
-        </is>
-      </c>
-      <c r="C38" s="5" t="inlineStr">
-        <is>
-          <t>Siquijor</t>
-        </is>
-      </c>
-      <c r="D38" s="5" t="n">
-        <v>120662</v>
-      </c>
-      <c r="E38" s="5" t="inlineStr">
-        <is>
-          <t>New Corregidor Elementary School</t>
-        </is>
-      </c>
-      <c r="F38" s="5" t="inlineStr">
-        <is>
-          <t>LARENA</t>
-        </is>
-      </c>
-      <c r="G38" s="5" t="inlineStr">
-        <is>
-          <t>Lone</t>
-        </is>
-      </c>
-      <c r="H38" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="J38" s="5" t="inlineStr">
-        <is>
-          <t>PROPOSED CONSTRUCTION OF ONE (1) STOREY - THREE (3) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE</t>
-        </is>
-      </c>
-      <c r="K38" s="5" t="n">
-        <v>8295101.98</v>
-      </c>
-      <c r="L38" s="5" t="n">
-        <v>7573374.84</v>
-      </c>
-      <c r="M38" s="5" t="inlineStr">
-        <is>
-          <t>Ongoing</t>
-        </is>
-      </c>
-      <c r="N38" s="5" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="O38" s="6" t="n">
-        <v>45607</v>
-      </c>
-      <c r="P38" s="6" t="n">
-        <v>45807</v>
-      </c>
-      <c r="Q38" s="5" t="n">
-        <v>10336667</v>
-      </c>
-      <c r="R38" s="5" t="inlineStr">
-        <is>
-          <t>2023-89</t>
-        </is>
-      </c>
-      <c r="S38" s="6" t="n">
-        <v>45252</v>
-      </c>
-      <c r="T38" s="6" t="n">
-        <v>45259</v>
-      </c>
-      <c r="U38" s="6" t="n">
-        <v>45271</v>
-      </c>
-      <c r="V38" s="6" t="n">
-        <v>45272</v>
-      </c>
-      <c r="W38" s="6" t="n">
-        <v>45428</v>
-      </c>
-      <c r="X38" s="5" t="inlineStr">
-        <is>
-          <t>Nale Construction</t>
-        </is>
-      </c>
-      <c r="Y38" s="5" t="inlineStr">
-        <is>
-          <t>with Time Extension. Revised completion date December 31, 2024</t>
-        </is>
-      </c>
-      <c r="Z38" s="7" t="n"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="5" t="inlineStr">
-        <is>
-          <t>LMS 2024</t>
-        </is>
-      </c>
-      <c r="B39" s="5" t="inlineStr">
-        <is>
-          <t>Region VII</t>
-        </is>
-      </c>
-      <c r="C39" s="5" t="inlineStr">
-        <is>
-          <t>Talisay City</t>
-        </is>
-      </c>
-      <c r="D39" s="5" t="n">
-        <v>119804</v>
-      </c>
-      <c r="E39" s="5" t="inlineStr">
-        <is>
-          <t>Tapul Elementary School</t>
-        </is>
-      </c>
-      <c r="F39" s="5" t="inlineStr">
-        <is>
-          <t>Talisay City</t>
-        </is>
-      </c>
-      <c r="G39" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1st </t>
-        </is>
-      </c>
-      <c r="H39" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" s="5" t="n">
-        <v>4</v>
-      </c>
-      <c r="J39" s="5" t="inlineStr">
-        <is>
-          <t>PROPOSED CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, AND WATER SYSTEM</t>
-        </is>
-      </c>
-      <c r="K39" s="5" t="n">
-        <v>21184978.14</v>
-      </c>
-      <c r="L39" s="5" t="n">
-        <v>20952888</v>
-      </c>
-      <c r="M39" s="5" t="inlineStr">
-        <is>
-          <t>COMPLETED</t>
-        </is>
-      </c>
-      <c r="N39" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O39" s="6" t="n">
-        <v>45688</v>
-      </c>
-      <c r="P39" s="6" t="n">
-        <v>45688</v>
-      </c>
-      <c r="Q39" s="5" t="inlineStr">
-        <is>
-          <t>2024-001</t>
-        </is>
-      </c>
-      <c r="R39" s="5" t="n">
-        <v>45436</v>
-      </c>
-      <c r="S39" s="6" t="n">
-        <v>45379</v>
-      </c>
-      <c r="T39" s="6" t="n">
-        <v>45386</v>
-      </c>
-      <c r="U39" s="6" t="n">
-        <v>45398</v>
-      </c>
-      <c r="V39" s="6" t="n">
-        <v>45400</v>
-      </c>
-      <c r="W39" s="6" t="n">
-        <v>45449</v>
-      </c>
-      <c r="X39" s="5" t="inlineStr">
-        <is>
-          <t>Quirante Construction Corporation</t>
-        </is>
-      </c>
-      <c r="Y39" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z39" s="7" t="n"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="5" t="inlineStr">
-        <is>
-          <t>LMS 2024</t>
-        </is>
-      </c>
-      <c r="B40" s="5" t="inlineStr">
-        <is>
-          <t>Region VII</t>
-        </is>
-      </c>
-      <c r="C40" s="5" t="inlineStr">
-        <is>
-          <t>Toledo City</t>
-        </is>
-      </c>
-      <c r="D40" s="5" t="n">
-        <v>120736</v>
-      </c>
-      <c r="E40" s="5" t="inlineStr">
-        <is>
-          <t>NEW BUCAO ELEMENTARY SCHOOL</t>
-        </is>
-      </c>
-      <c r="F40" s="5" t="inlineStr">
-        <is>
-          <t>TOLEDO</t>
-        </is>
-      </c>
-      <c r="G40" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">3rd </t>
-        </is>
-      </c>
-      <c r="H40" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="J40" s="5" t="inlineStr">
-        <is>
-          <t>PROPOSED CONSTRUCTION OF ONE (1) STOREY - THREE (3) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, AND WATER SYSTEM</t>
-        </is>
-      </c>
-      <c r="K40" s="5" t="n">
-        <v>9772031.960000001</v>
-      </c>
-      <c r="L40" s="5" t="n">
-        <v>10376058.62</v>
-      </c>
-      <c r="M40" s="5" t="inlineStr">
-        <is>
-          <t>Ongoing</t>
-        </is>
-      </c>
-      <c r="N40" s="5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="O40" s="6" t="n">
-        <v>45865</v>
-      </c>
-      <c r="P40" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="Q40" s="5" t="inlineStr">
-        <is>
-          <t>LMS 2023-R VII-TOLEDO CITY-001</t>
-        </is>
-      </c>
-      <c r="R40" s="5" t="inlineStr">
-        <is>
-          <t>2024-015</t>
-        </is>
-      </c>
-      <c r="S40" s="5" t="inlineStr">
-        <is>
-          <t>Mar. 21, 2024</t>
-        </is>
-      </c>
-      <c r="T40" s="5" t="inlineStr">
-        <is>
-          <t>Mar. 27, 2024</t>
-        </is>
-      </c>
-      <c r="U40" s="5" t="inlineStr">
-        <is>
-          <t>Apr. 8, 2024</t>
-        </is>
-      </c>
-      <c r="V40" s="5" t="inlineStr">
-        <is>
-          <t>Apr. 19, 2024</t>
-        </is>
-      </c>
-      <c r="W40" s="5" t="inlineStr">
-        <is>
-          <t>Feb. 27, 2025</t>
-        </is>
-      </c>
-      <c r="X40" s="5" t="inlineStr">
-        <is>
-          <t>Tribairn Construction</t>
-        </is>
-      </c>
-      <c r="Y40" s="5" t="inlineStr">
-        <is>
-          <t>Late issuance of NTP due to road not passable</t>
-        </is>
-      </c>
-      <c r="Z40" s="7" t="n"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation sqref="Z2:Z40" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="Z2:Z31" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=DropdownOptions!$A$1:$A$7</formula1>
     </dataValidation>
   </dataValidations>

--- a/Filtered_By_Region/Region VII/Region VII_LMS.xlsx
+++ b/Filtered_By_Region/Region VII/Region VII_LMS.xlsx
@@ -444,7 +444,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z31"/>
+  <dimension ref="A1:AA31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -453,239 +453,243 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="10" customWidth="1" min="1" max="1"/>
-    <col width="12" customWidth="1" min="2" max="2"/>
-    <col width="14" customWidth="1" min="3" max="3"/>
-    <col width="11" customWidth="1" min="4" max="4"/>
-    <col width="44" customWidth="1" min="5" max="5"/>
-    <col width="17" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="14" customWidth="1" min="8" max="8"/>
-    <col width="11" customWidth="1" min="9" max="9"/>
-    <col width="230" customWidth="1" min="10" max="10"/>
-    <col width="20" customWidth="1" min="11" max="11"/>
-    <col width="17" customWidth="1" min="12" max="12"/>
-    <col width="11" customWidth="1" min="13" max="13"/>
-    <col width="26" customWidth="1" min="14" max="14"/>
+    <col width="23" customWidth="1" min="1" max="1"/>
+    <col width="10" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="11" customWidth="1" min="5" max="5"/>
+    <col width="44" customWidth="1" min="6" max="6"/>
+    <col width="17" customWidth="1" min="7" max="7"/>
+    <col width="6" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="11" customWidth="1" min="10" max="10"/>
+    <col width="230" customWidth="1" min="11" max="11"/>
+    <col width="20" customWidth="1" min="12" max="12"/>
+    <col width="17" customWidth="1" min="13" max="13"/>
+    <col width="11" customWidth="1" min="14" max="14"/>
     <col width="26" customWidth="1" min="15" max="15"/>
-    <col width="27" customWidth="1" min="16" max="16"/>
-    <col width="35" customWidth="1" min="17" max="17"/>
+    <col width="26" customWidth="1" min="16" max="16"/>
+    <col width="27" customWidth="1" min="17" max="17"/>
     <col width="35" customWidth="1" min="18" max="18"/>
-    <col width="31" customWidth="1" min="19" max="19"/>
-    <col width="27" customWidth="1" min="20" max="20"/>
-    <col width="21" customWidth="1" min="21" max="21"/>
-    <col width="33" customWidth="1" min="22" max="22"/>
-    <col width="31" customWidth="1" min="23" max="23"/>
-    <col width="49" customWidth="1" min="24" max="24"/>
-    <col width="92" customWidth="1" min="25" max="25"/>
-    <col width="28" customWidth="1" min="26" max="26"/>
+    <col width="35" customWidth="1" min="19" max="19"/>
+    <col width="31" customWidth="1" min="20" max="20"/>
+    <col width="27" customWidth="1" min="21" max="21"/>
+    <col width="21" customWidth="1" min="22" max="22"/>
+    <col width="33" customWidth="1" min="23" max="23"/>
+    <col width="31" customWidth="1" min="24" max="24"/>
+    <col width="49" customWidth="1" min="25" max="25"/>
+    <col width="92" customWidth="1" min="26" max="26"/>
+    <col width="28" customWidth="1" min="27" max="27"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
+          <t>INDEX (DO NOT MODIFY)</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
           <t>CATEGORY</t>
         </is>
       </c>
-      <c r="B1" s="3" t="inlineStr">
-        <is>
-          <t>Region</t>
-        </is>
-      </c>
       <c r="C1" s="3" t="inlineStr">
         <is>
+          <t>REGION</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
           <t>DIVISION</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>SCHOOL ID</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>SCHOOL NAME</t>
         </is>
       </c>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>MUNICIPALITY</t>
         </is>
       </c>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>LD</t>
         </is>
       </c>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>NO. OF SITES</t>
         </is>
       </c>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>NO. OF CL</t>
         </is>
       </c>
-      <c r="J1" s="3" t="inlineStr">
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>SCOPE OF WORK</t>
         </is>
       </c>
-      <c r="K1" s="3" t="inlineStr">
+      <c r="L1" s="3" t="inlineStr">
         <is>
           <t>PROJECT ALLOCATION</t>
         </is>
       </c>
-      <c r="L1" s="3" t="inlineStr">
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>CONTRACT AMOUNT</t>
         </is>
       </c>
-      <c r="M1" s="3" t="inlineStr">
+      <c r="N1" s="3" t="inlineStr">
         <is>
           <t>STATUS</t>
         </is>
       </c>
-      <c r="N1" s="3" t="inlineStr">
+      <c r="O1" s="3" t="inlineStr">
         <is>
           <t>PERCENTAGE OF COMPLETION</t>
         </is>
       </c>
-      <c r="O1" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Target Completion Date </t>
-        </is>
-      </c>
       <c r="P1" s="3" t="inlineStr">
         <is>
-          <t>Actual Date of Completion</t>
+          <t xml:space="preserve"> TARGET COMPLETION DATE </t>
         </is>
       </c>
       <c r="Q1" s="3" t="inlineStr">
         <is>
-          <t>Project ID</t>
+          <t>ACTUAL DATE OF COMPLETION</t>
         </is>
       </c>
       <c r="R1" s="3" t="inlineStr">
         <is>
-          <t>Contract ID</t>
+          <t>PROJECT ID</t>
         </is>
       </c>
       <c r="S1" s="3" t="inlineStr">
         <is>
-          <t>Issuance of Invitation to Bid</t>
+          <t>CONTRACT ID</t>
         </is>
       </c>
       <c r="T1" s="3" t="inlineStr">
         <is>
-          <t>Pre-Submission Conference</t>
+          <t>ISSUANCE OF INVITATION TO BID</t>
         </is>
       </c>
       <c r="U1" s="3" t="inlineStr">
         <is>
-          <t>Bid Opening</t>
+          <t>PRE-SUBMISSION CONFERENCE</t>
         </is>
       </c>
       <c r="V1" s="3" t="inlineStr">
         <is>
-          <t>Issuance of Resolution to Award</t>
+          <t>BID OPENING</t>
         </is>
       </c>
       <c r="W1" s="3" t="inlineStr">
         <is>
-          <t>Issuance of Notice to Proceed</t>
+          <t>ISSUANCE OF RESOLUTION TO AWARD</t>
         </is>
       </c>
       <c r="X1" s="3" t="inlineStr">
         <is>
-          <t>Name of Contractor</t>
+          <t>ISSUANCE OF NOTICE TO PROCEED</t>
         </is>
       </c>
       <c r="Y1" s="3" t="inlineStr">
         <is>
-          <t>Other Remarks</t>
-        </is>
-      </c>
-      <c r="Z1" s="4" t="inlineStr">
+          <t>NAME OF CONTRACTOR</t>
+        </is>
+      </c>
+      <c r="Z1" s="3" t="inlineStr">
+        <is>
+          <t>OTHER REMARKS</t>
+        </is>
+      </c>
+      <c r="AA1" s="4" t="inlineStr">
         <is>
           <t>Status as of July 11, 2025</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="5" t="inlineStr">
+      <c r="A2" s="5" t="n">
+        <v>66</v>
+      </c>
+      <c r="B2" s="5" t="inlineStr">
         <is>
           <t>LMS 2020</t>
         </is>
       </c>
-      <c r="B2" s="5" t="inlineStr">
+      <c r="C2" s="5" t="inlineStr">
         <is>
           <t>Region VII</t>
         </is>
       </c>
-      <c r="C2" s="5" t="inlineStr">
+      <c r="D2" s="5" t="inlineStr">
         <is>
           <t>Bohol</t>
         </is>
       </c>
-      <c r="D2" s="5" t="n">
+      <c r="E2" s="5" t="n">
         <v>300519</v>
       </c>
-      <c r="E2" s="5" t="inlineStr">
+      <c r="F2" s="5" t="inlineStr">
         <is>
           <t>Mahanay High School</t>
         </is>
       </c>
-      <c r="F2" s="5" t="inlineStr">
+      <c r="G2" s="5" t="inlineStr">
         <is>
           <t>TALIBON</t>
         </is>
       </c>
-      <c r="G2" s="5" t="n">
+      <c r="H2" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H2" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I2" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J2" s="5" t="inlineStr">
+      <c r="K2" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY -TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K2" s="5" t="n">
+      <c r="L2" s="5" t="n">
         <v>9750782.822988</v>
       </c>
-      <c r="L2" s="5" t="n">
+      <c r="M2" s="5" t="n">
         <v>7050000</v>
       </c>
-      <c r="M2" s="5" t="inlineStr">
+      <c r="N2" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N2" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O2" s="6" t="n">
+      <c r="O2" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P2" s="6" t="n">
         <v>44637</v>
       </c>
-      <c r="P2" s="6" t="n">
+      <c r="Q2" s="6" t="n">
         <v>44778</v>
       </c>
-      <c r="Q2" s="5" t="n">
-        <v>0</v>
-      </c>
       <c r="R2" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="S2" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
+      <c r="S2" s="5" t="n">
+        <v>0</v>
       </c>
       <c r="T2" s="5" t="inlineStr">
         <is>
@@ -709,94 +713,97 @@
       </c>
       <c r="X2" s="5" t="inlineStr">
         <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="Y2" s="5" t="inlineStr">
+        <is>
           <t>Inabanga Drilling Conts Steel Fab and Gen Mdse</t>
         </is>
       </c>
-      <c r="Y2" s="5" t="inlineStr">
+      <c r="Z2" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">Request Extension due to destruction of port due to Typhoon Odette(not ganted by the BAC)
 </t>
         </is>
       </c>
-      <c r="Z2" s="7" t="n"/>
+      <c r="AA2" s="7" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="inlineStr">
+      <c r="A3" s="5" t="n">
+        <v>159</v>
+      </c>
+      <c r="B3" s="5" t="inlineStr">
         <is>
           <t>LMS 2021</t>
         </is>
       </c>
-      <c r="B3" s="5" t="inlineStr">
+      <c r="C3" s="5" t="inlineStr">
         <is>
           <t>Region VII</t>
         </is>
       </c>
-      <c r="C3" s="5" t="inlineStr">
+      <c r="D3" s="5" t="inlineStr">
         <is>
           <t>Bogo City</t>
         </is>
       </c>
-      <c r="D3" s="5" t="n">
+      <c r="E3" s="5" t="n">
         <v>119105</v>
       </c>
-      <c r="E3" s="5" t="inlineStr">
+      <c r="F3" s="5" t="inlineStr">
         <is>
           <t>Anonang Norte ES</t>
         </is>
       </c>
-      <c r="F3" s="5" t="inlineStr">
+      <c r="G3" s="5" t="inlineStr">
         <is>
           <t>CITY OF BOGO</t>
         </is>
       </c>
-      <c r="G3" s="5" t="n">
+      <c r="H3" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="H3" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J3" s="5" t="inlineStr">
+      <c r="K3" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve"> CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITHOUT TOILET) WITH PROVISION OF RAINWATER COLLECTOR, WATER AND SANITATION FACILITIES (4 SEATER), SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K3" s="5" t="n">
+      <c r="L3" s="5" t="n">
         <v>17588188.9435</v>
       </c>
-      <c r="L3" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" s="5" t="inlineStr">
+      <c r="M3" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="N3" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O3" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
+      <c r="O3" s="5" t="n">
+        <v>1</v>
       </c>
       <c r="P3" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="Q3" s="5" t="n">
-        <v>0</v>
+      <c r="Q3" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
       </c>
       <c r="R3" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="S3" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
+      <c r="S3" s="5" t="n">
+        <v>0</v>
       </c>
       <c r="T3" s="5" t="inlineStr">
         <is>
@@ -818,91 +825,94 @@
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="X3" s="5" t="n">
-        <v>0</v>
+      <c r="X3" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
       </c>
       <c r="Y3" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="Z3" s="7" t="n"/>
+      <c r="Z3" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="7" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="5" t="inlineStr">
+      <c r="A4" s="5" t="n">
+        <v>160</v>
+      </c>
+      <c r="B4" s="5" t="inlineStr">
         <is>
           <t>LMS 2021</t>
         </is>
       </c>
-      <c r="B4" s="5" t="inlineStr">
+      <c r="C4" s="5" t="inlineStr">
         <is>
           <t>Region VII</t>
         </is>
       </c>
-      <c r="C4" s="5" t="inlineStr">
+      <c r="D4" s="5" t="inlineStr">
         <is>
           <t>Bohol</t>
         </is>
       </c>
-      <c r="D4" s="5" t="n">
+      <c r="E4" s="5" t="n">
         <v>117974</v>
       </c>
-      <c r="E4" s="5" t="inlineStr">
+      <c r="F4" s="5" t="inlineStr">
         <is>
           <t>Cansibuan PS</t>
         </is>
       </c>
-      <c r="F4" s="5" t="inlineStr">
+      <c r="G4" s="5" t="inlineStr">
         <is>
           <t>ANTEQUERA</t>
         </is>
       </c>
-      <c r="G4" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="H4" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J4" s="5" t="inlineStr">
+      <c r="K4" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve"> CONSTRUCTION OF ONE (1) STOREY - THREE (3) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR AND  SCHOOL FURNITURE</t>
         </is>
       </c>
-      <c r="K4" s="5" t="n">
+      <c r="L4" s="5" t="n">
         <v>8051837.57</v>
       </c>
-      <c r="L4" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" s="5" t="inlineStr">
+      <c r="M4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="N4" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O4" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
+      <c r="O4" s="5" t="n">
+        <v>1</v>
       </c>
       <c r="P4" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="Q4" s="5" t="n">
-        <v>0</v>
+      <c r="Q4" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
       </c>
       <c r="R4" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="S4" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
+      <c r="S4" s="5" t="n">
+        <v>0</v>
       </c>
       <c r="T4" s="5" t="inlineStr">
         <is>
@@ -924,93 +934,96 @@
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="X4" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="5" t="inlineStr">
+      <c r="X4" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="Y4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="5" t="inlineStr">
         <is>
           <t>inaugurated (August)</t>
         </is>
       </c>
-      <c r="Z4" s="7" t="n"/>
+      <c r="AA4" s="7" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="5" t="inlineStr">
+      <c r="A5" s="5" t="n">
+        <v>161</v>
+      </c>
+      <c r="B5" s="5" t="inlineStr">
         <is>
           <t>LMS 2021</t>
         </is>
       </c>
-      <c r="B5" s="5" t="inlineStr">
+      <c r="C5" s="5" t="inlineStr">
         <is>
           <t>Region VII</t>
         </is>
       </c>
-      <c r="C5" s="5" t="inlineStr">
+      <c r="D5" s="5" t="inlineStr">
         <is>
           <t>Bohol</t>
         </is>
       </c>
-      <c r="D5" s="5" t="n">
+      <c r="E5" s="5" t="n">
         <v>118473</v>
       </c>
-      <c r="E5" s="5" t="inlineStr">
+      <c r="F5" s="5" t="inlineStr">
         <is>
           <t>Biasong ES</t>
         </is>
       </c>
-      <c r="F5" s="5" t="inlineStr">
+      <c r="G5" s="5" t="inlineStr">
         <is>
           <t>LOON</t>
         </is>
       </c>
-      <c r="G5" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="H5" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I5" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J5" s="5" t="inlineStr">
+      <c r="K5" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE</t>
         </is>
       </c>
-      <c r="K5" s="5" t="n">
+      <c r="L5" s="5" t="n">
         <v>9532846.1644</v>
       </c>
-      <c r="L5" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" s="5" t="inlineStr">
+      <c r="M5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="N5" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O5" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
+      <c r="O5" s="5" t="n">
+        <v>1</v>
       </c>
       <c r="P5" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="Q5" s="5" t="n">
-        <v>0</v>
+      <c r="Q5" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
       </c>
       <c r="R5" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="S5" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
+      <c r="S5" s="5" t="n">
+        <v>0</v>
       </c>
       <c r="T5" s="5" t="inlineStr">
         <is>
@@ -1032,93 +1045,96 @@
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="X5" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="5" t="inlineStr">
+      <c r="X5" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="Y5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="5" t="inlineStr">
         <is>
           <t>inaugurated (August)</t>
         </is>
       </c>
-      <c r="Z5" s="7" t="n"/>
+      <c r="AA5" s="7" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="5" t="inlineStr">
+      <c r="A6" s="5" t="n">
+        <v>162</v>
+      </c>
+      <c r="B6" s="5" t="inlineStr">
         <is>
           <t>LMS 2021</t>
         </is>
       </c>
-      <c r="B6" s="5" t="inlineStr">
+      <c r="C6" s="5" t="inlineStr">
         <is>
           <t>Region VII</t>
         </is>
       </c>
-      <c r="C6" s="5" t="inlineStr">
+      <c r="D6" s="5" t="inlineStr">
         <is>
           <t>Bohol</t>
         </is>
       </c>
-      <c r="D6" s="5" t="n">
+      <c r="E6" s="5" t="n">
         <v>118780</v>
       </c>
-      <c r="E6" s="5" t="inlineStr">
+      <c r="F6" s="5" t="inlineStr">
         <is>
           <t>Carmen Mellijor PS</t>
         </is>
       </c>
-      <c r="F6" s="5" t="inlineStr">
+      <c r="G6" s="5" t="inlineStr">
         <is>
           <t>TUBIGON</t>
         </is>
       </c>
-      <c r="G6" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="H6" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I6" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J6" s="5" t="inlineStr">
+      <c r="K6" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve"> CONSTRUCTION OF  ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR AND SCHOOL FURNITURE</t>
         </is>
       </c>
-      <c r="K6" s="5" t="n">
+      <c r="L6" s="5" t="n">
         <v>6286948.88</v>
       </c>
-      <c r="L6" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" s="5" t="inlineStr">
+      <c r="M6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="N6" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
+      <c r="O6" s="5" t="n">
+        <v>0</v>
       </c>
       <c r="P6" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="Q6" s="5" t="n">
-        <v>0</v>
+      <c r="Q6" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
       </c>
       <c r="R6" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="S6" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
+      <c r="S6" s="5" t="n">
+        <v>0</v>
       </c>
       <c r="T6" s="5" t="inlineStr">
         <is>
@@ -1140,93 +1156,96 @@
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="X6" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="5" t="inlineStr">
+      <c r="X6" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="Y6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="5" t="inlineStr">
         <is>
           <t>Site issues</t>
         </is>
       </c>
-      <c r="Z6" s="7" t="n"/>
+      <c r="AA6" s="7" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="5" t="inlineStr">
+      <c r="A7" s="5" t="n">
+        <v>163</v>
+      </c>
+      <c r="B7" s="5" t="inlineStr">
         <is>
           <t>LMS 2021</t>
         </is>
       </c>
-      <c r="B7" s="5" t="inlineStr">
+      <c r="C7" s="5" t="inlineStr">
         <is>
           <t>Region VII</t>
         </is>
       </c>
-      <c r="C7" s="5" t="inlineStr">
+      <c r="D7" s="5" t="inlineStr">
         <is>
           <t>Bohol</t>
         </is>
       </c>
-      <c r="D7" s="5" t="n">
+      <c r="E7" s="5" t="n">
         <v>118349</v>
       </c>
-      <c r="E7" s="5" t="inlineStr">
+      <c r="F7" s="5" t="inlineStr">
         <is>
           <t>Biabas ES</t>
         </is>
       </c>
-      <c r="F7" s="5" t="inlineStr">
+      <c r="G7" s="5" t="inlineStr">
         <is>
           <t>GUINDULMAN</t>
         </is>
       </c>
-      <c r="G7" s="5" t="n">
+      <c r="H7" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="H7" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I7" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J7" s="5" t="inlineStr">
+      <c r="K7" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve"> CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE</t>
         </is>
       </c>
-      <c r="K7" s="5" t="n">
+      <c r="L7" s="5" t="n">
         <v>9289481.369999999</v>
       </c>
-      <c r="L7" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" s="5" t="inlineStr">
+      <c r="M7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="N7" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O7" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
+      <c r="O7" s="5" t="n">
+        <v>1</v>
       </c>
       <c r="P7" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="Q7" s="5" t="n">
-        <v>0</v>
+      <c r="Q7" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
       </c>
       <c r="R7" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="S7" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
+      <c r="S7" s="5" t="n">
+        <v>0</v>
       </c>
       <c r="T7" s="5" t="inlineStr">
         <is>
@@ -1248,91 +1267,94 @@
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="X7" s="5" t="n">
-        <v>0</v>
+      <c r="X7" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
       </c>
       <c r="Y7" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="Z7" s="7" t="n"/>
+      <c r="Z7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="7" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="5" t="inlineStr">
+      <c r="A8" s="5" t="n">
+        <v>164</v>
+      </c>
+      <c r="B8" s="5" t="inlineStr">
         <is>
           <t>LMS 2021</t>
         </is>
       </c>
-      <c r="B8" s="5" t="inlineStr">
+      <c r="C8" s="5" t="inlineStr">
         <is>
           <t>Region VII</t>
         </is>
       </c>
-      <c r="C8" s="5" t="inlineStr">
+      <c r="D8" s="5" t="inlineStr">
         <is>
           <t>Carcar City</t>
         </is>
       </c>
-      <c r="D8" s="5" t="n">
+      <c r="E8" s="5" t="n">
         <v>119157</v>
       </c>
-      <c r="E8" s="5" t="inlineStr">
+      <c r="F8" s="5" t="inlineStr">
         <is>
           <t>Cara-atan Elementary School</t>
         </is>
       </c>
-      <c r="F8" s="5" t="inlineStr">
+      <c r="G8" s="5" t="inlineStr">
         <is>
           <t>CITY OF CARCAR</t>
         </is>
       </c>
-      <c r="G8" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="H8" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I8" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J8" s="5" t="inlineStr">
+      <c r="K8" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve"> CONSTRUCTION OF ONE (1) STOREY - THREE (3) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K8" s="5" t="n">
+      <c r="L8" s="5" t="n">
         <v>17400878.67</v>
       </c>
-      <c r="L8" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" s="5" t="inlineStr">
+      <c r="M8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N8" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O8" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
+      <c r="O8" s="5" t="n">
+        <v>1</v>
       </c>
       <c r="P8" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="Q8" s="5" t="n">
-        <v>0</v>
+      <c r="Q8" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
       </c>
       <c r="R8" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="S8" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
+      <c r="S8" s="5" t="n">
+        <v>0</v>
       </c>
       <c r="T8" s="5" t="inlineStr">
         <is>
@@ -1354,91 +1376,94 @@
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="X8" s="5" t="n">
-        <v>0</v>
+      <c r="X8" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
       </c>
       <c r="Y8" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="Z8" s="7" t="n"/>
+      <c r="Z8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="7" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="5" t="inlineStr">
+      <c r="A9" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="B9" s="5" t="inlineStr">
         <is>
           <t>LMS 2021</t>
         </is>
       </c>
-      <c r="B9" s="5" t="inlineStr">
+      <c r="C9" s="5" t="inlineStr">
         <is>
           <t>Region VII</t>
         </is>
       </c>
-      <c r="C9" s="5" t="inlineStr">
+      <c r="D9" s="5" t="inlineStr">
         <is>
           <t>Cebu</t>
         </is>
       </c>
-      <c r="D9" s="5" t="n">
+      <c r="E9" s="5" t="n">
         <v>118926</v>
       </c>
-      <c r="E9" s="5" t="inlineStr">
+      <c r="F9" s="5" t="inlineStr">
         <is>
           <t>Catang PS</t>
         </is>
       </c>
-      <c r="F9" s="5" t="inlineStr">
+      <c r="G9" s="5" t="inlineStr">
         <is>
           <t>ARGAO</t>
         </is>
       </c>
-      <c r="G9" s="5" t="n">
+      <c r="H9" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H9" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I9" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J9" s="5" t="inlineStr">
+      <c r="K9" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve"> CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE</t>
         </is>
       </c>
-      <c r="K9" s="5" t="n">
+      <c r="L9" s="5" t="n">
         <v>9541017.1149</v>
       </c>
-      <c r="L9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" s="5" t="inlineStr">
+      <c r="M9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="N9" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O9" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
+      <c r="O9" s="5" t="n">
+        <v>1</v>
       </c>
       <c r="P9" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="Q9" s="5" t="n">
-        <v>0</v>
+      <c r="Q9" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
       </c>
       <c r="R9" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="S9" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
+      <c r="S9" s="5" t="n">
+        <v>0</v>
       </c>
       <c r="T9" s="5" t="inlineStr">
         <is>
@@ -1460,93 +1485,96 @@
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="X9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="5" t="inlineStr">
+      <c r="X9" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="Y9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="5" t="inlineStr">
         <is>
           <t>inaugurated (August)</t>
         </is>
       </c>
-      <c r="Z9" s="7" t="n"/>
+      <c r="AA9" s="7" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="5" t="inlineStr">
+      <c r="A10" s="5" t="n">
+        <v>166</v>
+      </c>
+      <c r="B10" s="5" t="inlineStr">
         <is>
           <t>LMS 2021</t>
         </is>
       </c>
-      <c r="B10" s="5" t="inlineStr">
+      <c r="C10" s="5" t="inlineStr">
         <is>
           <t>Region VII</t>
         </is>
       </c>
-      <c r="C10" s="5" t="inlineStr">
+      <c r="D10" s="5" t="inlineStr">
         <is>
           <t>Cebu</t>
         </is>
       </c>
-      <c r="D10" s="5" t="n">
+      <c r="E10" s="5" t="n">
         <v>118975</v>
       </c>
-      <c r="E10" s="5" t="inlineStr">
+      <c r="F10" s="5" t="inlineStr">
         <is>
           <t>Kaluangan I PS</t>
         </is>
       </c>
-      <c r="F10" s="5" t="inlineStr">
+      <c r="G10" s="5" t="inlineStr">
         <is>
           <t>ASTURIAS</t>
         </is>
       </c>
-      <c r="G10" s="5" t="n">
+      <c r="H10" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="H10" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I10" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J10" s="5" t="inlineStr">
+      <c r="K10" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve"> CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K10" s="5" t="n">
+      <c r="L10" s="5" t="n">
         <v>10414217.32</v>
       </c>
-      <c r="L10" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" s="5" t="inlineStr">
+      <c r="M10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="N10" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O10" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
+      <c r="O10" s="5" t="n">
+        <v>1</v>
       </c>
       <c r="P10" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="Q10" s="5" t="n">
-        <v>0</v>
+      <c r="Q10" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
       </c>
       <c r="R10" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="S10" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
+      <c r="S10" s="5" t="n">
+        <v>0</v>
       </c>
       <c r="T10" s="5" t="inlineStr">
         <is>
@@ -1568,93 +1596,96 @@
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="X10" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="5" t="inlineStr">
+      <c r="X10" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="Y10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="5" t="inlineStr">
         <is>
           <t>inaugurated (August)</t>
         </is>
       </c>
-      <c r="Z10" s="7" t="n"/>
+      <c r="AA10" s="7" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="5" t="inlineStr">
+      <c r="A11" s="5" t="n">
+        <v>167</v>
+      </c>
+      <c r="B11" s="5" t="inlineStr">
         <is>
           <t>LMS 2021</t>
         </is>
       </c>
-      <c r="B11" s="5" t="inlineStr">
+      <c r="C11" s="5" t="inlineStr">
         <is>
           <t>Region VII</t>
         </is>
       </c>
-      <c r="C11" s="5" t="inlineStr">
+      <c r="D11" s="5" t="inlineStr">
         <is>
           <t>Cebu</t>
         </is>
       </c>
-      <c r="D11" s="5" t="n">
+      <c r="E11" s="5" t="n">
         <v>119466</v>
       </c>
-      <c r="E11" s="5" t="inlineStr">
+      <c r="F11" s="5" t="inlineStr">
         <is>
           <t>Maharuhay ES</t>
         </is>
       </c>
-      <c r="F11" s="5" t="inlineStr">
+      <c r="G11" s="5" t="inlineStr">
         <is>
           <t>MEDELLIN</t>
         </is>
       </c>
-      <c r="G11" s="5" t="n">
+      <c r="H11" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="H11" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I11" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J11" s="5" t="inlineStr">
+      <c r="K11" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve"> CONSTRUCTION OF ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, AND SCHOOL FURNITURE</t>
         </is>
       </c>
-      <c r="K11" s="5" t="n">
+      <c r="L11" s="5" t="n">
         <v>6563376.166900001</v>
       </c>
-      <c r="L11" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" s="5" t="inlineStr">
+      <c r="M11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="N11" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
+      <c r="O11" s="5" t="n">
+        <v>0</v>
       </c>
       <c r="P11" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="Q11" s="5" t="n">
-        <v>0</v>
+      <c r="Q11" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
       </c>
       <c r="R11" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="S11" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
+      <c r="S11" s="5" t="n">
+        <v>0</v>
       </c>
       <c r="T11" s="5" t="inlineStr">
         <is>
@@ -1676,91 +1707,94 @@
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="X11" s="5" t="n">
-        <v>0</v>
+      <c r="X11" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
       </c>
       <c r="Y11" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="Z11" s="7" t="n"/>
+      <c r="Z11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="7" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="5" t="inlineStr">
+      <c r="A12" s="5" t="n">
+        <v>168</v>
+      </c>
+      <c r="B12" s="5" t="inlineStr">
         <is>
           <t>LMS 2021</t>
         </is>
       </c>
-      <c r="B12" s="5" t="inlineStr">
+      <c r="C12" s="5" t="inlineStr">
         <is>
           <t>Region VII</t>
         </is>
       </c>
-      <c r="C12" s="5" t="inlineStr">
+      <c r="D12" s="5" t="inlineStr">
         <is>
           <t>Cebu</t>
         </is>
       </c>
-      <c r="D12" s="5" t="n">
+      <c r="E12" s="5" t="n">
         <v>119448</v>
       </c>
-      <c r="E12" s="5" t="inlineStr">
+      <c r="F12" s="5" t="inlineStr">
         <is>
           <t>Palaypay PS</t>
         </is>
       </c>
-      <c r="F12" s="5" t="inlineStr">
+      <c r="G12" s="5" t="inlineStr">
         <is>
           <t>MALABUYOC</t>
         </is>
       </c>
-      <c r="G12" s="5" t="n">
+      <c r="H12" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="H12" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I12" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J12" s="5" t="inlineStr">
+      <c r="K12" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve"> CONSTRUCTION OF ONE (1) STOREY - THREE (3) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K12" s="5" t="n">
+      <c r="L12" s="5" t="n">
         <v>8618124.5</v>
       </c>
-      <c r="L12" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" s="5" t="inlineStr">
+      <c r="M12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="N12" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O12" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
+      <c r="O12" s="5" t="n">
+        <v>1</v>
       </c>
       <c r="P12" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="Q12" s="5" t="n">
-        <v>0</v>
+      <c r="Q12" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
       </c>
       <c r="R12" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="S12" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
+      <c r="S12" s="5" t="n">
+        <v>0</v>
       </c>
       <c r="T12" s="5" t="inlineStr">
         <is>
@@ -1782,93 +1816,96 @@
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="X12" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="5" t="inlineStr">
+      <c r="X12" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="Y12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="5" t="inlineStr">
         <is>
           <t>inaugurated (August)</t>
         </is>
       </c>
-      <c r="Z12" s="7" t="n"/>
+      <c r="AA12" s="7" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="5" t="inlineStr">
+      <c r="A13" s="5" t="n">
+        <v>169</v>
+      </c>
+      <c r="B13" s="5" t="inlineStr">
         <is>
           <t>LMS 2021</t>
         </is>
       </c>
-      <c r="B13" s="5" t="inlineStr">
+      <c r="C13" s="5" t="inlineStr">
         <is>
           <t>Region VII</t>
         </is>
       </c>
-      <c r="C13" s="5" t="inlineStr">
+      <c r="D13" s="5" t="inlineStr">
         <is>
           <t>Danao City</t>
         </is>
       </c>
-      <c r="D13" s="5" t="n">
+      <c r="E13" s="5" t="n">
         <v>119352</v>
       </c>
-      <c r="E13" s="5" t="inlineStr">
+      <c r="F13" s="5" t="inlineStr">
         <is>
           <t>Melecio B. Tito ES</t>
         </is>
       </c>
-      <c r="F13" s="5" t="inlineStr">
+      <c r="G13" s="5" t="inlineStr">
         <is>
           <t>DANAO CITY</t>
         </is>
       </c>
-      <c r="G13" s="5" t="n">
+      <c r="H13" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="H13" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I13" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J13" s="5" t="inlineStr">
+      <c r="K13" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve"> CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITHOUT TOILET), WITH PROVISION OF RAINWATER COLLECTOR, WATER AND SANITATION FACILITIES (4 - SEATER), SCHOOL FURNITURE  AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K13" s="5" t="n">
+      <c r="L13" s="5" t="n">
         <v>9616220.826099999</v>
       </c>
-      <c r="L13" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" s="5" t="inlineStr">
+      <c r="M13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="N13" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O13" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
+      <c r="O13" s="5" t="n">
+        <v>1</v>
       </c>
       <c r="P13" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="Q13" s="5" t="n">
-        <v>0</v>
+      <c r="Q13" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
       </c>
       <c r="R13" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="S13" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
+      <c r="S13" s="5" t="n">
+        <v>0</v>
       </c>
       <c r="T13" s="5" t="inlineStr">
         <is>
@@ -1890,93 +1927,96 @@
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="X13" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="5" t="inlineStr">
+      <c r="X13" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="Y13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="5" t="inlineStr">
         <is>
           <t>inaugurated (August)</t>
         </is>
       </c>
-      <c r="Z13" s="7" t="n"/>
+      <c r="AA13" s="7" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="5" t="inlineStr">
+      <c r="A14" s="5" t="n">
+        <v>174</v>
+      </c>
+      <c r="B14" s="5" t="inlineStr">
         <is>
           <t>LMS 2021</t>
         </is>
       </c>
-      <c r="B14" s="5" t="inlineStr">
+      <c r="C14" s="5" t="inlineStr">
         <is>
           <t>Region VII</t>
         </is>
       </c>
-      <c r="C14" s="5" t="inlineStr">
+      <c r="D14" s="5" t="inlineStr">
         <is>
           <t>Talisay City</t>
         </is>
       </c>
-      <c r="D14" s="5" t="n">
+      <c r="E14" s="5" t="n">
         <v>233505</v>
       </c>
-      <c r="E14" s="5" t="inlineStr">
+      <c r="F14" s="5" t="inlineStr">
         <is>
           <t>Campinsa Elementary School</t>
         </is>
       </c>
-      <c r="F14" s="5" t="inlineStr">
+      <c r="G14" s="5" t="inlineStr">
         <is>
           <t>CITY OF TALISAY</t>
         </is>
       </c>
-      <c r="G14" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="H14" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I14" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J14" s="5" t="inlineStr">
+      <c r="K14" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve"> CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K14" s="5" t="n">
+      <c r="L14" s="5" t="n">
         <v>10909009.1202</v>
       </c>
-      <c r="L14" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" s="5" t="inlineStr">
+      <c r="M14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="N14" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O14" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
+      <c r="O14" s="5" t="n">
+        <v>1</v>
       </c>
       <c r="P14" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="Q14" s="5" t="n">
-        <v>0</v>
+      <c r="Q14" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
       </c>
       <c r="R14" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="S14" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
+      <c r="S14" s="5" t="n">
+        <v>0</v>
       </c>
       <c r="T14" s="5" t="inlineStr">
         <is>
@@ -1998,1793 +2038,1849 @@
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="X14" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="5" t="inlineStr">
+      <c r="X14" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="Y14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="5" t="inlineStr">
         <is>
           <t>inaugurated (August)</t>
         </is>
       </c>
-      <c r="Z14" s="7" t="n"/>
+      <c r="AA14" s="7" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="5" t="inlineStr">
+      <c r="A15" s="5" t="n">
+        <v>339</v>
+      </c>
+      <c r="B15" s="5" t="inlineStr">
         <is>
           <t>LMS 2023</t>
         </is>
       </c>
-      <c r="B15" s="5" t="inlineStr">
+      <c r="C15" s="5" t="inlineStr">
         <is>
           <t>Region VII</t>
         </is>
       </c>
-      <c r="C15" s="5" t="inlineStr">
+      <c r="D15" s="5" t="inlineStr">
         <is>
           <t>Bohol</t>
         </is>
       </c>
-      <c r="D15" s="5" t="n">
+      <c r="E15" s="5" t="n">
         <v>117998</v>
       </c>
-      <c r="E15" s="5" t="inlineStr">
+      <c r="F15" s="5" t="inlineStr">
         <is>
           <t>Boyog ES</t>
         </is>
       </c>
-      <c r="F15" s="5" t="inlineStr">
+      <c r="G15" s="5" t="inlineStr">
         <is>
           <t>BALILIHAN</t>
         </is>
       </c>
-      <c r="G15" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="H15" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I15" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J15" s="5" t="inlineStr">
+      <c r="K15" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY-FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMON TOILET) WITH PROVISION OF SCHOOL FURNITURE</t>
         </is>
       </c>
-      <c r="K15" s="5" t="n">
+      <c r="L15" s="5" t="n">
         <v>10766058.66</v>
       </c>
-      <c r="L15" s="5" t="n">
+      <c r="M15" s="5" t="n">
         <v>10644375.55</v>
       </c>
-      <c r="M15" s="5" t="inlineStr">
+      <c r="N15" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N15" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O15" s="5" t="inlineStr">
+      <c r="O15" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P15" s="5" t="inlineStr">
         <is>
           <t>05/15/2024</t>
         </is>
       </c>
-      <c r="P15" s="6" t="n">
+      <c r="Q15" s="6" t="n">
         <v>45454</v>
       </c>
-      <c r="Q15" s="5" t="inlineStr">
+      <c r="R15" s="5" t="inlineStr">
         <is>
           <t>PBI 2023-27</t>
         </is>
       </c>
-      <c r="R15" s="5" t="inlineStr">
+      <c r="S15" s="5" t="inlineStr">
         <is>
           <t>PBI 2023-27</t>
         </is>
       </c>
-      <c r="S15" s="6" t="n">
+      <c r="T15" s="6" t="n">
         <v>45117</v>
       </c>
-      <c r="T15" s="6" t="n">
+      <c r="U15" s="6" t="n">
         <v>45125</v>
       </c>
-      <c r="U15" s="6" t="n">
+      <c r="V15" s="6" t="n">
         <v>45141</v>
       </c>
-      <c r="V15" s="6" t="n">
+      <c r="W15" s="6" t="n">
         <v>45208</v>
       </c>
-      <c r="W15" s="6" t="n">
+      <c r="X15" s="6" t="n">
         <v>45246</v>
       </c>
-      <c r="X15" s="5" t="inlineStr">
+      <c r="Y15" s="5" t="inlineStr">
         <is>
           <t>C. JANSENN CONSTRUCTION AND GENERAL MERCHANDISE</t>
         </is>
       </c>
-      <c r="Y15" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="7" t="n"/>
+      <c r="Z15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="7" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="5" t="inlineStr">
+      <c r="A16" s="5" t="n">
+        <v>340</v>
+      </c>
+      <c r="B16" s="5" t="inlineStr">
         <is>
           <t>LMS 2023</t>
         </is>
       </c>
-      <c r="B16" s="5" t="inlineStr">
+      <c r="C16" s="5" t="inlineStr">
         <is>
           <t>Region VII</t>
         </is>
       </c>
-      <c r="C16" s="5" t="inlineStr">
+      <c r="D16" s="5" t="inlineStr">
         <is>
           <t>Bohol</t>
         </is>
       </c>
-      <c r="D16" s="5" t="n">
+      <c r="E16" s="5" t="n">
         <v>103611</v>
       </c>
-      <c r="E16" s="5" t="inlineStr">
+      <c r="F16" s="5" t="inlineStr">
         <is>
           <t>Cantumogcad ES</t>
         </is>
       </c>
-      <c r="F16" s="5" t="inlineStr">
+      <c r="G16" s="5" t="inlineStr">
         <is>
           <t>BUENAVISTA</t>
         </is>
       </c>
-      <c r="G16" s="5" t="n">
+      <c r="H16" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H16" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I16" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J16" s="5" t="inlineStr">
+      <c r="K16" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF 2 UNITS ONE (1) STOREY-TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR AND SCHOOL FURNITURE</t>
         </is>
       </c>
-      <c r="K16" s="5" t="n">
+      <c r="L16" s="5" t="n">
         <v>12125725.66</v>
       </c>
-      <c r="L16" s="5" t="n">
+      <c r="M16" s="5" t="n">
         <v>11981920.24</v>
       </c>
-      <c r="M16" s="5" t="inlineStr">
+      <c r="N16" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N16" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O16" s="5" t="inlineStr">
+      <c r="O16" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P16" s="5" t="inlineStr">
         <is>
           <t>05/15/2024</t>
         </is>
       </c>
-      <c r="P16" s="6" t="n">
+      <c r="Q16" s="6" t="n">
         <v>45425</v>
       </c>
-      <c r="Q16" s="5" t="inlineStr">
+      <c r="R16" s="5" t="inlineStr">
         <is>
           <t>PBI 2023-28</t>
         </is>
       </c>
-      <c r="R16" s="5" t="inlineStr">
+      <c r="S16" s="5" t="inlineStr">
         <is>
           <t>PBI 2023-28</t>
         </is>
       </c>
-      <c r="S16" s="6" t="n">
+      <c r="T16" s="6" t="n">
         <v>45117</v>
       </c>
-      <c r="T16" s="6" t="n">
+      <c r="U16" s="6" t="n">
         <v>45125</v>
       </c>
-      <c r="U16" s="6" t="n">
+      <c r="V16" s="6" t="n">
         <v>45141</v>
       </c>
-      <c r="V16" s="6" t="n">
+      <c r="W16" s="6" t="n">
         <v>45208</v>
       </c>
-      <c r="W16" s="6" t="n">
+      <c r="X16" s="6" t="n">
         <v>45246</v>
       </c>
-      <c r="X16" s="5" t="inlineStr">
+      <c r="Y16" s="5" t="inlineStr">
         <is>
           <t>C. JANSENN CONSTRUCTION AND GENERAL MERCHANDISE</t>
         </is>
       </c>
-      <c r="Y16" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="7" t="n"/>
+      <c r="Z16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="7" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" s="5" t="inlineStr">
+      <c r="A17" s="5" t="n">
+        <v>341</v>
+      </c>
+      <c r="B17" s="5" t="inlineStr">
         <is>
           <t>LMS 2023</t>
         </is>
       </c>
-      <c r="B17" s="5" t="inlineStr">
+      <c r="C17" s="5" t="inlineStr">
         <is>
           <t>Region VII</t>
         </is>
       </c>
-      <c r="C17" s="5" t="inlineStr">
+      <c r="D17" s="5" t="inlineStr">
         <is>
           <t>Bohol</t>
         </is>
       </c>
-      <c r="D17" s="5" t="n">
+      <c r="E17" s="5" t="n">
         <v>117965</v>
       </c>
-      <c r="E17" s="5" t="inlineStr">
+      <c r="F17" s="5" t="inlineStr">
         <is>
           <t>Tanod ES</t>
         </is>
       </c>
-      <c r="F17" s="5" t="inlineStr">
+      <c r="G17" s="5" t="inlineStr">
         <is>
           <t>ANDA</t>
         </is>
       </c>
-      <c r="G17" s="5" t="n">
+      <c r="H17" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="H17" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I17" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J17" s="5" t="inlineStr">
+      <c r="K17" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY-TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR AND SCHOOL FURNITURE</t>
         </is>
       </c>
-      <c r="K17" s="5" t="n">
+      <c r="L17" s="5" t="n">
         <v>6161022.46</v>
       </c>
-      <c r="L17" s="5" t="n">
+      <c r="M17" s="5" t="n">
         <v>6032357.5</v>
       </c>
-      <c r="M17" s="5" t="inlineStr">
+      <c r="N17" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N17" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O17" s="5" t="inlineStr">
+      <c r="O17" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P17" s="5" t="inlineStr">
         <is>
           <t>4/16/2024</t>
         </is>
       </c>
-      <c r="P17" s="6" t="n">
+      <c r="Q17" s="6" t="n">
         <v>45468</v>
       </c>
-      <c r="Q17" s="5" t="inlineStr">
+      <c r="R17" s="5" t="inlineStr">
         <is>
           <t>PBI 2023-29</t>
         </is>
       </c>
-      <c r="R17" s="5" t="inlineStr">
+      <c r="S17" s="5" t="inlineStr">
         <is>
           <t>PBI 2023-29</t>
         </is>
       </c>
-      <c r="S17" s="6" t="n">
+      <c r="T17" s="6" t="n">
         <v>45117</v>
       </c>
-      <c r="T17" s="6" t="n">
+      <c r="U17" s="6" t="n">
         <v>45125</v>
       </c>
-      <c r="U17" s="6" t="n">
+      <c r="V17" s="6" t="n">
         <v>45141</v>
       </c>
-      <c r="V17" s="6" t="n">
+      <c r="W17" s="6" t="n">
         <v>45208</v>
       </c>
-      <c r="W17" s="6" t="n">
+      <c r="X17" s="6" t="n">
         <v>45247</v>
       </c>
-      <c r="X17" s="5" t="inlineStr">
+      <c r="Y17" s="5" t="inlineStr">
         <is>
           <t>DMAM CONSTRUCTION SERVICES</t>
         </is>
       </c>
-      <c r="Y17" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z17" s="7" t="n"/>
+      <c r="Z17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="7" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" s="5" t="inlineStr">
+      <c r="A18" s="5" t="n">
+        <v>342</v>
+      </c>
+      <c r="B18" s="5" t="inlineStr">
         <is>
           <t>LMS 2023</t>
         </is>
       </c>
-      <c r="B18" s="5" t="inlineStr">
+      <c r="C18" s="5" t="inlineStr">
         <is>
           <t>Region VII</t>
         </is>
       </c>
-      <c r="C18" s="5" t="inlineStr">
+      <c r="D18" s="5" t="inlineStr">
         <is>
           <t>Bohol</t>
         </is>
       </c>
-      <c r="D18" s="5" t="n">
+      <c r="E18" s="5" t="n">
         <v>118859</v>
       </c>
-      <c r="E18" s="5" t="inlineStr">
+      <c r="F18" s="5" t="inlineStr">
         <is>
           <t>Pangian ES</t>
         </is>
       </c>
-      <c r="F18" s="5" t="inlineStr">
+      <c r="G18" s="5" t="inlineStr">
         <is>
           <t>VALENCIA</t>
         </is>
       </c>
-      <c r="G18" s="5" t="n">
+      <c r="H18" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="H18" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I18" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J18" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J18" s="5" t="inlineStr">
+      <c r="K18" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY-TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMON TOILET)WITH PROVISION OF SCHOOL FURNITURE</t>
         </is>
       </c>
-      <c r="K18" s="5" t="n">
+      <c r="L18" s="5" t="n">
         <v>6014632.02</v>
       </c>
-      <c r="L18" s="5" t="n">
+      <c r="M18" s="5" t="n">
         <v>4452592.82</v>
       </c>
-      <c r="M18" s="5" t="inlineStr">
+      <c r="N18" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N18" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O18" s="5" t="inlineStr">
+      <c r="O18" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P18" s="5" t="inlineStr">
         <is>
           <t>4/26/2024</t>
         </is>
       </c>
-      <c r="P18" s="6" t="n">
+      <c r="Q18" s="6" t="n">
         <v>45471</v>
       </c>
-      <c r="Q18" s="5" t="inlineStr">
+      <c r="R18" s="5" t="inlineStr">
         <is>
           <t>PBI 2023-30</t>
         </is>
       </c>
-      <c r="R18" s="5" t="inlineStr">
+      <c r="S18" s="5" t="inlineStr">
         <is>
           <t>PBI 2023-30</t>
         </is>
       </c>
-      <c r="S18" s="6" t="n">
+      <c r="T18" s="6" t="n">
         <v>45117</v>
       </c>
-      <c r="T18" s="6" t="n">
+      <c r="U18" s="6" t="n">
         <v>45125</v>
       </c>
-      <c r="U18" s="6" t="n">
+      <c r="V18" s="6" t="n">
         <v>45141</v>
       </c>
-      <c r="V18" s="6" t="n">
+      <c r="W18" s="6" t="n">
         <v>45208</v>
       </c>
-      <c r="W18" s="6" t="n">
+      <c r="X18" s="6" t="n">
         <v>45258</v>
       </c>
-      <c r="X18" s="5" t="inlineStr">
+      <c r="Y18" s="5" t="inlineStr">
         <is>
           <t>LTS BUILDERS AND CONSTRUCTION SUPPLY</t>
         </is>
       </c>
-      <c r="Y18" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z18" s="7" t="n"/>
+      <c r="Z18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="7" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" s="5" t="inlineStr">
+      <c r="A19" s="5" t="n">
+        <v>343</v>
+      </c>
+      <c r="B19" s="5" t="inlineStr">
         <is>
           <t>LMS 2023</t>
         </is>
       </c>
-      <c r="B19" s="5" t="inlineStr">
+      <c r="C19" s="5" t="inlineStr">
         <is>
           <t>Region VII</t>
         </is>
       </c>
-      <c r="C19" s="5" t="inlineStr">
+      <c r="D19" s="5" t="inlineStr">
         <is>
           <t>Cebu</t>
         </is>
       </c>
-      <c r="D19" s="5" t="n">
+      <c r="E19" s="5" t="n">
         <v>119061</v>
       </c>
-      <c r="E19" s="5" t="inlineStr">
+      <c r="F19" s="5" t="inlineStr">
         <is>
           <t>Balintawak ES</t>
         </is>
       </c>
-      <c r="F19" s="5" t="inlineStr">
+      <c r="G19" s="5" t="inlineStr">
         <is>
           <t>BANTAYAN</t>
         </is>
       </c>
-      <c r="G19" s="5" t="n">
+      <c r="H19" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="H19" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I19" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J19" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J19" s="5" t="inlineStr">
+      <c r="K19" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF 1STY-4CL SCHOOL BUILDING WITH COMMON TOILET WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K19" s="5" t="n">
+      <c r="L19" s="5" t="n">
         <v>11727969.19</v>
       </c>
-      <c r="L19" s="5" t="n">
+      <c r="M19" s="5" t="n">
         <v>11561367.39</v>
       </c>
-      <c r="M19" s="5" t="inlineStr">
+      <c r="N19" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N19" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O19" s="6" t="n">
-        <v>45536</v>
+      <c r="O19" s="5" t="n">
+        <v>1</v>
       </c>
       <c r="P19" s="6" t="n">
         <v>45536</v>
       </c>
-      <c r="Q19" s="5" t="inlineStr">
+      <c r="Q19" s="6" t="n">
+        <v>45536</v>
+      </c>
+      <c r="R19" s="5" t="inlineStr">
         <is>
           <t>CY 2023 LMS-R7-CEBU</t>
         </is>
       </c>
-      <c r="R19" s="5" t="inlineStr">
+      <c r="S19" s="5" t="inlineStr">
         <is>
           <t>CY 2023 LMS-R7-CEBU-03</t>
         </is>
       </c>
-      <c r="S19" s="6" t="n">
+      <c r="T19" s="6" t="n">
         <v>45126</v>
       </c>
-      <c r="T19" s="6" t="n">
+      <c r="U19" s="6" t="n">
         <v>45133</v>
       </c>
-      <c r="U19" s="6" t="n">
+      <c r="V19" s="6" t="n">
         <v>45145</v>
       </c>
-      <c r="V19" s="6" t="n">
+      <c r="W19" s="6" t="n">
         <v>45155</v>
       </c>
-      <c r="W19" s="5" t="inlineStr">
+      <c r="X19" s="5" t="inlineStr">
         <is>
           <t>31/08/2023</t>
         </is>
       </c>
-      <c r="X19" s="5" t="inlineStr">
+      <c r="Y19" s="5" t="inlineStr">
         <is>
           <t>ROVILLA CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Y19" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z19" s="7" t="n"/>
+      <c r="Z19" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="7" t="n"/>
     </row>
     <row r="20">
-      <c r="A20" s="5" t="inlineStr">
+      <c r="A20" s="5" t="n">
+        <v>344</v>
+      </c>
+      <c r="B20" s="5" t="inlineStr">
         <is>
           <t>LMS 2023</t>
         </is>
       </c>
-      <c r="B20" s="5" t="inlineStr">
+      <c r="C20" s="5" t="inlineStr">
         <is>
           <t>Region VII</t>
         </is>
       </c>
-      <c r="C20" s="5" t="inlineStr">
+      <c r="D20" s="5" t="inlineStr">
         <is>
           <t>Cebu</t>
         </is>
       </c>
-      <c r="D20" s="5" t="n">
+      <c r="E20" s="5" t="n">
         <v>119063</v>
       </c>
-      <c r="E20" s="5" t="inlineStr">
+      <c r="F20" s="5" t="inlineStr">
         <is>
           <t>Guiwanon Elementary School</t>
         </is>
       </c>
-      <c r="F20" s="5" t="inlineStr">
+      <c r="G20" s="5" t="inlineStr">
         <is>
           <t>BANTAYAN</t>
         </is>
       </c>
-      <c r="G20" s="5" t="n">
+      <c r="H20" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="H20" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I20" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J20" s="5" t="inlineStr">
+      <c r="K20" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF 1STY-3CL SCHOOL BUILDING WITH COMMON TOILET WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K20" s="5" t="n">
+      <c r="L20" s="5" t="n">
         <v>9943843.08</v>
       </c>
-      <c r="L20" s="5" t="n">
+      <c r="M20" s="5" t="n">
         <v>9794772.390000001</v>
       </c>
-      <c r="M20" s="5" t="inlineStr">
+      <c r="N20" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N20" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O20" s="5" t="inlineStr">
+      <c r="O20" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P20" s="5" t="inlineStr">
         <is>
           <t>25/12/2023</t>
         </is>
       </c>
-      <c r="P20" s="5" t="inlineStr">
+      <c r="Q20" s="5" t="inlineStr">
         <is>
           <t>25/12/2023</t>
         </is>
       </c>
-      <c r="Q20" s="5" t="inlineStr">
+      <c r="R20" s="5" t="inlineStr">
         <is>
           <t>CY 2023 LMS-R7-CEBU</t>
         </is>
       </c>
-      <c r="R20" s="5" t="inlineStr">
+      <c r="S20" s="5" t="inlineStr">
         <is>
           <t>CY 2023 LMS-R7-CEBU-01</t>
         </is>
       </c>
-      <c r="S20" s="6" t="n">
+      <c r="T20" s="6" t="n">
         <v>45126</v>
       </c>
-      <c r="T20" s="6" t="n">
+      <c r="U20" s="6" t="n">
         <v>45133</v>
       </c>
-      <c r="U20" s="6" t="n">
+      <c r="V20" s="6" t="n">
         <v>45145</v>
       </c>
-      <c r="V20" s="6" t="n">
+      <c r="W20" s="6" t="n">
         <v>45155</v>
       </c>
-      <c r="W20" s="5" t="inlineStr">
+      <c r="X20" s="5" t="inlineStr">
         <is>
           <t>31/08/2023</t>
         </is>
       </c>
-      <c r="X20" s="5" t="inlineStr">
+      <c r="Y20" s="5" t="inlineStr">
         <is>
           <t>ROVILLA CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Y20" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z20" s="7" t="n"/>
+      <c r="Z20" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="7" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" s="5" t="inlineStr">
+      <c r="A21" s="5" t="n">
+        <v>345</v>
+      </c>
+      <c r="B21" s="5" t="inlineStr">
         <is>
           <t>LMS 2023</t>
         </is>
       </c>
-      <c r="B21" s="5" t="inlineStr">
+      <c r="C21" s="5" t="inlineStr">
         <is>
           <t>Region VII</t>
         </is>
       </c>
-      <c r="C21" s="5" t="inlineStr">
+      <c r="D21" s="5" t="inlineStr">
         <is>
           <t>Cebu</t>
         </is>
       </c>
-      <c r="D21" s="5" t="n">
+      <c r="E21" s="5" t="n">
         <v>119071</v>
       </c>
-      <c r="E21" s="5" t="inlineStr">
+      <c r="F21" s="5" t="inlineStr">
         <is>
           <t>Vito ES</t>
         </is>
       </c>
-      <c r="F21" s="5" t="inlineStr">
+      <c r="G21" s="5" t="inlineStr">
         <is>
           <t>BANTAYAN</t>
         </is>
       </c>
-      <c r="G21" s="5" t="n">
+      <c r="H21" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="H21" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I21" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J21" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J21" s="5" t="inlineStr">
+      <c r="K21" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF 1STY-3CL SCHOOL BUILDING WITH COMMON TOILET WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K21" s="5" t="n">
+      <c r="L21" s="5" t="n">
         <v>9896120.58</v>
       </c>
-      <c r="L21" s="5" t="n">
+      <c r="M21" s="5" t="n">
         <v>9745999.34</v>
       </c>
-      <c r="M21" s="5" t="inlineStr">
+      <c r="N21" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N21" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O21" s="5" t="inlineStr">
+      <c r="O21" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P21" s="5" t="inlineStr">
         <is>
           <t>25/12/2023</t>
         </is>
       </c>
-      <c r="P21" s="5" t="inlineStr">
+      <c r="Q21" s="5" t="inlineStr">
         <is>
           <t>25/12/2023</t>
         </is>
       </c>
-      <c r="Q21" s="5" t="inlineStr">
+      <c r="R21" s="5" t="inlineStr">
         <is>
           <t>CY 2023 LMS-R7-CEBU</t>
         </is>
       </c>
-      <c r="R21" s="5" t="inlineStr">
+      <c r="S21" s="5" t="inlineStr">
         <is>
           <t>CY 2023 LMS-R7-CEBU-02</t>
         </is>
       </c>
-      <c r="S21" s="6" t="n">
+      <c r="T21" s="6" t="n">
         <v>45126</v>
       </c>
-      <c r="T21" s="6" t="n">
+      <c r="U21" s="6" t="n">
         <v>45133</v>
       </c>
-      <c r="U21" s="6" t="n">
+      <c r="V21" s="6" t="n">
         <v>45145</v>
       </c>
-      <c r="V21" s="6" t="n">
+      <c r="W21" s="6" t="n">
         <v>45155</v>
       </c>
-      <c r="W21" s="5" t="inlineStr">
+      <c r="X21" s="5" t="inlineStr">
         <is>
           <t>31/08/2023</t>
         </is>
       </c>
-      <c r="X21" s="5" t="inlineStr">
+      <c r="Y21" s="5" t="inlineStr">
         <is>
           <t>ROVILLA CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Y21" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z21" s="7" t="n"/>
+      <c r="Z21" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="7" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="5" t="inlineStr">
+      <c r="A22" s="5" t="n">
+        <v>346</v>
+      </c>
+      <c r="B22" s="5" t="inlineStr">
         <is>
           <t>LMS 2023</t>
         </is>
       </c>
-      <c r="B22" s="5" t="inlineStr">
+      <c r="C22" s="5" t="inlineStr">
         <is>
           <t>Region VII</t>
         </is>
       </c>
-      <c r="C22" s="5" t="inlineStr">
+      <c r="D22" s="5" t="inlineStr">
         <is>
           <t>Cebu</t>
         </is>
       </c>
-      <c r="D22" s="5" t="n">
+      <c r="E22" s="5" t="n">
         <v>119192</v>
       </c>
-      <c r="E22" s="5" t="inlineStr">
+      <c r="F22" s="5" t="inlineStr">
         <is>
           <t>Francisco S. Villamor Sr.Elementary School</t>
         </is>
       </c>
-      <c r="F22" s="5" t="inlineStr">
+      <c r="G22" s="5" t="inlineStr">
         <is>
           <t>CARMEN</t>
         </is>
       </c>
-      <c r="G22" s="5" t="n">
+      <c r="H22" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="H22" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I22" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J22" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J22" s="5" t="inlineStr">
+      <c r="K22" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF 1STY-3CL SCHOOL BUILDING WITH COMMON TOILET WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K22" s="5" t="n">
+      <c r="L22" s="5" t="n">
         <v>9745045.060000001</v>
       </c>
-      <c r="L22" s="5" t="n">
+      <c r="M22" s="5" t="n">
         <v>9618165.279999999</v>
       </c>
-      <c r="M22" s="5" t="inlineStr">
+      <c r="N22" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N22" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O22" s="6" t="n">
+      <c r="O22" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P22" s="6" t="n">
         <v>45352</v>
       </c>
-      <c r="P22" s="6" t="n">
+      <c r="Q22" s="6" t="n">
         <v>45294</v>
       </c>
-      <c r="Q22" s="5" t="inlineStr">
+      <c r="R22" s="5" t="inlineStr">
         <is>
           <t>CY 2023 LMS-R7-CEBU</t>
         </is>
       </c>
-      <c r="R22" s="5" t="inlineStr">
+      <c r="S22" s="5" t="inlineStr">
         <is>
           <t>CY 2023 LMS-R7-CEBU-04</t>
         </is>
       </c>
-      <c r="S22" s="6" t="n">
+      <c r="T22" s="6" t="n">
         <v>45126</v>
       </c>
-      <c r="T22" s="6" t="n">
+      <c r="U22" s="6" t="n">
         <v>45133</v>
       </c>
-      <c r="U22" s="6" t="n">
+      <c r="V22" s="6" t="n">
         <v>45145</v>
       </c>
-      <c r="V22" s="6" t="n">
+      <c r="W22" s="6" t="n">
         <v>45155</v>
       </c>
-      <c r="W22" s="6" t="n">
+      <c r="X22" s="6" t="n">
         <v>45269</v>
       </c>
-      <c r="X22" s="5" t="inlineStr">
+      <c r="Y22" s="5" t="inlineStr">
         <is>
           <t>TRI-BAIRN CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Y22" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z22" s="7" t="n"/>
+      <c r="Z22" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="7" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="5" t="inlineStr">
+      <c r="A23" s="5" t="n">
+        <v>347</v>
+      </c>
+      <c r="B23" s="5" t="inlineStr">
         <is>
           <t>LMS 2023</t>
         </is>
       </c>
-      <c r="B23" s="5" t="inlineStr">
+      <c r="C23" s="5" t="inlineStr">
         <is>
           <t>Region VII</t>
         </is>
       </c>
-      <c r="C23" s="5" t="inlineStr">
+      <c r="D23" s="5" t="inlineStr">
         <is>
           <t>Cebu</t>
         </is>
       </c>
-      <c r="D23" s="5" t="n">
+      <c r="E23" s="5" t="n">
         <v>119230</v>
       </c>
-      <c r="E23" s="5" t="inlineStr">
+      <c r="F23" s="5" t="inlineStr">
         <is>
           <t>Magay ES</t>
         </is>
       </c>
-      <c r="F23" s="5" t="inlineStr">
+      <c r="G23" s="5" t="inlineStr">
         <is>
           <t>COMPOSTELA</t>
         </is>
       </c>
-      <c r="G23" s="5" t="n">
+      <c r="H23" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="H23" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I23" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J23" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J23" s="5" t="inlineStr">
+      <c r="K23" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF 1STY-4CL SCHOOL BUILDING WITH COMMON TOILET WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K23" s="5" t="n">
+      <c r="L23" s="5" t="n">
         <v>11139089.16</v>
       </c>
-      <c r="L23" s="5" t="n">
+      <c r="M23" s="5" t="n">
         <v>10978920.9</v>
       </c>
-      <c r="M23" s="5" t="inlineStr">
+      <c r="N23" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N23" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O23" s="6" t="n">
+      <c r="O23" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P23" s="6" t="n">
         <v>45536</v>
       </c>
-      <c r="P23" s="5" t="inlineStr">
+      <c r="Q23" s="5" t="inlineStr">
         <is>
           <t>25/12/2023</t>
         </is>
       </c>
-      <c r="Q23" s="5" t="inlineStr">
+      <c r="R23" s="5" t="inlineStr">
         <is>
           <t>CY 2023 LMS-R7-CEBU</t>
         </is>
       </c>
-      <c r="R23" s="5" t="inlineStr">
+      <c r="S23" s="5" t="inlineStr">
         <is>
           <t>CY 2023 LMS-R7-CEBU-06</t>
         </is>
       </c>
-      <c r="S23" s="6" t="n">
+      <c r="T23" s="6" t="n">
         <v>45126</v>
       </c>
-      <c r="T23" s="6" t="n">
+      <c r="U23" s="6" t="n">
         <v>45133</v>
       </c>
-      <c r="U23" s="6" t="n">
+      <c r="V23" s="6" t="n">
         <v>45145</v>
       </c>
-      <c r="V23" s="6" t="n">
+      <c r="W23" s="6" t="n">
         <v>45155</v>
       </c>
-      <c r="W23" s="5" t="inlineStr">
+      <c r="X23" s="5" t="inlineStr">
         <is>
           <t>31/08/2023</t>
         </is>
       </c>
-      <c r="X23" s="5" t="inlineStr">
+      <c r="Y23" s="5" t="inlineStr">
         <is>
           <t>BARR STEEL CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Y23" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z23" s="7" t="n"/>
+      <c r="Z23" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="7" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" s="5" t="inlineStr">
+      <c r="A24" s="5" t="n">
+        <v>348</v>
+      </c>
+      <c r="B24" s="5" t="inlineStr">
         <is>
           <t>LMS 2023</t>
         </is>
       </c>
-      <c r="B24" s="5" t="inlineStr">
+      <c r="C24" s="5" t="inlineStr">
         <is>
           <t>Region VII</t>
         </is>
       </c>
-      <c r="C24" s="5" t="inlineStr">
+      <c r="D24" s="5" t="inlineStr">
         <is>
           <t>Cebu</t>
         </is>
       </c>
-      <c r="D24" s="5" t="n">
+      <c r="E24" s="5" t="n">
         <v>501350</v>
       </c>
-      <c r="E24" s="5" t="inlineStr">
+      <c r="F24" s="5" t="inlineStr">
         <is>
           <t>Tag-ubi Integrated School</t>
         </is>
       </c>
-      <c r="F24" s="5" t="inlineStr">
+      <c r="G24" s="5" t="inlineStr">
         <is>
           <t>COMPOSTELA</t>
         </is>
       </c>
-      <c r="G24" s="5" t="n">
+      <c r="H24" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="H24" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I24" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J24" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J24" s="5" t="inlineStr">
+      <c r="K24" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF 1STY-3CL SCHOOL BUILDING WITH COMMON TOILET WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K24" s="5" t="n">
+      <c r="L24" s="5" t="n">
         <v>9399879.76</v>
       </c>
-      <c r="L24" s="5" t="n">
+      <c r="M24" s="5" t="n">
         <v>7288932.45</v>
       </c>
-      <c r="M24" s="5" t="inlineStr">
+      <c r="N24" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N24" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O24" s="5" t="inlineStr">
+      <c r="O24" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P24" s="5" t="inlineStr">
         <is>
           <t>25/12/2023</t>
         </is>
       </c>
-      <c r="P24" s="5" t="inlineStr">
+      <c r="Q24" s="5" t="inlineStr">
         <is>
           <t>25/12/2023</t>
         </is>
       </c>
-      <c r="Q24" s="5" t="inlineStr">
+      <c r="R24" s="5" t="inlineStr">
         <is>
           <t>CY 2023 LMS-R7-CEBU</t>
         </is>
       </c>
-      <c r="R24" s="5" t="inlineStr">
+      <c r="S24" s="5" t="inlineStr">
         <is>
           <t>CY 2023 LMS-R7-CEBU-05</t>
         </is>
       </c>
-      <c r="S24" s="6" t="n">
+      <c r="T24" s="6" t="n">
         <v>45126</v>
       </c>
-      <c r="T24" s="6" t="n">
+      <c r="U24" s="6" t="n">
         <v>45133</v>
       </c>
-      <c r="U24" s="6" t="n">
+      <c r="V24" s="6" t="n">
         <v>45145</v>
       </c>
-      <c r="V24" s="6" t="n">
+      <c r="W24" s="6" t="n">
         <v>45155</v>
       </c>
-      <c r="W24" s="5" t="inlineStr">
+      <c r="X24" s="5" t="inlineStr">
         <is>
           <t>31/08/2023</t>
         </is>
       </c>
-      <c r="X24" s="5" t="inlineStr">
+      <c r="Y24" s="5" t="inlineStr">
         <is>
           <t>ANIELTHON CONSTRUCTION AND SUPPLY</t>
         </is>
       </c>
-      <c r="Y24" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z24" s="7" t="n"/>
+      <c r="Z24" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="7" t="n"/>
     </row>
     <row r="25">
-      <c r="A25" s="5" t="inlineStr">
+      <c r="A25" s="5" t="n">
+        <v>485</v>
+      </c>
+      <c r="B25" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B25" s="5" t="inlineStr">
+      <c r="C25" s="5" t="inlineStr">
         <is>
           <t>Region VII</t>
         </is>
       </c>
-      <c r="C25" s="5" t="inlineStr">
+      <c r="D25" s="5" t="inlineStr">
         <is>
           <t>Cebu</t>
         </is>
       </c>
-      <c r="D25" s="5" t="n">
+      <c r="E25" s="5" t="n">
         <v>119637</v>
       </c>
-      <c r="E25" s="5" t="inlineStr">
+      <c r="F25" s="5" t="inlineStr">
         <is>
           <t>TUBOD ES</t>
         </is>
       </c>
-      <c r="F25" s="5" t="inlineStr">
+      <c r="G25" s="5" t="inlineStr">
         <is>
           <t>SAN FERNANDO</t>
         </is>
       </c>
-      <c r="G25" s="5" t="inlineStr">
+      <c r="H25" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">1st </t>
         </is>
       </c>
-      <c r="H25" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I25" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J25" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J25" s="5" t="inlineStr">
+      <c r="K25" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF TWO (2) UNITS ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF SCHOOL FURNITURE AND WATER SYSTEM (DEEP WELL)</t>
         </is>
       </c>
-      <c r="K25" s="5" t="n">
+      <c r="L25" s="5" t="n">
         <v>14679322.67</v>
       </c>
-      <c r="L25" s="5" t="n">
+      <c r="M25" s="5" t="n">
         <v>10400000</v>
       </c>
-      <c r="M25" s="5" t="inlineStr">
+      <c r="N25" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="N25" s="5" t="n">
+      <c r="O25" s="5" t="n">
         <v>0.8</v>
       </c>
-      <c r="O25" s="5" t="inlineStr">
+      <c r="P25" s="5" t="inlineStr">
         <is>
           <t>28/04/2025</t>
         </is>
       </c>
-      <c r="P25" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
       <c r="Q25" s="5" t="inlineStr">
         <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="R25" s="5" t="inlineStr">
+        <is>
           <t>CY 2024 BEFF LMS-DepED-R7-Cebu-01</t>
         </is>
       </c>
-      <c r="R25" s="5" t="inlineStr">
+      <c r="S25" s="5" t="inlineStr">
         <is>
           <t>CY 2024 BEFF LMS-DepED-R7-Cebu-01</t>
         </is>
       </c>
-      <c r="S25" s="6" t="n">
+      <c r="T25" s="6" t="n">
         <v>45602</v>
       </c>
-      <c r="T25" s="5" t="inlineStr">
+      <c r="U25" s="5" t="inlineStr">
         <is>
           <t>18/06/2024</t>
         </is>
       </c>
-      <c r="U25" s="6" t="n">
+      <c r="V25" s="6" t="n">
         <v>45329</v>
       </c>
-      <c r="V25" s="5" t="inlineStr">
+      <c r="W25" s="5" t="inlineStr">
         <is>
           <t>16/08/2024</t>
         </is>
       </c>
-      <c r="W25" s="5" t="inlineStr">
+      <c r="X25" s="5" t="inlineStr">
         <is>
           <t>22/10/2024</t>
         </is>
       </c>
-      <c r="X25" s="5" t="inlineStr">
+      <c r="Y25" s="5" t="inlineStr">
         <is>
           <t>TRI-BAIRN CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Y25" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z25" s="7" t="n"/>
+      <c r="Z25" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="7" t="n"/>
     </row>
     <row r="26">
-      <c r="A26" s="5" t="inlineStr">
+      <c r="A26" s="5" t="n">
+        <v>486</v>
+      </c>
+      <c r="B26" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B26" s="5" t="inlineStr">
+      <c r="C26" s="5" t="inlineStr">
         <is>
           <t>Region VII</t>
         </is>
       </c>
-      <c r="C26" s="5" t="inlineStr">
+      <c r="D26" s="5" t="inlineStr">
         <is>
           <t>Cebu</t>
         </is>
       </c>
-      <c r="D26" s="5" t="n">
+      <c r="E26" s="5" t="n">
         <v>119699</v>
       </c>
-      <c r="E26" s="5" t="inlineStr">
+      <c r="F26" s="5" t="inlineStr">
         <is>
           <t>LIPTONG ES</t>
         </is>
       </c>
-      <c r="F26" s="5" t="inlineStr">
+      <c r="G26" s="5" t="inlineStr">
         <is>
           <t>SANTANDER</t>
         </is>
       </c>
-      <c r="G26" s="5" t="inlineStr">
+      <c r="H26" s="5" t="inlineStr">
         <is>
           <t>2nd</t>
         </is>
       </c>
-      <c r="H26" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I26" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J26" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J26" s="5" t="inlineStr">
+      <c r="K26" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF SCHOOL FURNITURE AND WATER SYSTEM (DEEP WELL)</t>
         </is>
       </c>
-      <c r="K26" s="5" t="n">
+      <c r="L26" s="5" t="n">
         <v>11508290.01</v>
       </c>
-      <c r="L26" s="5" t="n">
+      <c r="M26" s="5" t="n">
         <v>11393207.11</v>
       </c>
-      <c r="M26" s="5" t="inlineStr">
+      <c r="N26" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="N26" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O26" s="5" t="inlineStr">
+      <c r="O26" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P26" s="5" t="inlineStr">
         <is>
           <t>28/04/2025</t>
         </is>
       </c>
-      <c r="P26" s="5" t="inlineStr">
+      <c r="Q26" s="5" t="inlineStr">
         <is>
           <t>28/04/2025</t>
         </is>
       </c>
-      <c r="Q26" s="5" t="inlineStr">
+      <c r="R26" s="5" t="inlineStr">
         <is>
           <t>CY 2024 BEFF LMS-DepED-R7-Cebu-02</t>
         </is>
       </c>
-      <c r="R26" s="5" t="inlineStr">
+      <c r="S26" s="5" t="inlineStr">
         <is>
           <t>CY 2024 BEFF LMS-DepED-R7-Cebu-02</t>
         </is>
       </c>
-      <c r="S26" s="6" t="n">
+      <c r="T26" s="6" t="n">
         <v>45602</v>
       </c>
-      <c r="T26" s="5" t="inlineStr">
+      <c r="U26" s="5" t="inlineStr">
         <is>
           <t>18/06/2024</t>
         </is>
       </c>
-      <c r="U26" s="6" t="n">
+      <c r="V26" s="6" t="n">
         <v>45329</v>
       </c>
-      <c r="V26" s="5" t="inlineStr">
+      <c r="W26" s="5" t="inlineStr">
         <is>
           <t>16/08/2024</t>
         </is>
       </c>
-      <c r="W26" s="5" t="inlineStr">
+      <c r="X26" s="5" t="inlineStr">
         <is>
           <t>22/10/2024</t>
         </is>
       </c>
-      <c r="X26" s="5" t="inlineStr">
+      <c r="Y26" s="5" t="inlineStr">
         <is>
           <t>RT CONSTRUCTION &amp; ENTERPRISES</t>
         </is>
       </c>
-      <c r="Y26" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z26" s="7" t="n"/>
+      <c r="Z26" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="7" t="n"/>
     </row>
     <row r="27">
-      <c r="A27" s="5" t="inlineStr">
+      <c r="A27" s="5" t="n">
+        <v>487</v>
+      </c>
+      <c r="B27" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B27" s="5" t="inlineStr">
+      <c r="C27" s="5" t="inlineStr">
         <is>
           <t>Region VII</t>
         </is>
       </c>
-      <c r="C27" s="5" t="inlineStr">
+      <c r="D27" s="5" t="inlineStr">
         <is>
           <t>Cebu</t>
         </is>
       </c>
-      <c r="D27" s="5" t="n">
+      <c r="E27" s="5" t="n">
         <v>118976</v>
       </c>
-      <c r="E27" s="5" t="inlineStr">
+      <c r="F27" s="5" t="inlineStr">
         <is>
           <t>KALUANGAN II</t>
         </is>
       </c>
-      <c r="F27" s="5" t="inlineStr">
+      <c r="G27" s="5" t="inlineStr">
         <is>
           <t>ASTURIAS</t>
         </is>
       </c>
-      <c r="G27" s="5" t="inlineStr">
+      <c r="H27" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">3rd </t>
         </is>
       </c>
-      <c r="H27" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I27" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J27" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J27" s="5" t="inlineStr">
+      <c r="K27" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF SCHOOL FURNITURE AND WATER SYSTEM (DEEP WELL)</t>
         </is>
       </c>
-      <c r="K27" s="5" t="n">
+      <c r="L27" s="5" t="n">
         <v>11508290.01</v>
       </c>
-      <c r="L27" s="5" t="n">
+      <c r="M27" s="5" t="n">
         <v>11328208.14</v>
       </c>
-      <c r="M27" s="5" t="inlineStr">
+      <c r="N27" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="N27" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O27" s="5" t="inlineStr">
+      <c r="O27" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P27" s="5" t="inlineStr">
         <is>
           <t>28/04/2025</t>
         </is>
       </c>
-      <c r="P27" s="5" t="inlineStr">
+      <c r="Q27" s="5" t="inlineStr">
         <is>
           <t>28/04/2025</t>
         </is>
       </c>
-      <c r="Q27" s="5" t="inlineStr">
+      <c r="R27" s="5" t="inlineStr">
         <is>
           <t>CY 2024 BEFF LMS-DepED-R7-Cebu-03</t>
         </is>
       </c>
-      <c r="R27" s="5" t="inlineStr">
+      <c r="S27" s="5" t="inlineStr">
         <is>
           <t>CY 2024 BEFF LMS-DepED-R7-Cebu-03</t>
         </is>
       </c>
-      <c r="S27" s="6" t="n">
+      <c r="T27" s="6" t="n">
         <v>45602</v>
       </c>
-      <c r="T27" s="5" t="inlineStr">
+      <c r="U27" s="5" t="inlineStr">
         <is>
           <t>18/06/2024</t>
         </is>
       </c>
-      <c r="U27" s="6" t="n">
+      <c r="V27" s="6" t="n">
         <v>45329</v>
       </c>
-      <c r="V27" s="5" t="inlineStr">
+      <c r="W27" s="5" t="inlineStr">
         <is>
           <t>16/08/2024</t>
         </is>
       </c>
-      <c r="W27" s="5" t="inlineStr">
+      <c r="X27" s="5" t="inlineStr">
         <is>
           <t>22/10/2024</t>
         </is>
       </c>
-      <c r="X27" s="5" t="inlineStr">
+      <c r="Y27" s="5" t="inlineStr">
         <is>
           <t>ANIELTHON CONSTRUCTION &amp; SUPPLY</t>
         </is>
       </c>
-      <c r="Y27" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z27" s="7" t="n"/>
+      <c r="Z27" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="7" t="n"/>
     </row>
     <row r="28">
-      <c r="A28" s="5" t="inlineStr">
+      <c r="A28" s="5" t="n">
+        <v>488</v>
+      </c>
+      <c r="B28" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B28" s="5" t="inlineStr">
+      <c r="C28" s="5" t="inlineStr">
         <is>
           <t>Region VII</t>
         </is>
       </c>
-      <c r="C28" s="5" t="inlineStr">
+      <c r="D28" s="5" t="inlineStr">
         <is>
           <t>Cebu</t>
         </is>
       </c>
-      <c r="D28" s="5" t="n">
+      <c r="E28" s="5" t="n">
         <v>119435</v>
       </c>
-      <c r="E28" s="5" t="inlineStr">
+      <c r="F28" s="5" t="inlineStr">
         <is>
           <t>TARONG ES</t>
         </is>
       </c>
-      <c r="F28" s="5" t="inlineStr">
+      <c r="G28" s="5" t="inlineStr">
         <is>
           <t>MADRIDEJOS</t>
         </is>
       </c>
-      <c r="G28" s="5" t="inlineStr">
+      <c r="H28" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">4th </t>
         </is>
       </c>
-      <c r="H28" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I28" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J28" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J28" s="5" t="inlineStr">
+      <c r="K28" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF SCHOOL FURNITURE AND WATER SYSTEM (DEEP WELL)</t>
         </is>
       </c>
-      <c r="K28" s="5" t="n">
+      <c r="L28" s="5" t="n">
         <v>8027122.46</v>
       </c>
-      <c r="L28" s="5" t="n">
+      <c r="M28" s="5" t="n">
         <v>7907423.97</v>
       </c>
-      <c r="M28" s="5" t="inlineStr">
+      <c r="N28" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="N28" s="5" t="n">
+      <c r="O28" s="5" t="n">
         <v>0.8</v>
       </c>
-      <c r="O28" s="5" t="inlineStr">
+      <c r="P28" s="5" t="inlineStr">
         <is>
           <t>29/03/2025</t>
         </is>
       </c>
-      <c r="P28" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
       <c r="Q28" s="5" t="inlineStr">
         <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="R28" s="5" t="inlineStr">
+        <is>
           <t>CY 2024 BEFF LMS-DepED-R7-Cebu-04</t>
         </is>
       </c>
-      <c r="R28" s="5" t="inlineStr">
+      <c r="S28" s="5" t="inlineStr">
         <is>
           <t>CY 2024 BEFF LMS-DepED-R7-Cebu-04</t>
         </is>
       </c>
-      <c r="S28" s="6" t="n">
+      <c r="T28" s="6" t="n">
         <v>45602</v>
       </c>
-      <c r="T28" s="5" t="inlineStr">
+      <c r="U28" s="5" t="inlineStr">
         <is>
           <t>18/06/2024</t>
         </is>
       </c>
-      <c r="U28" s="6" t="n">
+      <c r="V28" s="6" t="n">
         <v>45329</v>
       </c>
-      <c r="V28" s="5" t="inlineStr">
+      <c r="W28" s="5" t="inlineStr">
         <is>
           <t>16/08/2024</t>
         </is>
       </c>
-      <c r="W28" s="5" t="inlineStr">
+      <c r="X28" s="5" t="inlineStr">
         <is>
           <t>22/10/2024</t>
         </is>
       </c>
-      <c r="X28" s="5" t="inlineStr">
+      <c r="Y28" s="5" t="inlineStr">
         <is>
           <t>ROVILLA CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Y28" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z28" s="7" t="n"/>
+      <c r="Z28" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="7" t="n"/>
     </row>
     <row r="29">
-      <c r="A29" s="5" t="inlineStr">
+      <c r="A29" s="5" t="n">
+        <v>489</v>
+      </c>
+      <c r="B29" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B29" s="5" t="inlineStr">
+      <c r="C29" s="5" t="inlineStr">
         <is>
           <t>Region VII</t>
         </is>
       </c>
-      <c r="C29" s="5" t="inlineStr">
+      <c r="D29" s="5" t="inlineStr">
         <is>
           <t>Cebu</t>
         </is>
       </c>
-      <c r="D29" s="5" t="n">
+      <c r="E29" s="5" t="n">
         <v>119214</v>
       </c>
-      <c r="E29" s="5" t="inlineStr">
+      <c r="F29" s="5" t="inlineStr">
         <is>
           <t>CAN-IBUANG PS</t>
         </is>
       </c>
-      <c r="F29" s="5" t="inlineStr">
+      <c r="G29" s="5" t="inlineStr">
         <is>
           <t>CATMON</t>
         </is>
       </c>
-      <c r="G29" s="5" t="inlineStr">
+      <c r="H29" s="5" t="inlineStr">
         <is>
           <t>5th</t>
         </is>
       </c>
-      <c r="H29" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I29" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J29" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J29" s="5" t="inlineStr">
+      <c r="K29" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF SCHOOL FURNITURE AND WATER SYSTEM (DEEP WELL)</t>
         </is>
       </c>
-      <c r="K29" s="5" t="n">
+      <c r="L29" s="5" t="n">
         <v>8027122.46</v>
       </c>
-      <c r="L29" s="5" t="n">
+      <c r="M29" s="5" t="n">
         <v>7900000</v>
       </c>
-      <c r="M29" s="5" t="inlineStr">
+      <c r="N29" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="N29" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O29" s="5" t="inlineStr">
+      <c r="O29" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P29" s="5" t="inlineStr">
         <is>
           <t>29/03/2025</t>
         </is>
       </c>
-      <c r="P29" s="5" t="inlineStr">
+      <c r="Q29" s="5" t="inlineStr">
         <is>
           <t>29/03/2025</t>
         </is>
       </c>
-      <c r="Q29" s="5" t="inlineStr">
+      <c r="R29" s="5" t="inlineStr">
         <is>
           <t>CY 2024 BEFF LMS-DepED-R7-Cebu-05</t>
         </is>
       </c>
-      <c r="R29" s="5" t="inlineStr">
+      <c r="S29" s="5" t="inlineStr">
         <is>
           <t>CY 2024 BEFF LMS-DepED-R7-Cebu-05</t>
         </is>
       </c>
-      <c r="S29" s="6" t="n">
+      <c r="T29" s="6" t="n">
         <v>45602</v>
       </c>
-      <c r="T29" s="5" t="inlineStr">
+      <c r="U29" s="5" t="inlineStr">
         <is>
           <t>18/06/2024</t>
         </is>
       </c>
-      <c r="U29" s="6" t="n">
+      <c r="V29" s="6" t="n">
         <v>45329</v>
       </c>
-      <c r="V29" s="5" t="inlineStr">
+      <c r="W29" s="5" t="inlineStr">
         <is>
           <t>16/08/2024</t>
         </is>
       </c>
-      <c r="W29" s="5" t="inlineStr">
+      <c r="X29" s="5" t="inlineStr">
         <is>
           <t>22/10/2024</t>
         </is>
       </c>
-      <c r="X29" s="5" t="inlineStr">
+      <c r="Y29" s="5" t="inlineStr">
         <is>
           <t>TRI-BAIRN CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Y29" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z29" s="7" t="n"/>
+      <c r="Z29" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="7" t="n"/>
     </row>
     <row r="30">
-      <c r="A30" s="5" t="inlineStr">
+      <c r="A30" s="5" t="n">
+        <v>494</v>
+      </c>
+      <c r="B30" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B30" s="5" t="inlineStr">
+      <c r="C30" s="5" t="inlineStr">
         <is>
           <t>Region VII</t>
         </is>
       </c>
-      <c r="C30" s="5" t="inlineStr">
+      <c r="D30" s="5" t="inlineStr">
         <is>
           <t>Talisay City</t>
         </is>
       </c>
-      <c r="D30" s="5" t="n">
+      <c r="E30" s="5" t="n">
         <v>119804</v>
       </c>
-      <c r="E30" s="5" t="inlineStr">
+      <c r="F30" s="5" t="inlineStr">
         <is>
           <t>Tapul Elementary School</t>
         </is>
       </c>
-      <c r="F30" s="5" t="inlineStr">
+      <c r="G30" s="5" t="inlineStr">
         <is>
           <t>Talisay City</t>
         </is>
       </c>
-      <c r="G30" s="5" t="inlineStr">
+      <c r="H30" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">1st </t>
         </is>
       </c>
-      <c r="H30" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I30" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J30" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J30" s="5" t="inlineStr">
+      <c r="K30" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K30" s="5" t="n">
+      <c r="L30" s="5" t="n">
         <v>21184978.14</v>
       </c>
-      <c r="L30" s="5" t="n">
+      <c r="M30" s="5" t="n">
         <v>20952888</v>
       </c>
-      <c r="M30" s="5" t="inlineStr">
+      <c r="N30" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="N30" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O30" s="6" t="n">
-        <v>45688</v>
+      <c r="O30" s="5" t="n">
+        <v>1</v>
       </c>
       <c r="P30" s="6" t="n">
         <v>45688</v>
       </c>
-      <c r="Q30" s="5" t="inlineStr">
+      <c r="Q30" s="6" t="n">
+        <v>45688</v>
+      </c>
+      <c r="R30" s="5" t="inlineStr">
         <is>
           <t>2024-001</t>
         </is>
       </c>
-      <c r="R30" s="5" t="n">
+      <c r="S30" s="5" t="n">
         <v>45436</v>
       </c>
-      <c r="S30" s="6" t="n">
+      <c r="T30" s="6" t="n">
         <v>45379</v>
       </c>
-      <c r="T30" s="6" t="n">
+      <c r="U30" s="6" t="n">
         <v>45386</v>
       </c>
-      <c r="U30" s="6" t="n">
+      <c r="V30" s="6" t="n">
         <v>45398</v>
       </c>
-      <c r="V30" s="6" t="n">
+      <c r="W30" s="6" t="n">
         <v>45400</v>
       </c>
-      <c r="W30" s="6" t="n">
+      <c r="X30" s="6" t="n">
         <v>45449</v>
       </c>
-      <c r="X30" s="5" t="inlineStr">
+      <c r="Y30" s="5" t="inlineStr">
         <is>
           <t>Quirante Construction Corporation</t>
         </is>
       </c>
-      <c r="Y30" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z30" s="7" t="n"/>
+      <c r="Z30" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="7" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="5" t="inlineStr">
+      <c r="A31" s="5" t="n">
+        <v>495</v>
+      </c>
+      <c r="B31" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B31" s="5" t="inlineStr">
+      <c r="C31" s="5" t="inlineStr">
         <is>
           <t>Region VII</t>
         </is>
       </c>
-      <c r="C31" s="5" t="inlineStr">
+      <c r="D31" s="5" t="inlineStr">
         <is>
           <t>Toledo City</t>
         </is>
       </c>
-      <c r="D31" s="5" t="n">
+      <c r="E31" s="5" t="n">
         <v>120736</v>
       </c>
-      <c r="E31" s="5" t="inlineStr">
+      <c r="F31" s="5" t="inlineStr">
         <is>
           <t>NEW BUCAO ELEMENTARY SCHOOL</t>
         </is>
       </c>
-      <c r="F31" s="5" t="inlineStr">
+      <c r="G31" s="5" t="inlineStr">
         <is>
           <t>TOLEDO</t>
         </is>
       </c>
-      <c r="G31" s="5" t="inlineStr">
+      <c r="H31" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">3rd </t>
         </is>
       </c>
-      <c r="H31" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I31" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J31" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J31" s="5" t="inlineStr">
+      <c r="K31" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF ONE (1) STOREY - THREE (3) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K31" s="5" t="n">
+      <c r="L31" s="5" t="n">
         <v>9772031.960000001</v>
       </c>
-      <c r="L31" s="5" t="n">
+      <c r="M31" s="5" t="n">
         <v>10376058.62</v>
       </c>
-      <c r="M31" s="5" t="inlineStr">
+      <c r="N31" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="N31" s="5" t="n">
+      <c r="O31" s="5" t="n">
         <v>0.2</v>
       </c>
-      <c r="O31" s="6" t="n">
+      <c r="P31" s="6" t="n">
         <v>45865</v>
       </c>
-      <c r="P31" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
       <c r="Q31" s="5" t="inlineStr">
         <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="R31" s="5" t="inlineStr">
+        <is>
           <t>LMS 2023-R VII-TOLEDO CITY-001</t>
         </is>
       </c>
-      <c r="R31" s="5" t="inlineStr">
+      <c r="S31" s="5" t="inlineStr">
         <is>
           <t>2024-015</t>
         </is>
       </c>
-      <c r="S31" s="5" t="inlineStr">
+      <c r="T31" s="5" t="inlineStr">
         <is>
           <t>Mar. 21, 2024</t>
         </is>
       </c>
-      <c r="T31" s="5" t="inlineStr">
+      <c r="U31" s="5" t="inlineStr">
         <is>
           <t>Mar. 27, 2024</t>
         </is>
       </c>
-      <c r="U31" s="5" t="inlineStr">
+      <c r="V31" s="5" t="inlineStr">
         <is>
           <t>Apr. 8, 2024</t>
         </is>
       </c>
-      <c r="V31" s="5" t="inlineStr">
+      <c r="W31" s="5" t="inlineStr">
         <is>
           <t>Apr. 19, 2024</t>
         </is>
       </c>
-      <c r="W31" s="5" t="inlineStr">
+      <c r="X31" s="5" t="inlineStr">
         <is>
           <t>Feb. 27, 2025</t>
         </is>
       </c>
-      <c r="X31" s="5" t="inlineStr">
+      <c r="Y31" s="5" t="inlineStr">
         <is>
           <t>Tribairn Construction</t>
         </is>
       </c>
-      <c r="Y31" s="5" t="inlineStr">
+      <c r="Z31" s="5" t="inlineStr">
         <is>
           <t>Late issuance of NTP due to road not passable</t>
         </is>
       </c>
-      <c r="Z31" s="7" t="n"/>
+      <c r="AA31" s="7" t="n"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation sqref="Z2:Z31" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="AA2:AA31" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=DropdownOptions!$A$1:$A$7</formula1>
     </dataValidation>
   </dataValidations>
